--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Single Classification" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="30">
   <si>
     <t>Rede</t>
   </si>
@@ -120,6 +120,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -179,12 +180,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -207,8 +212,8 @@
   </sheetPr>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2792,20 +2797,2574 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="19.3112244897959"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1071428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.9438775510204"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.99996</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0.58939</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>252140</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>418</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.83471</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.34344</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>210460</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>41674</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>671</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.48224</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.30596</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>313</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>121610</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>130570</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>710</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.99989</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.58944</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>603</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>252080</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>420</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0.71533</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.93157</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>953</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>180390</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>71787</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0.79702</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0.49365</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>505</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>200990</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>51188</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>518</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0.99071</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0.29717</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>304</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>249840</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>2342</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>719</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>252180</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>1023</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0.97408</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0.74052</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>625</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>12478</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>332</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>239550</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0.99997</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0.64809</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>663</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>252170</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0.97967</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0.56706</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>482</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>13832</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>287</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>368</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>238230</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>0.99963</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>143160</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>986</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0.9899</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>0.79374</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>812</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>249630</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>2548</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>0.92567</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0.88172</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>902</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>233440</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>18745</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>0.98036</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>0.84164</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>861</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>247230</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>4953</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0.99022</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>0.7598</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>775</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>243400</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>2404</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0.99892</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>0.85239</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>872</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>251910</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>273</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0.99209</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>0.8348</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>854</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>250180</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>1995</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>1023</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>252180</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>252180</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>1020</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>1023</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>252180</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>252180</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>1023</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>253170</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>0.96717</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>0.45455</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>465</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>243900</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>8280</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>558</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>0.51044</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>0.95797</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>980</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>128720</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>123460</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>0.69697</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>713</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>248400</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>3782</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>310</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>1023</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>252180</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>0.74658</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>0.22483</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>188270</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>63907</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>793</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>0.99833</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>0.83871</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>858</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>251760</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>421</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>0.99301</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>0.84457</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>864</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>250420</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>1763</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>0.14208</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>0.83933</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>653</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>6244</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>37703</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>0.019683</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>0.9313</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>732</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>865</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>43082</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>0.093772</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>0.90712</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>713</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>4121</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>39826</v>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>0.99993</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>0.32398</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>254</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>42512</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>530</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>0.9103</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>0.60305</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>474</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>40005</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>3942</v>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>312</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>0.092043</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>0.90712</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>713</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>4045</v>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>39902</v>
+      </c>
+      <c r="L39" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>0.95772</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>0.11196</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>42089</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>1858</v>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v>698</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>43947</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>786</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>557</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>0.99993</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>0.30025</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>43944</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v>550</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>0.94877</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>8185</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>442</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>35882</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>0.0065147</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>6439</v>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>305</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>37987</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>0.34291</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>0.86641</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>681</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>15070</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>28877</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>0.9002</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>0.70625</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>452</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>26565</v>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>2945</v>
+      </c>
+      <c r="L47" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>14583</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>0.94748</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>0.23028</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>2308</v>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v>605</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>0.081841</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>12146</v>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="n">
+        <v>359</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>32196</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>0.21992</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>0.89695</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>705</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>9665</v>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>34282</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>0.94441</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>0.55725</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>438</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>41504</v>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>2443</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>348</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>786</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>43947</v>
+      </c>
+      <c r="L52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>0.99993</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>43944</v>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L53" s="2" t="n">
+        <v>786</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>786</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>43947</v>
+      </c>
+      <c r="L54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>43947</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="n">
+        <v>786</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2" t="n">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>0.99997</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>0.37054</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>35103</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>423</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>8957</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>0.88868</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>0.50254</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>395</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>39055</v>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>4892</v>
+      </c>
+      <c r="L58" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>0.98751</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>0.51145</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>402</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>43398</v>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>549</v>
+      </c>
+      <c r="L59" s="2" t="n">
+        <v>384</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>4.5509E-005</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>786</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>43945</v>
+      </c>
+      <c r="L60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>0.10165</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>0.79771</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>627</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>4467</v>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>39480</v>
+      </c>
+      <c r="L61" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="M61" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>0.99315</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>0.58779</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>462</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>43646</v>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="L62" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="M62" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>0.58906</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>463</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>43200</v>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>747</v>
+      </c>
+      <c r="L63" s="2" t="n">
+        <v>323</v>
+      </c>
+      <c r="M63" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -2799,8 +2799,8 @@
   </sheetPr>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2880,6 +2880,27 @@
       <c r="F2" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="G2" s="2" t="n">
+        <v>0.90435</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0.89412</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>912</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>228070</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>24123</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João\Git\TP3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="198" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Single Classification" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Group Classification" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Single Classification" sheetId="1" r:id="rId1"/>
+    <sheet name="Group Classification" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="32">
   <si>
     <t>Rede</t>
   </si>
@@ -107,35 +111,23 @@
   <si>
     <t>63502.mat</t>
   </si>
+  <si>
+    <t>0.8545</t>
+  </si>
+  <si>
+    <t>0.60077</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +139,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -155,86 +147,325 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.8418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.1122448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.9744897959184"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="21.140625"/>
+    <col min="2" max="2" width="16.28515625"/>
+    <col min="3" max="3" width="20.140625"/>
+    <col min="4" max="4" width="29"/>
+    <col min="5" max="5" width="11.5703125"/>
+    <col min="6" max="6" width="30.85546875"/>
+    <col min="7" max="7" width="14.7109375"/>
+    <col min="8" max="8" width="13"/>
+    <col min="9" max="9" width="21.140625"/>
+    <col min="10" max="10" width="19"/>
+    <col min="11" max="11" width="14.5703125"/>
+    <col min="12" max="12" width="16"/>
+    <col min="13" max="13" width="17.28515625"/>
+    <col min="14" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -271,11 +502,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -291,17 +522,32 @@
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="1">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.90434999999999999</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.89412000000000003</v>
+      </c>
+      <c r="I2" s="2">
+        <v>912</v>
+      </c>
+      <c r="J2" s="2">
+        <v>228070</v>
+      </c>
+      <c r="K2" s="2">
+        <v>24123</v>
+      </c>
+      <c r="L2" s="2">
+        <v>108</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -317,32 +563,32 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.9983</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0.6941</v>
-      </c>
-      <c r="I3" s="1" t="n">
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="I3" s="1">
         <v>540</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="1">
         <v>244948</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="1">
         <v>418</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="1">
         <v>238</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="1">
         <v>7069</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -358,32 +604,32 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.71264</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0.58589</v>
-      </c>
-      <c r="I4" s="1" t="n">
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.71264000000000005</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.58589000000000002</v>
+      </c>
+      <c r="I4" s="1">
         <v>382</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="1">
         <v>165450</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="1">
         <v>66715</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="1">
         <v>270</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="1">
         <v>20399</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -399,32 +645,32 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.52643</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0.4517</v>
-      </c>
-      <c r="I5" s="1" t="n">
+      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.52642999999999995</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.45169999999999999</v>
+      </c>
+      <c r="I5" s="1">
         <v>318</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="1">
         <v>130110</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="1">
         <v>117050</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="1">
         <v>386</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="M5" s="1">
         <v>5347</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -440,32 +686,32 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.99838</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0.65019</v>
-      </c>
-      <c r="I6" s="1" t="n">
+      <c r="F6" s="1">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.99838000000000005</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.65019000000000005</v>
+      </c>
+      <c r="I6" s="1">
         <v>513</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="1">
         <v>247390</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="1">
         <v>401</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="1">
         <v>276</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="1">
         <v>4629</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -481,32 +727,32 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.59739</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>0.93988</v>
-      </c>
-      <c r="I7" s="1" t="n">
+      <c r="F7" s="1">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.59738999999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.93988000000000005</v>
+      </c>
+      <c r="I7" s="1">
         <v>938</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="1">
         <v>131920</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="1">
         <v>88905</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="L7" s="1">
         <v>60</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="1">
         <v>31395</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -522,32 +768,32 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="n">
+      <c r="F8" s="1">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.72719</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>0.53726</v>
-      </c>
-      <c r="I8" s="1" t="n">
+      <c r="H8" s="1">
+        <v>0.53725999999999996</v>
+      </c>
+      <c r="I8" s="1">
         <v>483</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="1">
         <v>181540</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="1">
         <v>68104</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="1">
         <v>416</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="1">
         <v>2672</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -563,32 +809,32 @@
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1" t="n">
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
         <v>0.97158</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1">
         <v>0.31167</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="1">
         <v>283</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="J9" s="1">
         <v>244780</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="1">
         <v>7160</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="L9" s="1">
         <v>625</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="1">
         <v>366</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -604,32 +850,32 @@
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>0.99996</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="n">
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <v>251320</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="K10" s="1">
         <v>10</v>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="L10" s="1">
         <v>844</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="M10" s="1">
         <v>1042</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -645,32 +891,32 @@
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0.032357</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>0.99132</v>
-      </c>
-      <c r="I11" s="1" t="n">
+      <c r="F11" s="1">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.2356999999999997E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.99131999999999998</v>
+      </c>
+      <c r="I11" s="1">
         <v>571</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="1">
         <v>63</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="K11" s="1">
         <v>1884</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="L11" s="1">
         <v>5</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="M11" s="1">
         <v>250690</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -686,32 +932,32 @@
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>0.9998</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>0.64082</v>
-      </c>
-      <c r="I12" s="1" t="n">
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.64081999999999995</v>
+      </c>
+      <c r="I12" s="1">
         <v>628</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="J12" s="1">
         <v>252120</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="K12" s="1">
         <v>50</v>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="L12" s="1">
         <v>352</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -727,32 +973,32 @@
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>0.24644</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>0.90496</v>
-      </c>
-      <c r="I13" s="1" t="n">
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.24643999999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.90495999999999999</v>
+      </c>
+      <c r="I13" s="1">
         <v>438</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="J13" s="1">
         <v>519</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="1">
         <v>1587</v>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="L13" s="1">
         <v>46</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="M13" s="1">
         <v>250620</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -768,32 +1014,32 @@
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>0.85077</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>0.014417</v>
-      </c>
-      <c r="I14" s="1" t="n">
+      <c r="F14" s="1">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.85077000000000003</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.4416999999999999E-2</v>
+      </c>
+      <c r="I14" s="1">
         <v>11</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="J14" s="1">
         <v>26800</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="K14" s="1">
         <v>4701</v>
       </c>
-      <c r="L14" s="1" t="n">
+      <c r="L14" s="1">
         <v>752</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="M14" s="1">
         <v>220950</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -809,32 +1055,32 @@
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>0.97712</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>0.75179</v>
-      </c>
-      <c r="I15" s="1" t="n">
+      <c r="F15" s="1">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.97711999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.75178999999999996</v>
+      </c>
+      <c r="I15" s="1">
         <v>733</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="J15" s="1">
         <v>245950</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="K15" s="1">
         <v>5759</v>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="L15" s="1">
         <v>242</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="M15" s="1">
         <v>532</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -850,32 +1096,32 @@
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>0.85839</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>0.86032</v>
-      </c>
-      <c r="I16" s="1" t="n">
+      <c r="F16" s="1">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.85838999999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.86031999999999997</v>
+      </c>
+      <c r="I16" s="1">
         <v>850</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="J16" s="1">
         <v>210950</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="K16" s="1">
         <v>34800</v>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="L16" s="1">
         <v>138</v>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="M16" s="1">
         <v>6475</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -891,32 +1137,32 @@
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G17" s="1" t="n">
+      <c r="F17" s="1">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1">
         <v>0.96431</v>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>0.80588</v>
-      </c>
-      <c r="I17" s="1" t="n">
+      <c r="H17" s="1">
+        <v>0.80588000000000004</v>
+      </c>
+      <c r="I17" s="1">
         <v>822</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="J17" s="1">
         <v>243190</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="1">
         <v>9000</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="L17" s="1">
         <v>198</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="M17" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -932,32 +1178,32 @@
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>0.95819</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>0.93695</v>
-      </c>
-      <c r="I18" s="1" t="n">
+      <c r="F18" s="1">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.95818999999999999</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.93694999999999995</v>
+      </c>
+      <c r="I18" s="1">
         <v>743</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="J18" s="1">
         <v>106580</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="K18" s="1">
         <v>4651</v>
       </c>
-      <c r="L18" s="1" t="n">
+      <c r="L18" s="1">
         <v>50</v>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="M18" s="1">
         <v>141190</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -973,32 +1219,32 @@
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1" t="n">
+      <c r="F19" s="1">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1">
         <v>0.98956</v>
       </c>
-      <c r="H19" s="1" t="n">
-        <v>0.82745</v>
-      </c>
-      <c r="I19" s="1" t="n">
+      <c r="H19" s="1">
+        <v>0.82745000000000002</v>
+      </c>
+      <c r="I19" s="1">
         <v>844</v>
       </c>
-      <c r="J19" s="1" t="n">
+      <c r="J19" s="1">
         <v>249530</v>
       </c>
-      <c r="K19" s="1" t="n">
+      <c r="K19" s="1">
         <v>2632</v>
       </c>
-      <c r="L19" s="1" t="n">
+      <c r="L19" s="1">
         <v>176</v>
       </c>
-      <c r="M19" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M19" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1014,32 +1260,32 @@
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G20" s="1" t="n">
+      <c r="F20" s="1">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1">
         <v>0.95782</v>
       </c>
-      <c r="H20" s="1" t="n">
-        <v>0.81662</v>
-      </c>
-      <c r="I20" s="1" t="n">
+      <c r="H20" s="1">
+        <v>0.81662000000000001</v>
+      </c>
+      <c r="I20" s="1">
         <v>806</v>
       </c>
-      <c r="J20" s="1" t="n">
+      <c r="J20" s="1">
         <v>235740</v>
       </c>
-      <c r="K20" s="1" t="n">
+      <c r="K20" s="1">
         <v>10382</v>
       </c>
-      <c r="L20" s="1" t="n">
+      <c r="L20" s="1">
         <v>181</v>
       </c>
-      <c r="M20" s="1" t="n">
+      <c r="M20" s="1">
         <v>6099</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1055,32 +1301,32 @@
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="n">
+      <c r="F21" s="1">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="1">
         <v>1020</v>
       </c>
-      <c r="J21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1" t="n">
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
         <v>252190</v>
       </c>
-      <c r="L21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="n">
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1096,32 +1342,32 @@
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>0.99999</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1" t="n">
+      <c r="F22" s="1">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
         <v>251610</v>
       </c>
-      <c r="K22" s="1" t="n">
+      <c r="K22" s="1">
         <v>3</v>
       </c>
-      <c r="L22" s="1" t="n">
+      <c r="L22" s="1">
         <v>806</v>
       </c>
-      <c r="M22" s="1" t="n">
+      <c r="M22" s="1">
         <v>795</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1137,32 +1383,32 @@
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="n">
+      <c r="F23" s="1">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="I23" s="1">
         <v>1020</v>
       </c>
-      <c r="J23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1" t="n">
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
         <v>252190</v>
       </c>
-      <c r="L23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1" t="n">
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1178,32 +1424,32 @@
       <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>0.99985</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>0.0088583</v>
-      </c>
-      <c r="I24" s="1" t="n">
+      <c r="F24" s="1">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.99985000000000002</v>
+      </c>
+      <c r="H24" s="1">
+        <v>8.8582999999999995E-3</v>
+      </c>
+      <c r="I24" s="1">
         <v>9</v>
       </c>
-      <c r="J24" s="1" t="n">
+      <c r="J24" s="1">
         <v>252150</v>
       </c>
-      <c r="K24" s="1" t="n">
+      <c r="K24" s="1">
         <v>38</v>
       </c>
-      <c r="L24" s="1" t="n">
+      <c r="L24" s="1">
         <v>1007</v>
       </c>
-      <c r="M24" s="1" t="n">
+      <c r="M24" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1219,32 +1465,32 @@
       <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>0.33333</v>
+      <c r="F25" s="1">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.33333000000000002</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="n">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="1" t="n">
+      <c r="K25" s="1">
         <v>2</v>
       </c>
-      <c r="L25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1" t="n">
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
         <v>253210</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1260,32 +1506,32 @@
       <c r="E26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>0.84057</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>0.45919</v>
-      </c>
-      <c r="I26" s="1" t="n">
+      <c r="F26" s="1">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.84057000000000004</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.45918999999999999</v>
+      </c>
+      <c r="I26" s="1">
         <v>422</v>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="J26" s="1">
         <v>183180</v>
       </c>
-      <c r="K26" s="1" t="n">
+      <c r="K26" s="1">
         <v>34744</v>
       </c>
-      <c r="L26" s="1" t="n">
+      <c r="L26" s="1">
         <v>497</v>
       </c>
-      <c r="M26" s="1" t="n">
+      <c r="M26" s="1">
         <v>34374</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1301,32 +1547,32 @@
       <c r="E27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>0.54028</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>0.92436</v>
-      </c>
-      <c r="I27" s="1" t="n">
+      <c r="F27" s="1">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.54027999999999998</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.92435999999999996</v>
+      </c>
+      <c r="I27" s="1">
         <v>941</v>
       </c>
-      <c r="J27" s="1" t="n">
+      <c r="J27" s="1">
         <v>135100</v>
       </c>
-      <c r="K27" s="1" t="n">
+      <c r="K27" s="1">
         <v>114950</v>
       </c>
-      <c r="L27" s="1" t="n">
+      <c r="L27" s="1">
         <v>77</v>
       </c>
-      <c r="M27" s="1" t="n">
+      <c r="M27" s="1">
         <v>2145</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1342,32 +1588,32 @@
       <c r="E28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>0.96455</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>0.73994</v>
-      </c>
-      <c r="I28" s="1" t="n">
+      <c r="F28" s="1">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.96455000000000002</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.73994000000000004</v>
+      </c>
+      <c r="I28" s="1">
         <v>717</v>
       </c>
-      <c r="J28" s="1" t="n">
+      <c r="J28" s="1">
         <v>240850</v>
       </c>
-      <c r="K28" s="1" t="n">
+      <c r="K28" s="1">
         <v>8852</v>
       </c>
-      <c r="L28" s="1" t="n">
+      <c r="L28" s="1">
         <v>252</v>
       </c>
-      <c r="M28" s="1" t="n">
+      <c r="M28" s="1">
         <v>2543</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1383,32 +1629,32 @@
       <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>3.9653E-006</v>
-      </c>
-      <c r="H29" s="1" t="n">
+      <c r="F29" s="1">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3.9653E-6</v>
+      </c>
+      <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="I29" s="1" t="n">
+      <c r="I29" s="1">
         <v>1020</v>
       </c>
-      <c r="J29" s="1" t="n">
+      <c r="J29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="1" t="n">
+      <c r="K29" s="1">
         <v>252180</v>
       </c>
-      <c r="L29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1" t="n">
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1424,32 +1670,32 @@
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>0.64662</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>0.28173</v>
-      </c>
-      <c r="I30" s="1" t="n">
+      <c r="F30" s="1">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.64661999999999997</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.28172999999999998</v>
+      </c>
+      <c r="I30" s="1">
         <v>273</v>
       </c>
-      <c r="J30" s="1" t="n">
+      <c r="J30" s="1">
         <v>143430</v>
       </c>
-      <c r="K30" s="1" t="n">
+      <c r="K30" s="1">
         <v>78386</v>
       </c>
-      <c r="L30" s="1" t="n">
+      <c r="L30" s="1">
         <v>696</v>
       </c>
-      <c r="M30" s="1" t="n">
+      <c r="M30" s="1">
         <v>30425</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -1465,32 +1711,32 @@
       <c r="E31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>0.98856</v>
-      </c>
-      <c r="H31" s="1" t="n">
+      <c r="F31" s="1">
+        <v>30</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.98855999999999999</v>
+      </c>
+      <c r="H31" s="1">
         <v>0.80157</v>
       </c>
-      <c r="I31" s="1" t="n">
+      <c r="I31" s="1">
         <v>816</v>
       </c>
-      <c r="J31" s="1" t="n">
+      <c r="J31" s="1">
         <v>249090</v>
       </c>
-      <c r="K31" s="1" t="n">
+      <c r="K31" s="1">
         <v>2882</v>
       </c>
-      <c r="L31" s="1" t="n">
+      <c r="L31" s="1">
         <v>202</v>
       </c>
-      <c r="M31" s="1" t="n">
+      <c r="M31" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,32 +1752,32 @@
       <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G32" s="1" t="n">
+      <c r="F32" s="1">
+        <v>30</v>
+      </c>
+      <c r="G32" s="1">
         <v>0.97302</v>
       </c>
-      <c r="H32" s="1" t="n">
-        <v>0.81176</v>
-      </c>
-      <c r="I32" s="1" t="n">
+      <c r="H32" s="1">
+        <v>0.81176000000000004</v>
+      </c>
+      <c r="I32" s="1">
         <v>828</v>
       </c>
-      <c r="J32" s="1" t="n">
+      <c r="J32" s="1">
         <v>245280</v>
       </c>
-      <c r="K32" s="1" t="n">
+      <c r="K32" s="1">
         <v>6801</v>
       </c>
-      <c r="L32" s="1" t="n">
+      <c r="L32" s="1">
         <v>192</v>
       </c>
-      <c r="M32" s="1" t="n">
+      <c r="M32" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1547,11 +1793,32 @@
       <c r="E33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="1">
+        <v>30</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="2">
+        <v>471</v>
+      </c>
+      <c r="J33" s="2">
+        <v>37563</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.63959999999999995</v>
+      </c>
+      <c r="L33" s="2">
+        <v>313</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1567,32 +1834,32 @@
       <c r="E34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G34" s="1" t="n">
+      <c r="F34" s="1">
+        <v>30</v>
+      </c>
+      <c r="G34" s="1">
         <v>0.16702</v>
       </c>
-      <c r="H34" s="1" t="n">
-        <v>0.80171</v>
-      </c>
-      <c r="I34" s="1" t="n">
+      <c r="H34" s="1">
+        <v>0.80171000000000003</v>
+      </c>
+      <c r="I34" s="1">
         <v>562</v>
       </c>
-      <c r="J34" s="1" t="n">
+      <c r="J34" s="1">
         <v>6949</v>
       </c>
-      <c r="K34" s="1" t="n">
+      <c r="K34" s="1">
         <v>34657</v>
       </c>
-      <c r="L34" s="1" t="n">
+      <c r="L34" s="1">
         <v>139</v>
       </c>
-      <c r="M34" s="1" t="n">
+      <c r="M34" s="1">
         <v>2436</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1608,32 +1875,32 @@
       <c r="E35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>0.075925</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>0.91623</v>
-      </c>
-      <c r="I35" s="1" t="n">
+      <c r="F35" s="1">
+        <v>30</v>
+      </c>
+      <c r="G35" s="1">
+        <v>7.5925000000000006E-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.91622999999999999</v>
+      </c>
+      <c r="I35" s="1">
         <v>700</v>
       </c>
-      <c r="J35" s="1" t="n">
+      <c r="J35" s="1">
         <v>3230</v>
       </c>
-      <c r="K35" s="1" t="n">
+      <c r="K35" s="1">
         <v>39312</v>
       </c>
-      <c r="L35" s="1" t="n">
+      <c r="L35" s="1">
         <v>64</v>
       </c>
-      <c r="M35" s="1" t="n">
+      <c r="M35" s="1">
         <v>1437</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -1649,32 +1916,32 @@
       <c r="E36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>0.13376</v>
-      </c>
-      <c r="H36" s="1" t="n">
+      <c r="F36" s="1">
+        <v>30</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.13375999999999999</v>
+      </c>
+      <c r="H36" s="1">
         <v>0.84575</v>
       </c>
-      <c r="I36" s="1" t="n">
+      <c r="I36" s="1">
         <v>647</v>
       </c>
-      <c r="J36" s="1" t="n">
+      <c r="J36" s="1">
         <v>5800</v>
       </c>
-      <c r="K36" s="1" t="n">
+      <c r="K36" s="1">
         <v>37561</v>
       </c>
-      <c r="L36" s="1" t="n">
+      <c r="L36" s="1">
         <v>118</v>
       </c>
-      <c r="M36" s="1" t="n">
+      <c r="M36" s="1">
         <v>617</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -1690,32 +1957,32 @@
       <c r="E37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>0.9745</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>0.40426</v>
-      </c>
-      <c r="I37" s="1" t="n">
+      <c r="F37" s="1">
+        <v>30</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.40426000000000001</v>
+      </c>
+      <c r="I37" s="1">
         <v>228</v>
       </c>
-      <c r="J37" s="1" t="n">
+      <c r="J37" s="1">
         <v>25718</v>
       </c>
-      <c r="K37" s="1" t="n">
+      <c r="K37" s="1">
         <v>673</v>
       </c>
-      <c r="L37" s="1" t="n">
+      <c r="L37" s="1">
         <v>336</v>
       </c>
-      <c r="M37" s="1" t="n">
+      <c r="M37" s="1">
         <v>17788</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -1731,32 +1998,32 @@
       <c r="E38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>0.84122</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>0.6255</v>
-      </c>
-      <c r="I38" s="1" t="n">
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.84121999999999997</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="I38" s="1">
         <v>466</v>
       </c>
-      <c r="J38" s="1" t="n">
+      <c r="J38" s="1">
         <v>34581</v>
       </c>
-      <c r="K38" s="1" t="n">
+      <c r="K38" s="1">
         <v>6527</v>
       </c>
-      <c r="L38" s="1" t="n">
+      <c r="L38" s="1">
         <v>279</v>
       </c>
-      <c r="M38" s="1" t="n">
+      <c r="M38" s="1">
         <v>2890</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -1772,32 +2039,32 @@
       <c r="E39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G39" s="1" t="n">
+      <c r="F39" s="1">
+        <v>30</v>
+      </c>
+      <c r="G39" s="1">
         <v>0.13369</v>
       </c>
-      <c r="H39" s="1" t="n">
-        <v>0.82252</v>
-      </c>
-      <c r="I39" s="1" t="n">
+      <c r="H39" s="1">
+        <v>0.82252000000000003</v>
+      </c>
+      <c r="I39" s="1">
         <v>621</v>
       </c>
-      <c r="J39" s="1" t="n">
+      <c r="J39" s="1">
         <v>5774</v>
       </c>
-      <c r="K39" s="1" t="n">
+      <c r="K39" s="1">
         <v>37415</v>
       </c>
-      <c r="L39" s="1" t="n">
+      <c r="L39" s="1">
         <v>134</v>
       </c>
-      <c r="M39" s="1" t="n">
+      <c r="M39" s="1">
         <v>799</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -1813,32 +2080,32 @@
       <c r="E40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G40" s="1" t="n">
-        <v>0.92128</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <v>0.14849</v>
-      </c>
-      <c r="I40" s="1" t="n">
+      <c r="F40" s="1">
+        <v>30</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.92127999999999999</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.14849000000000001</v>
+      </c>
+      <c r="I40" s="1">
         <v>113</v>
       </c>
-      <c r="J40" s="1" t="n">
+      <c r="J40" s="1">
         <v>39906</v>
       </c>
-      <c r="K40" s="1" t="n">
+      <c r="K40" s="1">
         <v>3410</v>
       </c>
-      <c r="L40" s="1" t="n">
+      <c r="L40" s="1">
         <v>648</v>
       </c>
-      <c r="M40" s="1" t="n">
+      <c r="M40" s="1">
         <v>666</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -1854,32 +2121,32 @@
       <c r="E41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G41" s="1" t="n">
+      <c r="F41" s="1">
+        <v>30</v>
+      </c>
+      <c r="G41" s="1">
         <v>1</v>
       </c>
-      <c r="H41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="n">
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
         <v>43331</v>
       </c>
-      <c r="K41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1" t="n">
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
         <v>767</v>
       </c>
-      <c r="M41" s="1" t="n">
+      <c r="M41" s="1">
         <v>645</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1895,32 +2162,32 @@
       <c r="E42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <v>0.92982</v>
-      </c>
-      <c r="H42" s="1" t="n">
+      <c r="F42" s="1">
+        <v>30</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.92981999999999998</v>
+      </c>
+      <c r="H42" s="1">
         <v>0.2</v>
       </c>
-      <c r="I42" s="1" t="n">
+      <c r="I42" s="1">
         <v>4</v>
       </c>
-      <c r="J42" s="1" t="n">
+      <c r="J42" s="1">
         <v>53</v>
       </c>
-      <c r="K42" s="1" t="n">
+      <c r="K42" s="1">
         <v>4</v>
       </c>
-      <c r="L42" s="1" t="n">
+      <c r="L42" s="1">
         <v>16</v>
       </c>
-      <c r="M42" s="1" t="n">
+      <c r="M42" s="1">
         <v>44666</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -1936,32 +2203,32 @@
       <c r="E43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>0.99024</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>0.28329</v>
-      </c>
-      <c r="I43" s="1" t="n">
+      <c r="F43" s="1">
+        <v>30</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.99024000000000001</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.28328999999999999</v>
+      </c>
+      <c r="I43" s="1">
         <v>217</v>
       </c>
-      <c r="J43" s="1" t="n">
+      <c r="J43" s="1">
         <v>43040</v>
       </c>
-      <c r="K43" s="1" t="n">
+      <c r="K43" s="1">
         <v>424</v>
       </c>
-      <c r="L43" s="1" t="n">
+      <c r="L43" s="1">
         <v>549</v>
       </c>
-      <c r="M43" s="1" t="n">
+      <c r="M43" s="1">
         <v>513</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -1977,32 +2244,32 @@
       <c r="E44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G44" s="1" t="n">
-        <v>0.30544</v>
-      </c>
-      <c r="H44" s="1" t="n">
-        <v>0.65116</v>
-      </c>
-      <c r="I44" s="1" t="n">
+      <c r="F44" s="1">
+        <v>30</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.30543999999999999</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.65115999999999996</v>
+      </c>
+      <c r="I44" s="1">
         <v>56</v>
       </c>
-      <c r="J44" s="1" t="n">
+      <c r="J44" s="1">
         <v>606</v>
       </c>
-      <c r="K44" s="1" t="n">
+      <c r="K44" s="1">
         <v>1378</v>
       </c>
-      <c r="L44" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="M44" s="1" t="n">
+      <c r="L44" s="1">
+        <v>30</v>
+      </c>
+      <c r="M44" s="1">
         <v>42673</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -2018,32 +2285,32 @@
       <c r="E45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>0.4044</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>0.51923</v>
-      </c>
-      <c r="I45" s="1" t="n">
+      <c r="F45" s="1">
+        <v>30</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.40439999999999998</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.51922999999999997</v>
+      </c>
+      <c r="I45" s="1">
         <v>27</v>
       </c>
-      <c r="J45" s="1" t="n">
+      <c r="J45" s="1">
         <v>294</v>
       </c>
-      <c r="K45" s="1" t="n">
+      <c r="K45" s="1">
         <v>433</v>
       </c>
-      <c r="L45" s="1" t="n">
+      <c r="L45" s="1">
         <v>25</v>
       </c>
-      <c r="M45" s="1" t="n">
+      <c r="M45" s="1">
         <v>43964</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
@@ -2059,32 +2326,32 @@
       <c r="E46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G46" s="1" t="n">
-        <v>0.39889</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <v>0.81127</v>
-      </c>
-      <c r="I46" s="1" t="n">
+      <c r="F46" s="1">
+        <v>30</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.39889000000000002</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.81127000000000005</v>
+      </c>
+      <c r="I46" s="1">
         <v>619</v>
       </c>
-      <c r="J46" s="1" t="n">
+      <c r="J46" s="1">
         <v>16601</v>
       </c>
-      <c r="K46" s="1" t="n">
+      <c r="K46" s="1">
         <v>25017</v>
       </c>
-      <c r="L46" s="1" t="n">
+      <c r="L46" s="1">
         <v>144</v>
       </c>
-      <c r="M46" s="1" t="n">
+      <c r="M46" s="1">
         <v>2362</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -2100,32 +2367,32 @@
       <c r="E47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G47" s="1" t="n">
+      <c r="F47" s="1">
+        <v>30</v>
+      </c>
+      <c r="G47" s="1">
         <v>0.44028</v>
       </c>
-      <c r="H47" s="1" t="n">
-        <v>0.78858</v>
-      </c>
-      <c r="I47" s="1" t="n">
+      <c r="H47" s="1">
+        <v>0.78857999999999995</v>
+      </c>
+      <c r="I47" s="1">
         <v>373</v>
       </c>
-      <c r="J47" s="1" t="n">
+      <c r="J47" s="1">
         <v>5113</v>
       </c>
-      <c r="K47" s="1" t="n">
+      <c r="K47" s="1">
         <v>6500</v>
       </c>
-      <c r="L47" s="1" t="n">
+      <c r="L47" s="1">
         <v>100</v>
       </c>
-      <c r="M47" s="1" t="n">
+      <c r="M47" s="1">
         <v>32657</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -2141,32 +2408,32 @@
       <c r="E48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G48" s="1" t="n">
-        <v>0.89419</v>
-      </c>
-      <c r="H48" s="1" t="n">
+      <c r="F48" s="1">
+        <v>30</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.89419000000000004</v>
+      </c>
+      <c r="H48" s="1">
         <v>0.27331</v>
       </c>
-      <c r="I48" s="1" t="n">
+      <c r="I48" s="1">
         <v>214</v>
       </c>
-      <c r="J48" s="1" t="n">
+      <c r="J48" s="1">
         <v>39288</v>
       </c>
-      <c r="K48" s="1" t="n">
+      <c r="K48" s="1">
         <v>4649</v>
       </c>
-      <c r="L48" s="1" t="n">
+      <c r="L48" s="1">
         <v>569</v>
       </c>
-      <c r="M48" s="1" t="n">
+      <c r="M48" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -2182,32 +2449,32 @@
       <c r="E49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G49" s="1" t="n">
+      <c r="F49" s="1">
+        <v>30</v>
+      </c>
+      <c r="G49" s="1">
         <v>0.95521</v>
       </c>
-      <c r="H49" s="1" t="n">
-        <v>0.72727</v>
-      </c>
-      <c r="I49" s="1" t="n">
+      <c r="H49" s="1">
+        <v>0.72726999999999997</v>
+      </c>
+      <c r="I49" s="1">
         <v>64</v>
       </c>
-      <c r="J49" s="1" t="n">
+      <c r="J49" s="1">
         <v>1578</v>
       </c>
-      <c r="K49" s="1" t="n">
+      <c r="K49" s="1">
         <v>74</v>
       </c>
-      <c r="L49" s="1" t="n">
+      <c r="L49" s="1">
         <v>24</v>
       </c>
-      <c r="M49" s="1" t="n">
+      <c r="M49" s="1">
         <v>43003</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
@@ -2223,32 +2490,32 @@
       <c r="E50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>0.28793</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>0.86154</v>
-      </c>
-      <c r="I50" s="1" t="n">
+      <c r="F50" s="1">
+        <v>30</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.28793000000000002</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.86153999999999997</v>
+      </c>
+      <c r="I50" s="1">
         <v>672</v>
       </c>
-      <c r="J50" s="1" t="n">
+      <c r="J50" s="1">
         <v>12634</v>
       </c>
-      <c r="K50" s="1" t="n">
+      <c r="K50" s="1">
         <v>31245</v>
       </c>
-      <c r="L50" s="1" t="n">
+      <c r="L50" s="1">
         <v>108</v>
       </c>
-      <c r="M50" s="1" t="n">
+      <c r="M50" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -2264,32 +2531,32 @@
       <c r="E51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G51" s="1" t="n">
-        <v>0.89904</v>
-      </c>
-      <c r="H51" s="1" t="n">
-        <v>0.55513</v>
-      </c>
-      <c r="I51" s="1" t="n">
+      <c r="F51" s="1">
+        <v>30</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.89903999999999995</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.55513000000000001</v>
+      </c>
+      <c r="I51" s="1">
         <v>433</v>
       </c>
-      <c r="J51" s="1" t="n">
+      <c r="J51" s="1">
         <v>39335</v>
       </c>
-      <c r="K51" s="1" t="n">
+      <c r="K51" s="1">
         <v>4417</v>
       </c>
-      <c r="L51" s="1" t="n">
+      <c r="L51" s="1">
         <v>347</v>
       </c>
-      <c r="M51" s="1" t="n">
+      <c r="M51" s="1">
         <v>211</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
@@ -2305,32 +2572,32 @@
       <c r="E52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1" t="n">
+      <c r="F52" s="1">
+        <v>30</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
         <v>1</v>
       </c>
-      <c r="I52" s="1" t="n">
+      <c r="I52" s="1">
         <v>783</v>
       </c>
-      <c r="J52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1" t="n">
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
         <v>43873</v>
       </c>
-      <c r="L52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="1" t="n">
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>27</v>
       </c>
@@ -2346,32 +2613,32 @@
       <c r="E53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G53" s="1" t="n">
+      <c r="F53" s="1">
+        <v>30</v>
+      </c>
+      <c r="G53" s="1">
         <v>0.99883</v>
       </c>
-      <c r="H53" s="1" t="n">
-        <v>0.0012788</v>
-      </c>
-      <c r="I53" s="1" t="n">
+      <c r="H53" s="1">
+        <v>1.2788000000000001E-3</v>
+      </c>
+      <c r="I53" s="1">
         <v>1</v>
       </c>
-      <c r="J53" s="1" t="n">
+      <c r="J53" s="1">
         <v>43597</v>
       </c>
-      <c r="K53" s="1" t="n">
+      <c r="K53" s="1">
         <v>51</v>
       </c>
-      <c r="L53" s="1" t="n">
+      <c r="L53" s="1">
         <v>781</v>
       </c>
-      <c r="M53" s="1" t="n">
+      <c r="M53" s="1">
         <v>313</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
@@ -2387,32 +2654,32 @@
       <c r="E54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="1" t="n">
+      <c r="F54" s="1">
+        <v>30</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
         <v>1</v>
       </c>
-      <c r="I54" s="1" t="n">
+      <c r="I54" s="1">
         <v>783</v>
       </c>
-      <c r="J54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1" t="n">
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
         <v>43869</v>
       </c>
-      <c r="L54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" s="1" t="n">
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>27</v>
       </c>
@@ -2428,32 +2695,32 @@
       <c r="E55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G55" s="1" t="n">
-        <v>0.99982</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1" t="n">
+      <c r="F55" s="1">
+        <v>30</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.99982000000000004</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
         <v>43696</v>
       </c>
-      <c r="K55" s="1" t="n">
+      <c r="K55" s="1">
         <v>8</v>
       </c>
-      <c r="L55" s="1" t="n">
+      <c r="L55" s="1">
         <v>782</v>
       </c>
-      <c r="M55" s="1" t="n">
+      <c r="M55" s="1">
         <v>257</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
@@ -2469,32 +2736,32 @@
       <c r="E56" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F56" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G56" s="1" t="n">
+      <c r="F56" s="1">
+        <v>30</v>
+      </c>
+      <c r="G56" s="1">
         <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="L56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" s="1" t="n">
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>29</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
         <v>44714</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>27</v>
       </c>
@@ -2510,32 +2777,32 @@
       <c r="E57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G57" s="1" t="n">
-        <v>0.97533</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>0.44609</v>
-      </c>
-      <c r="I57" s="1" t="n">
+      <c r="F57" s="1">
+        <v>30</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.97533000000000003</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.44608999999999999</v>
+      </c>
+      <c r="I57" s="1">
         <v>211</v>
       </c>
-      <c r="J57" s="1" t="n">
+      <c r="J57" s="1">
         <v>16765</v>
       </c>
-      <c r="K57" s="1" t="n">
+      <c r="K57" s="1">
         <v>424</v>
       </c>
-      <c r="L57" s="1" t="n">
+      <c r="L57" s="1">
         <v>262</v>
       </c>
-      <c r="M57" s="1" t="n">
+      <c r="M57" s="1">
         <v>27081</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>27</v>
       </c>
@@ -2551,32 +2818,32 @@
       <c r="E58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G58" s="1" t="n">
-        <v>0.8626</v>
-      </c>
-      <c r="H58" s="1" t="n">
-        <v>0.49352</v>
-      </c>
-      <c r="I58" s="1" t="n">
+      <c r="F58" s="1">
+        <v>30</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.49352000000000001</v>
+      </c>
+      <c r="I58" s="1">
         <v>381</v>
       </c>
-      <c r="J58" s="1" t="n">
+      <c r="J58" s="1">
         <v>37814</v>
       </c>
-      <c r="K58" s="1" t="n">
+      <c r="K58" s="1">
         <v>6023</v>
       </c>
-      <c r="L58" s="1" t="n">
+      <c r="L58" s="1">
         <v>391</v>
       </c>
-      <c r="M58" s="1" t="n">
+      <c r="M58" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
@@ -2592,32 +2859,32 @@
       <c r="E59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F59" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G59" s="1" t="n">
-        <v>0.93247</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>0.50787</v>
-      </c>
-      <c r="I59" s="1" t="n">
+      <c r="F59" s="1">
+        <v>30</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.93247000000000002</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.50787000000000004</v>
+      </c>
+      <c r="I59" s="1">
         <v>387</v>
       </c>
-      <c r="J59" s="1" t="n">
+      <c r="J59" s="1">
         <v>40268</v>
       </c>
-      <c r="K59" s="1" t="n">
+      <c r="K59" s="1">
         <v>2916</v>
       </c>
-      <c r="L59" s="1" t="n">
+      <c r="L59" s="1">
         <v>375</v>
       </c>
-      <c r="M59" s="1" t="n">
+      <c r="M59" s="1">
         <v>797</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>27</v>
       </c>
@@ -2633,32 +2900,32 @@
       <c r="E60" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G60" s="1" t="n">
-        <v>0.00041059</v>
-      </c>
-      <c r="H60" s="1" t="n">
-        <v>0.99872</v>
-      </c>
-      <c r="I60" s="1" t="n">
+      <c r="F60" s="1">
+        <v>30</v>
+      </c>
+      <c r="G60" s="1">
+        <v>4.1059000000000001E-4</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.99872000000000005</v>
+      </c>
+      <c r="I60" s="1">
         <v>783</v>
       </c>
-      <c r="J60" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="K60" s="1" t="n">
+      <c r="J60" s="1">
+        <v>18</v>
+      </c>
+      <c r="K60" s="1">
         <v>43821</v>
       </c>
-      <c r="L60" s="1" t="n">
+      <c r="L60" s="1">
         <v>1</v>
       </c>
-      <c r="M60" s="1" t="n">
+      <c r="M60" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>27</v>
       </c>
@@ -2674,32 +2941,32 @@
       <c r="E61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F61" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <v>0.14958</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>0.74733</v>
-      </c>
-      <c r="I61" s="1" t="n">
+      <c r="F61" s="1">
+        <v>30</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.14957999999999999</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.74733000000000005</v>
+      </c>
+      <c r="I61" s="1">
         <v>559</v>
       </c>
-      <c r="J61" s="1" t="n">
+      <c r="J61" s="1">
         <v>6504</v>
       </c>
-      <c r="K61" s="1" t="n">
+      <c r="K61" s="1">
         <v>36978</v>
       </c>
-      <c r="L61" s="1" t="n">
+      <c r="L61" s="1">
         <v>189</v>
       </c>
-      <c r="M61" s="1" t="n">
+      <c r="M61" s="1">
         <v>513</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>27</v>
       </c>
@@ -2715,32 +2982,32 @@
       <c r="E62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F62" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <v>0.93658</v>
-      </c>
-      <c r="H62" s="1" t="n">
-        <v>0.56923</v>
-      </c>
-      <c r="I62" s="1" t="n">
+      <c r="F62" s="1">
+        <v>30</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.93657999999999997</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.56923000000000001</v>
+      </c>
+      <c r="I62" s="1">
         <v>444</v>
       </c>
-      <c r="J62" s="1" t="n">
+      <c r="J62" s="1">
         <v>41027</v>
       </c>
-      <c r="K62" s="1" t="n">
+      <c r="K62" s="1">
         <v>2778</v>
       </c>
-      <c r="L62" s="1" t="n">
+      <c r="L62" s="1">
         <v>336</v>
       </c>
-      <c r="M62" s="1" t="n">
+      <c r="M62" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
@@ -2756,36 +3023,35 @@
       <c r="E63" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G63" s="1" t="n">
-        <v>0.91445</v>
-      </c>
-      <c r="H63" s="1" t="n">
+      <c r="F63" s="1">
+        <v>30</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.91444999999999999</v>
+      </c>
+      <c r="H63" s="1">
         <v>0.58748</v>
       </c>
-      <c r="I63" s="1" t="n">
+      <c r="I63" s="1">
         <v>460</v>
       </c>
-      <c r="J63" s="1" t="n">
+      <c r="J63" s="1">
         <v>40086</v>
       </c>
-      <c r="K63" s="1" t="n">
+      <c r="K63" s="1">
         <v>3750</v>
       </c>
-      <c r="L63" s="1" t="n">
+      <c r="L63" s="1">
         <v>323</v>
       </c>
-      <c r="M63" s="1" t="n">
+      <c r="M63" s="1">
         <v>124</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2793,34 +3059,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7244897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5612244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.280612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="19.3112244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1071428571429"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="26.140625"/>
+    <col min="2" max="2" width="16.5703125"/>
+    <col min="3" max="3" width="19.7109375"/>
+    <col min="4" max="4" width="15.5703125"/>
+    <col min="5" max="5" width="11.5703125"/>
+    <col min="6" max="6" width="30.28515625"/>
+    <col min="7" max="7" width="15"/>
+    <col min="8" max="8" width="11.5703125"/>
+    <col min="9" max="10" width="19.28515625"/>
+    <col min="11" max="11" width="16.140625"/>
+    <col min="12" max="12" width="17"/>
+    <col min="13" max="13" width="16"/>
+    <col min="14" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2857,11 +3120,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2877,32 +3140,32 @@
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0.90435</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0.89412</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>912</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>228070</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>24123</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="1">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.94626999999999994</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.89541000000000004</v>
+      </c>
+      <c r="I2" s="2">
+        <v>916</v>
+      </c>
+      <c r="J2" s="3">
+        <v>238630</v>
+      </c>
+      <c r="K2" s="2">
+        <v>13549</v>
+      </c>
+      <c r="L2" s="2">
+        <v>107</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2918,32 +3181,32 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0.99996</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0.58939</v>
-      </c>
-      <c r="I3" s="2" t="n">
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.58938999999999997</v>
+      </c>
+      <c r="I3" s="2">
         <v>600</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>252140</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="2">
         <v>418</v>
       </c>
-      <c r="M3" s="2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2959,32 +3222,32 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0.83471</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0.34344</v>
-      </c>
-      <c r="I4" s="2" t="n">
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.83470999999999995</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.34344000000000002</v>
+      </c>
+      <c r="I4" s="2">
         <v>351</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2">
         <v>210460</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="2">
         <v>41674</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="2">
         <v>671</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3000,32 +3263,32 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="n">
+      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.48224</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0.30596</v>
-      </c>
-      <c r="I5" s="2" t="n">
+      <c r="H5" s="2">
+        <v>0.30596000000000001</v>
+      </c>
+      <c r="I5" s="2">
         <v>313</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="2">
         <v>121610</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="2">
         <v>130570</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="2">
         <v>710</v>
       </c>
-      <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -3041,32 +3304,32 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0.99989</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0.58944</v>
-      </c>
-      <c r="I6" s="2" t="n">
+      <c r="F6" s="1">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.99988999999999995</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.58943999999999996</v>
+      </c>
+      <c r="I6" s="2">
         <v>603</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2">
         <v>252080</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2">
         <v>28</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2">
         <v>420</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -3082,32 +3345,32 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0.71533</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.93157</v>
-      </c>
-      <c r="I7" s="2" t="n">
+      <c r="F7" s="1">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.71533000000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.93157000000000001</v>
+      </c>
+      <c r="I7" s="2">
         <v>953</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2">
         <v>180390</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2">
         <v>71787</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2">
         <v>70</v>
       </c>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -3123,32 +3386,32 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0.79702</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0.49365</v>
-      </c>
-      <c r="I8" s="2" t="n">
+      <c r="F8" s="1">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.79701999999999995</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.49364999999999998</v>
+      </c>
+      <c r="I8" s="2">
         <v>505</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="2">
         <v>200990</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="2">
         <v>51188</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="2">
         <v>518</v>
       </c>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -3164,32 +3427,32 @@
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0.99071</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0.29717</v>
-      </c>
-      <c r="I9" s="2" t="n">
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.99070999999999998</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.29716999999999999</v>
+      </c>
+      <c r="I9" s="2">
         <v>304</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>249840</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="2">
         <v>2342</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2">
         <v>719</v>
       </c>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -3205,32 +3468,32 @@
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2" t="n">
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="n">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <v>252180</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="n">
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <v>1023</v>
       </c>
-      <c r="M10" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -3246,32 +3509,32 @@
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0.97408</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>0.74052</v>
-      </c>
-      <c r="I11" s="2" t="n">
+      <c r="F11" s="1">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.97407999999999995</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.74051999999999996</v>
+      </c>
+      <c r="I11" s="2">
         <v>625</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="2">
         <v>12478</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="2">
         <v>332</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="2">
         <v>219</v>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="M11" s="2">
         <v>239550</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3287,32 +3550,32 @@
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0.99997</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>0.64809</v>
-      </c>
-      <c r="I12" s="2" t="n">
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.64809000000000005</v>
+      </c>
+      <c r="I12" s="2">
         <v>663</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="2">
         <v>252170</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="2">
         <v>7</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="2">
         <v>360</v>
       </c>
-      <c r="M12" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3328,32 +3591,32 @@
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0.97967</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>0.56706</v>
-      </c>
-      <c r="I13" s="2" t="n">
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.97967000000000004</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.56706000000000001</v>
+      </c>
+      <c r="I13" s="2">
         <v>482</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="2">
         <v>13832</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="K13" s="2">
         <v>287</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="2">
         <v>368</v>
       </c>
-      <c r="M13" s="2" t="n">
+      <c r="M13" s="2">
         <v>238230</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -3369,32 +3632,32 @@
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0.99963</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="n">
+      <c r="F14" s="1">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.99963000000000002</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <v>143160</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="2">
         <v>53</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="L14" s="2">
         <v>986</v>
       </c>
-      <c r="M14" s="2" t="n">
+      <c r="M14" s="2">
         <v>109000</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -3410,32 +3673,32 @@
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G15" s="2" t="n">
+      <c r="F15" s="1">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2">
         <v>0.9899</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="2">
         <v>0.79374</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="2">
         <v>812</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="2">
         <v>249630</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="2">
         <v>2548</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="L15" s="2">
         <v>211</v>
       </c>
-      <c r="M15" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -3451,32 +3714,32 @@
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>0.92567</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>0.88172</v>
-      </c>
-      <c r="I16" s="2" t="n">
+      <c r="F16" s="1">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.92566999999999999</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.88171999999999995</v>
+      </c>
+      <c r="I16" s="2">
         <v>902</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="2">
         <v>233440</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="K16" s="2">
         <v>18745</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="L16" s="2">
         <v>121</v>
       </c>
-      <c r="M16" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -3492,32 +3755,32 @@
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>0.98036</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>0.84164</v>
-      </c>
-      <c r="I17" s="2" t="n">
+      <c r="F17" s="1">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.98036000000000001</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.84164000000000005</v>
+      </c>
+      <c r="I17" s="2">
         <v>861</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="2">
         <v>247230</v>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="K17" s="2">
         <v>4953</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="L17" s="2">
         <v>162</v>
       </c>
-      <c r="M17" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -3533,32 +3796,32 @@
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0.99022</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>0.7598</v>
-      </c>
-      <c r="I18" s="2" t="n">
+      <c r="F18" s="1">
+        <v>30</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.99021999999999999</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="I18" s="2">
         <v>775</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="2">
         <v>243400</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="K18" s="2">
         <v>2404</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="L18" s="2">
         <v>245</v>
       </c>
-      <c r="M18" s="2" t="n">
+      <c r="M18" s="2">
         <v>6380</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3574,32 +3837,32 @@
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0.99892</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>0.85239</v>
-      </c>
-      <c r="I19" s="2" t="n">
+      <c r="F19" s="1">
+        <v>30</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.99892000000000003</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.85238999999999998</v>
+      </c>
+      <c r="I19" s="2">
         <v>872</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="2">
         <v>251910</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="K19" s="2">
         <v>273</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="L19" s="2">
         <v>151</v>
       </c>
-      <c r="M19" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3615,32 +3878,32 @@
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0.99209</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>0.8348</v>
-      </c>
-      <c r="I20" s="2" t="n">
+      <c r="F20" s="1">
+        <v>30</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.99209000000000003</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="I20" s="2">
         <v>854</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="J20" s="2">
         <v>250180</v>
       </c>
-      <c r="K20" s="2" t="n">
+      <c r="K20" s="2">
         <v>1995</v>
       </c>
-      <c r="L20" s="2" t="n">
+      <c r="L20" s="2">
         <v>169</v>
       </c>
-      <c r="M20" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -3656,32 +3919,32 @@
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="n">
+      <c r="F21" s="1">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
         <v>1</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="2">
         <v>1023</v>
       </c>
-      <c r="J21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2" t="n">
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
         <v>252180</v>
       </c>
-      <c r="L21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -3697,32 +3960,32 @@
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G22" s="2" t="n">
+      <c r="F22" s="1">
+        <v>30</v>
+      </c>
+      <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="n">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <v>252180</v>
       </c>
-      <c r="K22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="n">
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
         <v>1020</v>
       </c>
-      <c r="M22" s="2" t="n">
+      <c r="M22" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -3738,32 +4001,32 @@
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2" t="n">
+      <c r="F23" s="1">
+        <v>30</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="2">
         <v>1023</v>
       </c>
-      <c r="J23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2" t="n">
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
         <v>252180</v>
       </c>
-      <c r="L23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -3779,32 +4042,32 @@
       <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G24" s="2" t="n">
+      <c r="F24" s="1">
+        <v>30</v>
+      </c>
+      <c r="G24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="n">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
         <v>252180</v>
       </c>
-      <c r="K24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="n">
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
         <v>1023</v>
       </c>
-      <c r="M24" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3820,32 +4083,32 @@
       <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G25" s="2" t="n">
+      <c r="F25" s="1">
+        <v>30</v>
+      </c>
+      <c r="G25" s="2">
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="K25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2" t="n">
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>30</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
         <v>253170</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -3861,32 +4124,32 @@
       <c r="E26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0.96717</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>0.45455</v>
-      </c>
-      <c r="I26" s="2" t="n">
+      <c r="F26" s="1">
+        <v>30</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.96716999999999997</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.45455000000000001</v>
+      </c>
+      <c r="I26" s="2">
         <v>465</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" s="2">
         <v>243900</v>
       </c>
-      <c r="K26" s="2" t="n">
+      <c r="K26" s="2">
         <v>8280</v>
       </c>
-      <c r="L26" s="2" t="n">
+      <c r="L26" s="2">
         <v>558</v>
       </c>
-      <c r="M26" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -3902,32 +4165,32 @@
       <c r="E27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G27" s="2" t="n">
+      <c r="F27" s="1">
+        <v>30</v>
+      </c>
+      <c r="G27" s="2">
         <v>0.51044</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>0.95797</v>
-      </c>
-      <c r="I27" s="2" t="n">
+      <c r="H27" s="2">
+        <v>0.95796999999999999</v>
+      </c>
+      <c r="I27" s="2">
         <v>980</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J27" s="2">
         <v>128720</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="K27" s="2">
         <v>123460</v>
       </c>
-      <c r="L27" s="2" t="n">
+      <c r="L27" s="2">
         <v>43</v>
       </c>
-      <c r="M27" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3943,32 +4206,32 @@
       <c r="E28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>0.69697</v>
-      </c>
-      <c r="I28" s="2" t="n">
+      <c r="F28" s="1">
+        <v>30</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.69696999999999998</v>
+      </c>
+      <c r="I28" s="2">
         <v>713</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="J28" s="2">
         <v>248400</v>
       </c>
-      <c r="K28" s="2" t="n">
+      <c r="K28" s="2">
         <v>3782</v>
       </c>
-      <c r="L28" s="2" t="n">
+      <c r="L28" s="2">
         <v>310</v>
       </c>
-      <c r="M28" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -3984,32 +4247,32 @@
       <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="n">
+      <c r="F29" s="1">
+        <v>30</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
         <v>1</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="2">
         <v>1023</v>
       </c>
-      <c r="J29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2" t="n">
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
         <v>252180</v>
       </c>
-      <c r="L29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -4025,32 +4288,32 @@
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>0.74658</v>
-      </c>
-      <c r="H30" s="2" t="n">
+      <c r="F30" s="1">
+        <v>30</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.74658000000000002</v>
+      </c>
+      <c r="H30" s="2">
         <v>0.22483</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="2">
         <v>230</v>
       </c>
-      <c r="J30" s="2" t="n">
+      <c r="J30" s="2">
         <v>188270</v>
       </c>
-      <c r="K30" s="2" t="n">
+      <c r="K30" s="2">
         <v>63907</v>
       </c>
-      <c r="L30" s="2" t="n">
+      <c r="L30" s="2">
         <v>793</v>
       </c>
-      <c r="M30" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -4066,32 +4329,32 @@
       <c r="E31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>0.99833</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>0.83871</v>
-      </c>
-      <c r="I31" s="2" t="n">
+      <c r="F31" s="1">
+        <v>30</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.99833000000000005</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.83870999999999996</v>
+      </c>
+      <c r="I31" s="2">
         <v>858</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="J31" s="2">
         <v>251760</v>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="K31" s="2">
         <v>421</v>
       </c>
-      <c r="L31" s="2" t="n">
+      <c r="L31" s="2">
         <v>165</v>
       </c>
-      <c r="M31" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
@@ -4107,32 +4370,32 @@
       <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>0.99301</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>0.84457</v>
-      </c>
-      <c r="I32" s="2" t="n">
+      <c r="F32" s="1">
+        <v>30</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.99300999999999995</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.84457000000000004</v>
+      </c>
+      <c r="I32" s="2">
         <v>864</v>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="J32" s="2">
         <v>250420</v>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="K32" s="2">
         <v>1763</v>
       </c>
-      <c r="L32" s="2" t="n">
+      <c r="L32" s="2">
         <v>159</v>
       </c>
-      <c r="M32" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -4148,11 +4411,32 @@
       <c r="E33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="1">
+        <v>30</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.93383000000000005</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.60177999999999998</v>
+      </c>
+      <c r="I33" s="2">
+        <v>473</v>
+      </c>
+      <c r="J33" s="2">
+        <v>41039</v>
+      </c>
+      <c r="K33" s="2">
+        <v>2908</v>
+      </c>
+      <c r="L33" s="2">
+        <v>313</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -4168,32 +4452,32 @@
       <c r="E34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>0.14208</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>0.83933</v>
-      </c>
-      <c r="I34" s="2" t="n">
+      <c r="F34" s="1">
+        <v>30</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.14208000000000001</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.83933000000000002</v>
+      </c>
+      <c r="I34" s="2">
         <v>653</v>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="J34" s="2">
         <v>6244</v>
       </c>
-      <c r="K34" s="2" t="n">
+      <c r="K34" s="2">
         <v>37703</v>
       </c>
-      <c r="L34" s="2" t="n">
+      <c r="L34" s="2">
         <v>125</v>
       </c>
-      <c r="M34" s="2" t="n">
+      <c r="M34" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -4209,32 +4493,32 @@
       <c r="E35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>0.019683</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>0.9313</v>
-      </c>
-      <c r="I35" s="2" t="n">
+      <c r="F35" s="1">
+        <v>30</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1.9682999999999999E-2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.93130000000000002</v>
+      </c>
+      <c r="I35" s="2">
         <v>732</v>
       </c>
-      <c r="J35" s="2" t="n">
+      <c r="J35" s="2">
         <v>865</v>
       </c>
-      <c r="K35" s="2" t="n">
+      <c r="K35" s="2">
         <v>43082</v>
       </c>
-      <c r="L35" s="2" t="n">
+      <c r="L35" s="2">
         <v>54</v>
       </c>
-      <c r="M35" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -4250,32 +4534,32 @@
       <c r="E36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>0.093772</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>0.90712</v>
-      </c>
-      <c r="I36" s="2" t="n">
+      <c r="F36" s="1">
+        <v>30</v>
+      </c>
+      <c r="G36" s="2">
+        <v>9.3771999999999994E-2</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.90712000000000004</v>
+      </c>
+      <c r="I36" s="2">
         <v>713</v>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="J36" s="2">
         <v>4121</v>
       </c>
-      <c r="K36" s="2" t="n">
+      <c r="K36" s="2">
         <v>39826</v>
       </c>
-      <c r="L36" s="2" t="n">
+      <c r="L36" s="2">
         <v>73</v>
       </c>
-      <c r="M36" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -4291,32 +4575,32 @@
       <c r="E37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>0.99993</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>0.32398</v>
-      </c>
-      <c r="I37" s="2" t="n">
+      <c r="F37" s="1">
+        <v>30</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.32397999999999999</v>
+      </c>
+      <c r="I37" s="2">
         <v>254</v>
       </c>
-      <c r="J37" s="2" t="n">
+      <c r="J37" s="2">
         <v>42512</v>
       </c>
-      <c r="K37" s="2" t="n">
+      <c r="K37" s="2">
         <v>3</v>
       </c>
-      <c r="L37" s="2" t="n">
+      <c r="L37" s="2">
         <v>530</v>
       </c>
-      <c r="M37" s="2" t="n">
+      <c r="M37" s="2">
         <v>1434</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -4332,32 +4616,32 @@
       <c r="E38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G38" s="2" t="n">
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+      <c r="G38" s="2">
         <v>0.9103</v>
       </c>
-      <c r="H38" s="2" t="n">
-        <v>0.60305</v>
-      </c>
-      <c r="I38" s="2" t="n">
+      <c r="H38" s="2">
+        <v>0.60304999999999997</v>
+      </c>
+      <c r="I38" s="2">
         <v>474</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="J38" s="2">
         <v>40005</v>
       </c>
-      <c r="K38" s="2" t="n">
+      <c r="K38" s="2">
         <v>3942</v>
       </c>
-      <c r="L38" s="2" t="n">
+      <c r="L38" s="2">
         <v>312</v>
       </c>
-      <c r="M38" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -4373,32 +4657,32 @@
       <c r="E39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>0.092043</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>0.90712</v>
-      </c>
-      <c r="I39" s="2" t="n">
+      <c r="F39" s="1">
+        <v>30</v>
+      </c>
+      <c r="G39" s="2">
+        <v>9.2043E-2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.90712000000000004</v>
+      </c>
+      <c r="I39" s="2">
         <v>713</v>
       </c>
-      <c r="J39" s="2" t="n">
+      <c r="J39" s="2">
         <v>4045</v>
       </c>
-      <c r="K39" s="2" t="n">
+      <c r="K39" s="2">
         <v>39902</v>
       </c>
-      <c r="L39" s="2" t="n">
+      <c r="L39" s="2">
         <v>73</v>
       </c>
-      <c r="M39" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -4414,32 +4698,32 @@
       <c r="E40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>0.95772</v>
-      </c>
-      <c r="H40" s="2" t="n">
+      <c r="F40" s="1">
+        <v>30</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.95772000000000002</v>
+      </c>
+      <c r="H40" s="2">
         <v>0.11196</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="2">
         <v>88</v>
       </c>
-      <c r="J40" s="2" t="n">
+      <c r="J40" s="2">
         <v>42089</v>
       </c>
-      <c r="K40" s="2" t="n">
+      <c r="K40" s="2">
         <v>1858</v>
       </c>
-      <c r="L40" s="2" t="n">
+      <c r="L40" s="2">
         <v>698</v>
       </c>
-      <c r="M40" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -4455,32 +4739,32 @@
       <c r="E41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G41" s="2" t="n">
+      <c r="F41" s="1">
+        <v>30</v>
+      </c>
+      <c r="G41" s="2">
         <v>1</v>
       </c>
-      <c r="H41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="n">
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
         <v>43947</v>
       </c>
-      <c r="K41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="n">
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
         <v>786</v>
       </c>
-      <c r="M41" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -4496,32 +4780,32 @@
       <c r="E42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G42" s="2" t="n">
+      <c r="F42" s="1">
+        <v>30</v>
+      </c>
+      <c r="G42" s="2">
         <v>1</v>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="n">
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
         <v>557</v>
       </c>
-      <c r="K42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="n">
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
         <v>81</v>
       </c>
-      <c r="M42" s="2" t="n">
+      <c r="M42" s="2">
         <v>44095</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -4537,32 +4821,32 @@
       <c r="E43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>0.99993</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>0.30025</v>
-      </c>
-      <c r="I43" s="2" t="n">
+      <c r="F43" s="1">
+        <v>30</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.30025000000000002</v>
+      </c>
+      <c r="I43" s="2">
         <v>236</v>
       </c>
-      <c r="J43" s="2" t="n">
+      <c r="J43" s="2">
         <v>43944</v>
       </c>
-      <c r="K43" s="2" t="n">
+      <c r="K43" s="2">
         <v>3</v>
       </c>
-      <c r="L43" s="2" t="n">
+      <c r="L43" s="2">
         <v>550</v>
       </c>
-      <c r="M43" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -4578,32 +4862,32 @@
       <c r="E44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G44" s="2" t="n">
+      <c r="F44" s="1">
+        <v>30</v>
+      </c>
+      <c r="G44" s="2">
         <v>0.94877</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="2">
         <v>0.25</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="2">
         <v>56</v>
       </c>
-      <c r="J44" s="2" t="n">
+      <c r="J44" s="2">
         <v>8185</v>
       </c>
-      <c r="K44" s="2" t="n">
+      <c r="K44" s="2">
         <v>442</v>
       </c>
-      <c r="L44" s="2" t="n">
+      <c r="L44" s="2">
         <v>168</v>
       </c>
-      <c r="M44" s="2" t="n">
+      <c r="M44" s="2">
         <v>35882</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -4619,32 +4903,32 @@
       <c r="E45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G45" s="2" t="n">
+      <c r="F45" s="1">
+        <v>30</v>
+      </c>
+      <c r="G45" s="2">
         <v>1</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>0.0065147</v>
-      </c>
-      <c r="I45" s="2" t="n">
+      <c r="H45" s="2">
+        <v>6.5147E-3</v>
+      </c>
+      <c r="I45" s="2">
         <v>2</v>
       </c>
-      <c r="J45" s="2" t="n">
+      <c r="J45" s="2">
         <v>6439</v>
       </c>
-      <c r="K45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="n">
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
         <v>305</v>
       </c>
-      <c r="M45" s="2" t="n">
+      <c r="M45" s="2">
         <v>37987</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
@@ -4660,32 +4944,32 @@
       <c r="E46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>0.34291</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>0.86641</v>
-      </c>
-      <c r="I46" s="2" t="n">
+      <c r="F46" s="1">
+        <v>30</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.34290999999999999</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.86641000000000001</v>
+      </c>
+      <c r="I46" s="2">
         <v>681</v>
       </c>
-      <c r="J46" s="2" t="n">
+      <c r="J46" s="2">
         <v>15070</v>
       </c>
-      <c r="K46" s="2" t="n">
+      <c r="K46" s="2">
         <v>28877</v>
       </c>
-      <c r="L46" s="2" t="n">
+      <c r="L46" s="2">
         <v>105</v>
       </c>
-      <c r="M46" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -4701,32 +4985,32 @@
       <c r="E47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G47" s="2" t="n">
+      <c r="F47" s="1">
+        <v>30</v>
+      </c>
+      <c r="G47" s="2">
         <v>0.9002</v>
       </c>
-      <c r="H47" s="2" t="n">
-        <v>0.70625</v>
-      </c>
-      <c r="I47" s="2" t="n">
+      <c r="H47" s="2">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="I47" s="2">
         <v>452</v>
       </c>
-      <c r="J47" s="2" t="n">
+      <c r="J47" s="2">
         <v>26565</v>
       </c>
-      <c r="K47" s="2" t="n">
+      <c r="K47" s="2">
         <v>2945</v>
       </c>
-      <c r="L47" s="2" t="n">
+      <c r="L47" s="2">
         <v>188</v>
       </c>
-      <c r="M47" s="2" t="n">
+      <c r="M47" s="2">
         <v>14583</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -4742,32 +5026,32 @@
       <c r="E48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>0.94748</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>0.23028</v>
-      </c>
-      <c r="I48" s="2" t="n">
+      <c r="F48" s="1">
+        <v>30</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.94747999999999999</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.23028000000000001</v>
+      </c>
+      <c r="I48" s="2">
         <v>181</v>
       </c>
-      <c r="J48" s="2" t="n">
+      <c r="J48" s="2">
         <v>41639</v>
       </c>
-      <c r="K48" s="2" t="n">
+      <c r="K48" s="2">
         <v>2308</v>
       </c>
-      <c r="L48" s="2" t="n">
+      <c r="L48" s="2">
         <v>605</v>
       </c>
-      <c r="M48" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -4783,32 +5067,32 @@
       <c r="E49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G49" s="2" t="n">
+      <c r="F49" s="1">
+        <v>30</v>
+      </c>
+      <c r="G49" s="2">
         <v>1</v>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>0.081841</v>
-      </c>
-      <c r="I49" s="2" t="n">
+      <c r="H49" s="2">
+        <v>8.1840999999999997E-2</v>
+      </c>
+      <c r="I49" s="2">
         <v>32</v>
       </c>
-      <c r="J49" s="2" t="n">
+      <c r="J49" s="2">
         <v>12146</v>
       </c>
-      <c r="K49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="n">
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
         <v>359</v>
       </c>
-      <c r="M49" s="2" t="n">
+      <c r="M49" s="2">
         <v>32196</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
@@ -4824,32 +5108,32 @@
       <c r="E50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G50" s="2" t="n">
+      <c r="F50" s="1">
+        <v>30</v>
+      </c>
+      <c r="G50" s="2">
         <v>0.21992</v>
       </c>
-      <c r="H50" s="2" t="n">
-        <v>0.89695</v>
-      </c>
-      <c r="I50" s="2" t="n">
+      <c r="H50" s="2">
+        <v>0.89695000000000003</v>
+      </c>
+      <c r="I50" s="2">
         <v>705</v>
       </c>
-      <c r="J50" s="2" t="n">
+      <c r="J50" s="2">
         <v>9665</v>
       </c>
-      <c r="K50" s="2" t="n">
+      <c r="K50" s="2">
         <v>34282</v>
       </c>
-      <c r="L50" s="2" t="n">
+      <c r="L50" s="2">
         <v>81</v>
       </c>
-      <c r="M50" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -4865,32 +5149,32 @@
       <c r="E51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>0.94441</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>0.55725</v>
-      </c>
-      <c r="I51" s="2" t="n">
+      <c r="F51" s="1">
+        <v>30</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.94440999999999997</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.55725000000000002</v>
+      </c>
+      <c r="I51" s="2">
         <v>438</v>
       </c>
-      <c r="J51" s="2" t="n">
+      <c r="J51" s="2">
         <v>41504</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="K51" s="2">
         <v>2443</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L51" s="2">
         <v>348</v>
       </c>
-      <c r="M51" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
@@ -4906,32 +5190,32 @@
       <c r="E52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2" t="n">
+      <c r="F52" s="1">
+        <v>30</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
         <v>1</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="2">
         <v>786</v>
       </c>
-      <c r="J52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2" t="n">
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
         <v>43947</v>
       </c>
-      <c r="L52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>27</v>
       </c>
@@ -4947,32 +5231,32 @@
       <c r="E53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>0.99993</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="n">
+      <c r="F53" s="1">
+        <v>30</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
         <v>43944</v>
       </c>
-      <c r="K53" s="2" t="n">
+      <c r="K53" s="2">
         <v>3</v>
       </c>
-      <c r="L53" s="2" t="n">
+      <c r="L53" s="2">
         <v>786</v>
       </c>
-      <c r="M53" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
@@ -4988,32 +5272,32 @@
       <c r="E54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2" t="n">
+      <c r="F54" s="1">
+        <v>30</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
         <v>1</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="I54" s="2">
         <v>786</v>
       </c>
-      <c r="J54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2" t="n">
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
         <v>43947</v>
       </c>
-      <c r="L54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>27</v>
       </c>
@@ -5029,32 +5313,32 @@
       <c r="E55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G55" s="2" t="n">
+      <c r="F55" s="1">
+        <v>30</v>
+      </c>
+      <c r="G55" s="2">
         <v>1</v>
       </c>
-      <c r="H55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="n">
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
         <v>43947</v>
       </c>
-      <c r="K55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="n">
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
         <v>786</v>
       </c>
-      <c r="M55" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
@@ -5070,32 +5354,32 @@
       <c r="E56" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F56" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G56" s="2" t="n">
+      <c r="F56" s="1">
+        <v>30</v>
+      </c>
+      <c r="G56" s="2">
         <v>1</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="n">
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
         <v>274</v>
       </c>
-      <c r="K56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" s="2" t="n">
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
         <v>44459</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>27</v>
       </c>
@@ -5111,32 +5395,32 @@
       <c r="E57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>0.99997</v>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>0.37054</v>
-      </c>
-      <c r="I57" s="2" t="n">
+      <c r="F57" s="1">
+        <v>30</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.37053999999999998</v>
+      </c>
+      <c r="I57" s="2">
         <v>249</v>
       </c>
-      <c r="J57" s="2" t="n">
+      <c r="J57" s="2">
         <v>35103</v>
       </c>
-      <c r="K57" s="2" t="n">
+      <c r="K57" s="2">
         <v>1</v>
       </c>
-      <c r="L57" s="2" t="n">
+      <c r="L57" s="2">
         <v>423</v>
       </c>
-      <c r="M57" s="2" t="n">
+      <c r="M57" s="2">
         <v>8957</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>27</v>
       </c>
@@ -5152,32 +5436,32 @@
       <c r="E58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>0.88868</v>
-      </c>
-      <c r="H58" s="2" t="n">
-        <v>0.50254</v>
-      </c>
-      <c r="I58" s="2" t="n">
+      <c r="F58" s="1">
+        <v>30</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.88868000000000003</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.50253999999999999</v>
+      </c>
+      <c r="I58" s="2">
         <v>395</v>
       </c>
-      <c r="J58" s="2" t="n">
+      <c r="J58" s="2">
         <v>39055</v>
       </c>
-      <c r="K58" s="2" t="n">
+      <c r="K58" s="2">
         <v>4892</v>
       </c>
-      <c r="L58" s="2" t="n">
+      <c r="L58" s="2">
         <v>391</v>
       </c>
-      <c r="M58" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
@@ -5193,32 +5477,32 @@
       <c r="E59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F59" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G59" s="2" t="n">
+      <c r="F59" s="1">
+        <v>30</v>
+      </c>
+      <c r="G59" s="2">
         <v>0.98751</v>
       </c>
-      <c r="H59" s="2" t="n">
-        <v>0.51145</v>
-      </c>
-      <c r="I59" s="2" t="n">
+      <c r="H59" s="2">
+        <v>0.51144999999999996</v>
+      </c>
+      <c r="I59" s="2">
         <v>402</v>
       </c>
-      <c r="J59" s="2" t="n">
+      <c r="J59" s="2">
         <v>43398</v>
       </c>
-      <c r="K59" s="2" t="n">
+      <c r="K59" s="2">
         <v>549</v>
       </c>
-      <c r="L59" s="2" t="n">
+      <c r="L59" s="2">
         <v>384</v>
       </c>
-      <c r="M59" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>27</v>
       </c>
@@ -5234,32 +5518,32 @@
       <c r="E60" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>4.5509E-005</v>
-      </c>
-      <c r="H60" s="2" t="n">
+      <c r="F60" s="1">
+        <v>30</v>
+      </c>
+      <c r="G60" s="2">
+        <v>4.5509000000000001E-5</v>
+      </c>
+      <c r="H60" s="2">
         <v>1</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" s="2">
         <v>786</v>
       </c>
-      <c r="J60" s="2" t="n">
+      <c r="J60" s="2">
         <v>2</v>
       </c>
-      <c r="K60" s="2" t="n">
+      <c r="K60" s="2">
         <v>43945</v>
       </c>
-      <c r="L60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>27</v>
       </c>
@@ -5275,32 +5559,32 @@
       <c r="E61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F61" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G61" s="2" t="n">
+      <c r="F61" s="1">
+        <v>30</v>
+      </c>
+      <c r="G61" s="2">
         <v>0.10165</v>
       </c>
-      <c r="H61" s="2" t="n">
-        <v>0.79771</v>
-      </c>
-      <c r="I61" s="2" t="n">
+      <c r="H61" s="2">
+        <v>0.79771000000000003</v>
+      </c>
+      <c r="I61" s="2">
         <v>627</v>
       </c>
-      <c r="J61" s="2" t="n">
+      <c r="J61" s="2">
         <v>4467</v>
       </c>
-      <c r="K61" s="2" t="n">
+      <c r="K61" s="2">
         <v>39480</v>
       </c>
-      <c r="L61" s="2" t="n">
+      <c r="L61" s="2">
         <v>159</v>
       </c>
-      <c r="M61" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>27</v>
       </c>
@@ -5316,32 +5600,32 @@
       <c r="E62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F62" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>0.99315</v>
-      </c>
-      <c r="H62" s="2" t="n">
-        <v>0.58779</v>
-      </c>
-      <c r="I62" s="2" t="n">
+      <c r="F62" s="1">
+        <v>30</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.99314999999999998</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.58779000000000003</v>
+      </c>
+      <c r="I62" s="2">
         <v>462</v>
       </c>
-      <c r="J62" s="2" t="n">
+      <c r="J62" s="2">
         <v>43646</v>
       </c>
-      <c r="K62" s="2" t="n">
+      <c r="K62" s="2">
         <v>301</v>
       </c>
-      <c r="L62" s="2" t="n">
+      <c r="L62" s="2">
         <v>324</v>
       </c>
-      <c r="M62" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
@@ -5357,36 +5641,35 @@
       <c r="E63" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G63" s="2" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="H63" s="2" t="n">
-        <v>0.58906</v>
-      </c>
-      <c r="I63" s="2" t="n">
+      <c r="F63" s="1">
+        <v>30</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.58906000000000003</v>
+      </c>
+      <c r="I63" s="2">
         <v>463</v>
       </c>
-      <c r="J63" s="2" t="n">
+      <c r="J63" s="2">
         <v>43200</v>
       </c>
-      <c r="K63" s="2" t="n">
+      <c r="K63" s="2">
         <v>747</v>
       </c>
-      <c r="L63" s="2" t="n">
+      <c r="L63" s="2">
         <v>323</v>
       </c>
-      <c r="M63" s="2" t="n">
+      <c r="M63" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Single Classification" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="32">
   <si>
     <t>Rede</t>
   </si>
@@ -223,8 +223,8 @@
   </sheetPr>
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G95" activeCellId="1" sqref="G64:M94 G95"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G95" activeCellId="0" sqref="G95:M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4118,6 +4118,27 @@
       <c r="F95" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G95" s="2" t="n">
+        <v>0.92369</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>0.6819</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>1104</v>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>152300</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>12583</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>515</v>
+      </c>
+      <c r="M95" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
@@ -4138,6 +4159,27 @@
       <c r="F96" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G96" s="2" t="n">
+        <v>0.15113</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>0.77181</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>1035</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>23576</v>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>132420</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>306</v>
+      </c>
+      <c r="M96" s="2" t="n">
+        <v>9169</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
@@ -4158,6 +4200,27 @@
       <c r="F97" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G97" s="2" t="n">
+        <v>0.084882</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>0.8862</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>13604</v>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>146670</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="M97" s="2" t="n">
+        <v>4707</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
@@ -4178,6 +4241,27 @@
       <c r="F98" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G98" s="2" t="n">
+        <v>0.11763</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>0.77742</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>1205</v>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>19171</v>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>143810</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="M98" s="2" t="n">
+        <v>1976</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
@@ -4198,6 +4282,27 @@
       <c r="F99" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G99" s="2" t="n">
+        <v>0.95021</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>0.44072</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>539</v>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>78758</v>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>4127</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>684</v>
+      </c>
+      <c r="M99" s="2" t="n">
+        <v>82397</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
@@ -4218,6 +4323,27 @@
       <c r="F100" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G100" s="2" t="n">
+        <v>0.82031</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>0.69086</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>1066</v>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>116360</v>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>25490</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>477</v>
+      </c>
+      <c r="M100" s="2" t="n">
+        <v>23108</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
@@ -4238,6 +4364,27 @@
       <c r="F101" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G101" s="2" t="n">
+        <v>0.11259</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>0.7911</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>1155</v>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>18284</v>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>144110</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>305</v>
+      </c>
+      <c r="M101" s="2" t="n">
+        <v>2656</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
@@ -4258,6 +4405,27 @@
       <c r="F102" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G102" s="2" t="n">
+        <v>0.94101</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>0.21886</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>325</v>
+      </c>
+      <c r="J102" s="2" t="n">
+        <v>153110</v>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>9598</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>1160</v>
+      </c>
+      <c r="M102" s="2" t="n">
+        <v>2312</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
@@ -4278,6 +4446,27 @@
       <c r="F103" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G103" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2" t="n">
+        <v>162790</v>
+      </c>
+      <c r="K103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>1538</v>
+      </c>
+      <c r="M103" s="2" t="n">
+        <v>2177</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
@@ -4298,6 +4487,27 @@
       <c r="F104" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G104" s="2" t="n">
+        <v>0.85484</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>0.12821</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J104" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="K104" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="M104" s="2" t="n">
+        <v>166260</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
@@ -4318,6 +4528,27 @@
       <c r="F105" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G105" s="2" t="n">
+        <v>0.99243</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>0.30932</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>481</v>
+      </c>
+      <c r="J105" s="2" t="n">
+        <v>160120</v>
+      </c>
+      <c r="K105" s="2" t="n">
+        <v>1222</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>1074</v>
+      </c>
+      <c r="M105" s="2" t="n">
+        <v>3610</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
@@ -4338,6 +4569,27 @@
       <c r="F106" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G106" s="2" t="n">
+        <v>0.27791</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="J106" s="2" t="n">
+        <v>1618</v>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>4204</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="M106" s="2" t="n">
+        <v>160330</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
@@ -4358,6 +4610,27 @@
       <c r="F107" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G107" s="2" t="n">
+        <v>0.49863</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>0.52941</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="J107" s="2" t="n">
+        <v>1278</v>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>1285</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="M107" s="2" t="n">
+        <v>163840</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
@@ -4378,6 +4651,27 @@
       <c r="F108" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G108" s="2" t="n">
+        <v>0.34078</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>0.77577</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>1204</v>
+      </c>
+      <c r="J108" s="2" t="n">
+        <v>54113</v>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>104680</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>348</v>
+      </c>
+      <c r="M108" s="2" t="n">
+        <v>6162</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
@@ -4398,6 +4692,27 @@
       <c r="F109" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G109" s="2" t="n">
+        <v>0.39016</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>0.6297</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>687</v>
+      </c>
+      <c r="J109" s="2" t="n">
+        <v>15856</v>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>24784</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>404</v>
+      </c>
+      <c r="M109" s="2" t="n">
+        <v>124770</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
@@ -4418,6 +4733,27 @@
       <c r="F110" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G110" s="2" t="n">
+        <v>0.92002</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>0.35003</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="J110" s="2" t="n">
+        <v>151630</v>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>13182</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>1051</v>
+      </c>
+      <c r="M110" s="2" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
@@ -4438,6 +4774,27 @@
       <c r="F111" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G111" s="2" t="n">
+        <v>0.97282</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="J111" s="2" t="n">
+        <v>6228</v>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="M111" s="2" t="n">
+        <v>159900</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
@@ -4458,6 +4815,27 @@
       <c r="F112" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G112" s="2" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>0.79143</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>1275</v>
+      </c>
+      <c r="J112" s="2" t="n">
+        <v>46923</v>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>117720</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>336</v>
+      </c>
+      <c r="M112" s="2" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
@@ -4478,6 +4856,27 @@
       <c r="F113" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G113" s="2" t="n">
+        <v>0.93331</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>0.66022</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>1059</v>
+      </c>
+      <c r="J113" s="2" t="n">
+        <v>153350</v>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>10957</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>545</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>598</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
@@ -4498,6 +4897,27 @@
       <c r="F114" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G114" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>1618</v>
+      </c>
+      <c r="J114" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>164320</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" s="2" t="n">
+        <v>572</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
@@ -4518,6 +4938,27 @@
       <c r="F115" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G115" s="2" t="n">
+        <v>0.99922</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>0.00062112</v>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" s="2" t="n">
+        <v>163460</v>
+      </c>
+      <c r="K115" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>1609</v>
+      </c>
+      <c r="M115" s="2" t="n">
+        <v>1313</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
@@ -4538,6 +4979,27 @@
       <c r="F116" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G116" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>1618</v>
+      </c>
+      <c r="J116" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>164550</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" s="2" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
@@ -4558,6 +5020,27 @@
       <c r="F117" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G117" s="2" t="n">
+        <v>0.99987</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="n">
+        <v>163740</v>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>1611</v>
+      </c>
+      <c r="M117" s="2" t="n">
+        <v>1130</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
@@ -4578,6 +5061,27 @@
       <c r="F118" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" s="2" t="n">
+        <v>166430</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
@@ -4598,6 +5102,27 @@
       <c r="F119" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G119" s="2" t="n">
+        <v>0.98002</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>0.37342</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>413</v>
+      </c>
+      <c r="J119" s="2" t="n">
+        <v>55781</v>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>1137</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>693</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>108480</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
@@ -4618,6 +5143,27 @@
       <c r="F120" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G120" s="2" t="n">
+        <v>0.89335</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>0.57479</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>903</v>
+      </c>
+      <c r="J120" s="2" t="n">
+        <v>146980</v>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>17546</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>668</v>
+      </c>
+      <c r="M120" s="2" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
@@ -4638,6 +5184,27 @@
       <c r="F121" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G121" s="2" t="n">
+        <v>0.94848</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>0.61946</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>936</v>
+      </c>
+      <c r="J121" s="2" t="n">
+        <v>154280</v>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>8380</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>575</v>
+      </c>
+      <c r="M121" s="2" t="n">
+        <v>2337</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
@@ -4658,6 +5225,27 @@
       <c r="F122" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G122" s="2" t="n">
+        <v>0.00028019</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>0.99938</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>1617</v>
+      </c>
+      <c r="J122" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>164130</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" s="2" t="n">
+        <v>711</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
@@ -4678,6 +5266,27 @@
       <c r="F123" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G123" s="2" t="n">
+        <v>0.1287</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>0.66149</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>1022</v>
+      </c>
+      <c r="J123" s="2" t="n">
+        <v>20971</v>
+      </c>
+      <c r="K123" s="2" t="n">
+        <v>141970</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>523</v>
+      </c>
+      <c r="M123" s="2" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
@@ -4698,6 +5307,27 @@
       <c r="F124" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G124" s="2" t="n">
+        <v>0.96347</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>0.6433</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>1037</v>
+      </c>
+      <c r="J124" s="2" t="n">
+        <v>158580</v>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>6012</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>575</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
@@ -4717,6 +5347,27 @@
       </c>
       <c r="F125" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>0.95265</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>0.6778</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>1096</v>
+      </c>
+      <c r="J125" s="2" t="n">
+        <v>156790</v>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>7792</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>521</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4737,8 +5388,8 @@
   </sheetPr>
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G64" activeCellId="0" sqref="G64:M94"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G95" activeCellId="0" sqref="G95:M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Single Classification" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="32">
   <si>
     <t>Rede</t>
   </si>
@@ -221,10 +221,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G95" activeCellId="0" sqref="G95:M125"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B127" activeCellId="0" sqref="A126:F187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5370,6 +5370,1246 @@
         <v>311</v>
       </c>
     </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F156" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F159" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F161" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F162" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F164" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F165" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F166" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F167" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F168" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F169" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F170" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F171" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F172" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F174" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F175" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F176" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F177" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F178" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F179" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F180" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F181" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F182" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F183" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F184" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F186" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5386,10 +6626,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G95" activeCellId="0" sqref="G95:M125"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A126" activeCellId="0" sqref="A126:F187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9282,6 +10522,27 @@
       <c r="F95" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G95" s="2" t="n">
+        <v>0.96651</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>0.69349</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>1129</v>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>159350</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>5521</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>499</v>
+      </c>
+      <c r="M95" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
@@ -9302,6 +10563,27 @@
       <c r="F96" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G96" s="2" t="n">
+        <v>0.13473</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>0.73193</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>1185</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>22165</v>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>142350</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>434</v>
+      </c>
+      <c r="M96" s="2" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
@@ -9322,6 +10604,27 @@
       <c r="F97" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G97" s="2" t="n">
+        <v>0.033036</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>0.89373</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>1455</v>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>5435</v>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>159080</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="M97" s="2" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
@@ -9342,6 +10645,27 @@
       <c r="F98" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G98" s="2" t="n">
+        <v>0.078233</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>0.81572</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>1328</v>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>12898</v>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>151970</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="M98" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
@@ -9362,6 +10686,27 @@
       <c r="F99" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G99" s="2" t="n">
+        <v>0.99932</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>0.37028</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>598</v>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>150140</v>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>1017</v>
+      </c>
+      <c r="M99" s="2" t="n">
+        <v>14643</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
@@ -9382,6 +10727,27 @@
       <c r="F100" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G100" s="2" t="n">
+        <v>0.92841</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>0.6984</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>1137</v>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>153060</v>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>11802</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>491</v>
+      </c>
+      <c r="M100" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
@@ -9402,6 +10768,27 @@
       <c r="F101" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G101" s="2" t="n">
+        <v>0.072649</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>0.80344</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>1308</v>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>11952</v>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>152570</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="M101" s="2" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
@@ -9422,6 +10809,27 @@
       <c r="F102" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G102" s="2" t="n">
+        <v>0.9681</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>0.15418</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="J102" s="2" t="n">
+        <v>159270</v>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>5248</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>1377</v>
+      </c>
+      <c r="M102" s="2" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
@@ -9442,6 +10850,27 @@
       <c r="F103" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G103" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2" t="n">
+        <v>164520</v>
+      </c>
+      <c r="K103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>1628</v>
+      </c>
+      <c r="M103" s="2" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
@@ -9462,6 +10891,27 @@
       <c r="F104" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G104" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>0.007177</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" s="2" t="n">
+        <v>1196</v>
+      </c>
+      <c r="K104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>415</v>
+      </c>
+      <c r="M104" s="2" t="n">
+        <v>164880</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
@@ -9482,6 +10932,27 @@
       <c r="F105" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G105" s="2" t="n">
+        <v>0.99985</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>0.32248</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>525</v>
+      </c>
+      <c r="J105" s="2" t="n">
+        <v>164840</v>
+      </c>
+      <c r="K105" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>1103</v>
+      </c>
+      <c r="M105" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
@@ -9502,6 +10973,27 @@
       <c r="F106" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G106" s="2" t="n">
+        <v>0.92809</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>0.21447</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="J106" s="2" t="n">
+        <v>22405</v>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>1736</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>608</v>
+      </c>
+      <c r="M106" s="2" t="n">
+        <v>141580</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
@@ -9522,6 +11014,27 @@
       <c r="F107" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G107" s="2" t="n">
+        <v>0.99939</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>0.0030675</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" s="2" t="n">
+        <v>21324</v>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>650</v>
+      </c>
+      <c r="M107" s="2" t="n">
+        <v>144510</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
@@ -9542,6 +11055,27 @@
       <c r="F108" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G108" s="2" t="n">
+        <v>0.29517</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>0.81634</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>1329</v>
+      </c>
+      <c r="J108" s="2" t="n">
+        <v>48561</v>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>115960</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>299</v>
+      </c>
+      <c r="M108" s="2" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
@@ -9562,6 +11096,27 @@
       <c r="F109" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G109" s="2" t="n">
+        <v>0.8541</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>799</v>
+      </c>
+      <c r="J109" s="2" t="n">
+        <v>85025</v>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>14524</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="M109" s="2" t="n">
+        <v>65521</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
@@ -9582,6 +11137,27 @@
       <c r="F110" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G110" s="2" t="n">
+        <v>0.9602</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>0.35627</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>580</v>
+      </c>
+      <c r="J110" s="2" t="n">
+        <v>158310</v>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>6562</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>1048</v>
+      </c>
+      <c r="M110" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
@@ -9602,6 +11178,27 @@
       <c r="F111" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G111" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>0.07304</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="J111" s="2" t="n">
+        <v>41950</v>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>863</v>
+      </c>
+      <c r="M111" s="2" t="n">
+        <v>123610</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
@@ -9622,6 +11219,27 @@
       <c r="F112" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G112" s="2" t="n">
+        <v>0.23148</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>0.83292</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>1356</v>
+      </c>
+      <c r="J112" s="2" t="n">
+        <v>38164</v>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>126700</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="M112" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
@@ -9642,6 +11260,27 @@
       <c r="F113" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G113" s="2" t="n">
+        <v>0.96391</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>0.66892</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>1089</v>
+      </c>
+      <c r="J113" s="2" t="n">
+        <v>158920</v>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>5950</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>539</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
@@ -9662,6 +11301,27 @@
       <c r="F114" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G114" s="2" t="n">
+        <v>0.0002127</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>1628</v>
+      </c>
+      <c r="J114" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>164520</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" s="2" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
@@ -9682,6 +11342,27 @@
       <c r="F115" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G115" s="2" t="n">
+        <v>0.99994</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="n">
+        <v>164510</v>
+      </c>
+      <c r="K115" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>1628</v>
+      </c>
+      <c r="M115" s="2" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
@@ -9702,6 +11383,27 @@
       <c r="F116" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G116" s="2" t="n">
+        <v>0.00038214</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>1628</v>
+      </c>
+      <c r="J116" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>164800</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" s="2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
@@ -9722,6 +11424,27 @@
       <c r="F117" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G117" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="n">
+        <v>164520</v>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>1628</v>
+      </c>
+      <c r="M117" s="2" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
@@ -9742,6 +11465,27 @@
       <c r="F118" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G118" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="n">
+        <v>735</v>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" s="2" t="n">
+        <v>165760</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
@@ -9762,6 +11506,27 @@
       <c r="F119" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G119" s="2" t="n">
+        <v>0.99983</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>0.31503</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>459</v>
+      </c>
+      <c r="J119" s="2" t="n">
+        <v>115040</v>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>998</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>49982</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
@@ -9782,6 +11547,27 @@
       <c r="F120" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G120" s="2" t="n">
+        <v>0.91846</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>0.59214</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>964</v>
+      </c>
+      <c r="J120" s="2" t="n">
+        <v>151420</v>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>13443</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>664</v>
+      </c>
+      <c r="M120" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
@@ -9802,6 +11588,27 @@
       <c r="F121" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G121" s="2" t="n">
+        <v>0.98783</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>0.62007</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>1007</v>
+      </c>
+      <c r="J121" s="2" t="n">
+        <v>162860</v>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>2006</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>617</v>
+      </c>
+      <c r="M121" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
@@ -9822,6 +11629,27 @@
       <c r="F122" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G122" s="2" t="n">
+        <v>0.00020057</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>1628</v>
+      </c>
+      <c r="J122" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>164500</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" s="2" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
@@ -9842,6 +11670,27 @@
       <c r="F123" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G123" s="2" t="n">
+        <v>0.085893</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>0.68428</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>1114</v>
+      </c>
+      <c r="J123" s="2" t="n">
+        <v>14161</v>
+      </c>
+      <c r="K123" s="2" t="n">
+        <v>150710</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>514</v>
+      </c>
+      <c r="M123" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
@@ -9862,6 +11711,27 @@
       <c r="F124" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="G124" s="2" t="n">
+        <v>0.99594</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>0.67813</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>1104</v>
+      </c>
+      <c r="J124" s="2" t="n">
+        <v>164200</v>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>669</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>524</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
@@ -9881,6 +11751,1267 @@
       </c>
       <c r="F125" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>0.99054</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>0.69287</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>1128</v>
+      </c>
+      <c r="J125" s="2" t="n">
+        <v>163310</v>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>1559</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F156" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F159" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F161" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F162" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F164" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F165" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F166" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F167" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F168" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F169" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F170" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F171" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F172" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F174" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F175" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F176" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F177" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F178" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F179" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F180" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F181" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F182" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F183" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F184" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F186" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Single Classification" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="32">
   <si>
     <t>Rede</t>
   </si>
@@ -223,8 +223,8 @@
   </sheetPr>
   <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B127" activeCellId="0" sqref="A126:F187"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G126" activeCellId="0" sqref="G126:M156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5389,6 +5389,27 @@
       <c r="F126" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G126" s="2" t="n">
+        <v>0.8186</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>0.87699</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>1376</v>
+      </c>
+      <c r="J126" s="2" t="n">
+        <v>444170</v>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>98430</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
@@ -5409,6 +5430,27 @@
       <c r="F127" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G127" s="2" t="n">
+        <v>0.99582</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>0.63427</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>770</v>
+      </c>
+      <c r="J127" s="2" t="n">
+        <v>522480</v>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>2194</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>444</v>
+      </c>
+      <c r="M127" s="2" t="n">
+        <v>18287</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
@@ -5429,6 +5471,27 @@
       <c r="F128" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G128" s="2" t="n">
+        <v>0.73563</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>0.63422</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>645</v>
+      </c>
+      <c r="J128" s="2" t="n">
+        <v>356110</v>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>127980</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>372</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>59061</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
@@ -5449,6 +5512,27 @@
       <c r="F129" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G129" s="2" t="n">
+        <v>0.61273</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>0.43531</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>498</v>
+      </c>
+      <c r="J129" s="2" t="n">
+        <v>323900</v>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>204720</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>646</v>
+      </c>
+      <c r="M129" s="2" t="n">
+        <v>14406</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
@@ -5469,6 +5553,27 @@
       <c r="F130" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G130" s="2" t="n">
+        <v>0.99804</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>0.54507</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>641</v>
+      </c>
+      <c r="J130" s="2" t="n">
+        <v>531250</v>
+      </c>
+      <c r="K130" s="2" t="n">
+        <v>1041</v>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>535</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>10708</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
@@ -5489,6 +5594,27 @@
       <c r="F131" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G131" s="2" t="n">
+        <v>0.53091</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>0.90844</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>1389</v>
+      </c>
+      <c r="J131" s="2" t="n">
+        <v>256230</v>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>226390</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>60027</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
@@ -5509,6 +5635,27 @@
       <c r="F132" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G132" s="2" t="n">
+        <v>0.78276</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>0.53913</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>744</v>
+      </c>
+      <c r="J132" s="2" t="n">
+        <v>420200</v>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>116620</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>636</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>5972</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
@@ -5529,6 +5676,27 @@
       <c r="F133" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G133" s="2" t="n">
+        <v>0.96142</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>0.26572</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>376</v>
+      </c>
+      <c r="J133" s="2" t="n">
+        <v>520930</v>
+      </c>
+      <c r="K133" s="2" t="n">
+        <v>20904</v>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>1039</v>
+      </c>
+      <c r="M133" s="2" t="n">
+        <v>923</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
@@ -5549,6 +5717,27 @@
       <c r="F134" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G134" s="2" t="n">
+        <v>0.99997</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="n">
+        <v>540560</v>
+      </c>
+      <c r="K134" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>1276</v>
+      </c>
+      <c r="M134" s="2" t="n">
+        <v>2322</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
@@ -5569,6 +5758,27 @@
       <c r="F135" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G135" s="2" t="n">
+        <v>0.096633</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>0.99392</v>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>817</v>
+      </c>
+      <c r="J135" s="2" t="n">
+        <v>465</v>
+      </c>
+      <c r="K135" s="2" t="n">
+        <v>4347</v>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M135" s="2" t="n">
+        <v>538540</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
@@ -5589,6 +5799,27 @@
       <c r="F136" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G136" s="2" t="n">
+        <v>0.99826</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>0.58898</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>887</v>
+      </c>
+      <c r="J136" s="2" t="n">
+        <v>541360</v>
+      </c>
+      <c r="K136" s="2" t="n">
+        <v>944</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>619</v>
+      </c>
+      <c r="M136" s="2" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
@@ -5609,6 +5840,27 @@
       <c r="F137" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G137" s="2" t="n">
+        <v>0.58117</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>0.86809</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>612</v>
+      </c>
+      <c r="J137" s="2" t="n">
+        <v>5044</v>
+      </c>
+      <c r="K137" s="2" t="n">
+        <v>3635</v>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="M137" s="2" t="n">
+        <v>534790</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
@@ -5629,6 +5881,27 @@
       <c r="F138" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G138" s="2" t="n">
+        <v>0.90433</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>0.01426</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="J138" s="2" t="n">
+        <v>79641</v>
+      </c>
+      <c r="K138" s="2" t="n">
+        <v>8425</v>
+      </c>
+      <c r="L138" s="2" t="n">
+        <v>1106</v>
+      </c>
+      <c r="M138" s="2" t="n">
+        <v>454980</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
@@ -5649,6 +5922,27 @@
       <c r="F139" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G139" s="2" t="n">
+        <v>0.96709</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>0.72174</v>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>1079</v>
+      </c>
+      <c r="J139" s="2" t="n">
+        <v>523150</v>
+      </c>
+      <c r="K139" s="2" t="n">
+        <v>17802</v>
+      </c>
+      <c r="L139" s="2" t="n">
+        <v>416</v>
+      </c>
+      <c r="M139" s="2" t="n">
+        <v>1728</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
@@ -5669,6 +5963,27 @@
       <c r="F140" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G140" s="2" t="n">
+        <v>0.75764</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>0.84252</v>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>1284</v>
+      </c>
+      <c r="J140" s="2" t="n">
+        <v>401910</v>
+      </c>
+      <c r="K140" s="2" t="n">
+        <v>128570</v>
+      </c>
+      <c r="L140" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="M140" s="2" t="n">
+        <v>12168</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
@@ -5689,6 +6004,27 @@
       <c r="F141" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G141" s="2" t="n">
+        <v>0.95676</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>0.74251</v>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>1165</v>
+      </c>
+      <c r="J141" s="2" t="n">
+        <v>519130</v>
+      </c>
+      <c r="K141" s="2" t="n">
+        <v>23464</v>
+      </c>
+      <c r="L141" s="2" t="n">
+        <v>404</v>
+      </c>
+      <c r="M141" s="2" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
@@ -5709,6 +6045,27 @@
       <c r="F142" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G142" s="2" t="n">
+        <v>0.94557</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>0.91423</v>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>1002</v>
+      </c>
+      <c r="J142" s="2" t="n">
+        <v>193850</v>
+      </c>
+      <c r="K142" s="2" t="n">
+        <v>11159</v>
+      </c>
+      <c r="L142" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="M142" s="2" t="n">
+        <v>338070</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
@@ -5729,6 +6086,27 @@
       <c r="F143" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G143" s="2" t="n">
+        <v>0.9645</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>0.7889</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>1237</v>
+      </c>
+      <c r="J143" s="2" t="n">
+        <v>523200</v>
+      </c>
+      <c r="K143" s="2" t="n">
+        <v>19255</v>
+      </c>
+      <c r="L143" s="2" t="n">
+        <v>331</v>
+      </c>
+      <c r="M143" s="2" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
@@ -5749,6 +6127,27 @@
       <c r="F144" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G144" s="2" t="n">
+        <v>0.92661</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>0.80812</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>1234</v>
+      </c>
+      <c r="J144" s="2" t="n">
+        <v>492260</v>
+      </c>
+      <c r="K144" s="2" t="n">
+        <v>38987</v>
+      </c>
+      <c r="L144" s="2" t="n">
+        <v>293</v>
+      </c>
+      <c r="M144" s="2" t="n">
+        <v>11392</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
@@ -5769,6 +6168,27 @@
       <c r="F145" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G145" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>1568</v>
+      </c>
+      <c r="J145" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" s="2" t="n">
+        <v>542590</v>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" s="2" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
@@ -5789,6 +6209,27 @@
       <c r="F146" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G146" s="2" t="n">
+        <v>0.99997</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>0.00081433</v>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" s="2" t="n">
+        <v>541280</v>
+      </c>
+      <c r="K146" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="L146" s="2" t="n">
+        <v>1227</v>
+      </c>
+      <c r="M146" s="2" t="n">
+        <v>1651</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
@@ -5809,6 +6250,27 @@
       <c r="F147" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>1568</v>
+      </c>
+      <c r="J147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>542590</v>
+      </c>
+      <c r="L147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" s="2" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
@@ -5829,6 +6291,27 @@
       <c r="F148" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G148" s="2" t="n">
+        <v>0.9998</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>0.010918</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="J148" s="2" t="n">
+        <v>542480</v>
+      </c>
+      <c r="K148" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="L148" s="2" t="n">
+        <v>1540</v>
+      </c>
+      <c r="M148" s="2" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
@@ -5849,6 +6332,27 @@
       <c r="F149" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G149" s="2" t="n">
+        <v>0.16667</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L149" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" s="2" t="n">
+        <v>544160</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
@@ -5869,6 +6373,27 @@
       <c r="F150" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G150" s="2" t="n">
+        <v>0.86491</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>0.44173</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>614</v>
+      </c>
+      <c r="J150" s="2" t="n">
+        <v>410500</v>
+      </c>
+      <c r="K150" s="2" t="n">
+        <v>64116</v>
+      </c>
+      <c r="L150" s="2" t="n">
+        <v>776</v>
+      </c>
+      <c r="M150" s="2" t="n">
+        <v>68166</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
@@ -5889,6 +6414,27 @@
       <c r="F151" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G151" s="2" t="n">
+        <v>0.42529</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>0.91443</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>1432</v>
+      </c>
+      <c r="J151" s="2" t="n">
+        <v>229110</v>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>309610</v>
+      </c>
+      <c r="L151" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="M151" s="2" t="n">
+        <v>3880</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
@@ -5909,6 +6455,27 @@
       <c r="F152" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G152" s="2" t="n">
+        <v>0.95364</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>0.68825</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>1031</v>
+      </c>
+      <c r="J152" s="2" t="n">
+        <v>512700</v>
+      </c>
+      <c r="K152" s="2" t="n">
+        <v>24922</v>
+      </c>
+      <c r="L152" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="M152" s="2" t="n">
+        <v>5048</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
@@ -5929,6 +6496,27 @@
       <c r="F153" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G153" s="2" t="n">
+        <v>1.8431E-006</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>1568</v>
+      </c>
+      <c r="J153" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" s="2" t="n">
+        <v>542570</v>
+      </c>
+      <c r="L153" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" s="2" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
@@ -5949,6 +6537,27 @@
       <c r="F154" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G154" s="2" t="n">
+        <v>0.7263</v>
+      </c>
+      <c r="H154" s="2" t="n">
+        <v>0.27505</v>
+      </c>
+      <c r="I154" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="J154" s="2" t="n">
+        <v>354870</v>
+      </c>
+      <c r="K154" s="2" t="n">
+        <v>133730</v>
+      </c>
+      <c r="L154" s="2" t="n">
+        <v>1078</v>
+      </c>
+      <c r="M154" s="2" t="n">
+        <v>54085</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
@@ -5969,6 +6578,27 @@
       <c r="F155" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G155" s="2" t="n">
+        <v>0.96442</v>
+      </c>
+      <c r="H155" s="2" t="n">
+        <v>0.7655</v>
+      </c>
+      <c r="I155" s="2" t="n">
+        <v>1198</v>
+      </c>
+      <c r="J155" s="2" t="n">
+        <v>522380</v>
+      </c>
+      <c r="K155" s="2" t="n">
+        <v>19273</v>
+      </c>
+      <c r="L155" s="2" t="n">
+        <v>367</v>
+      </c>
+      <c r="M155" s="2" t="n">
+        <v>955</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
@@ -5988,6 +6618,27 @@
       </c>
       <c r="F156" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>0.93508</v>
+      </c>
+      <c r="H156" s="2" t="n">
+        <v>0.79196</v>
+      </c>
+      <c r="I156" s="2" t="n">
+        <v>1241</v>
+      </c>
+      <c r="J156" s="2" t="n">
+        <v>507000</v>
+      </c>
+      <c r="K156" s="2" t="n">
+        <v>35201</v>
+      </c>
+      <c r="L156" s="2" t="n">
+        <v>326</v>
+      </c>
+      <c r="M156" s="2" t="n">
+        <v>401</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6628,8 +7279,8 @@
   </sheetPr>
   <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A126" activeCellId="0" sqref="A126:F187"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A126" activeCellId="1" sqref="G126:M156 A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="32">
   <si>
     <t>Rede</t>
   </si>
@@ -223,8 +223,8 @@
   </sheetPr>
   <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G126" activeCellId="0" sqref="G126:M156"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G157" activeCellId="0" sqref="G157:M187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6660,6 +6660,27 @@
       <c r="F157" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G157" s="2" t="n">
+        <v>0.90908</v>
+      </c>
+      <c r="H157" s="2" t="n">
+        <v>0.68407</v>
+      </c>
+      <c r="I157" s="2" t="n">
+        <v>747</v>
+      </c>
+      <c r="J157" s="2" t="n">
+        <v>103280</v>
+      </c>
+      <c r="K157" s="2" t="n">
+        <v>10330</v>
+      </c>
+      <c r="L157" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="M157" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
@@ -6680,6 +6701,27 @@
       <c r="F158" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G158" s="2" t="n">
+        <v>0.17118</v>
+      </c>
+      <c r="H158" s="2" t="n">
+        <v>0.78733</v>
+      </c>
+      <c r="I158" s="2" t="n">
+        <v>733</v>
+      </c>
+      <c r="J158" s="2" t="n">
+        <v>18273</v>
+      </c>
+      <c r="K158" s="2" t="n">
+        <v>88474</v>
+      </c>
+      <c r="L158" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="M158" s="2" t="n">
+        <v>7026</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
@@ -6700,6 +6742,27 @@
       <c r="F159" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G159" s="2" t="n">
+        <v>0.094781</v>
+      </c>
+      <c r="H159" s="2" t="n">
+        <v>0.90221</v>
+      </c>
+      <c r="I159" s="2" t="n">
+        <v>941</v>
+      </c>
+      <c r="J159" s="2" t="n">
+        <v>10438</v>
+      </c>
+      <c r="K159" s="2" t="n">
+        <v>99689</v>
+      </c>
+      <c r="L159" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="M159" s="2" t="n">
+        <v>3534</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
@@ -6720,6 +6783,27 @@
       <c r="F160" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G160" s="2" t="n">
+        <v>0.12901</v>
+      </c>
+      <c r="H160" s="2" t="n">
+        <v>0.80971</v>
+      </c>
+      <c r="I160" s="2" t="n">
+        <v>851</v>
+      </c>
+      <c r="J160" s="2" t="n">
+        <v>14477</v>
+      </c>
+      <c r="K160" s="2" t="n">
+        <v>97739</v>
+      </c>
+      <c r="L160" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="M160" s="2" t="n">
+        <v>1437</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
@@ -6740,6 +6824,27 @@
       <c r="F161" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G161" s="2" t="n">
+        <v>0.95848</v>
+      </c>
+      <c r="H161" s="2" t="n">
+        <v>0.44645</v>
+      </c>
+      <c r="I161" s="2" t="n">
+        <v>371</v>
+      </c>
+      <c r="J161" s="2" t="n">
+        <v>61825</v>
+      </c>
+      <c r="K161" s="2" t="n">
+        <v>2678</v>
+      </c>
+      <c r="L161" s="2" t="n">
+        <v>460</v>
+      </c>
+      <c r="M161" s="2" t="n">
+        <v>49370</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
@@ -6760,6 +6865,27 @@
       <c r="F162" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G162" s="2" t="n">
+        <v>0.83257</v>
+      </c>
+      <c r="H162" s="2" t="n">
+        <v>0.68541</v>
+      </c>
+      <c r="I162" s="2" t="n">
+        <v>719</v>
+      </c>
+      <c r="J162" s="2" t="n">
+        <v>84592</v>
+      </c>
+      <c r="K162" s="2" t="n">
+        <v>17011</v>
+      </c>
+      <c r="L162" s="2" t="n">
+        <v>330</v>
+      </c>
+      <c r="M162" s="2" t="n">
+        <v>12052</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
@@ -6780,6 +6906,27 @@
       <c r="F163" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G163" s="2" t="n">
+        <v>0.12469</v>
+      </c>
+      <c r="H163" s="2" t="n">
+        <v>0.79412</v>
+      </c>
+      <c r="I163" s="2" t="n">
+        <v>810</v>
+      </c>
+      <c r="J163" s="2" t="n">
+        <v>13924</v>
+      </c>
+      <c r="K163" s="2" t="n">
+        <v>97745</v>
+      </c>
+      <c r="L163" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="M163" s="2" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
@@ -6800,6 +6947,27 @@
       <c r="F164" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G164" s="2" t="n">
+        <v>0.9353</v>
+      </c>
+      <c r="H164" s="2" t="n">
+        <v>0.1902</v>
+      </c>
+      <c r="I164" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="J164" s="2" t="n">
+        <v>104660</v>
+      </c>
+      <c r="K164" s="2" t="n">
+        <v>7240</v>
+      </c>
+      <c r="L164" s="2" t="n">
+        <v>826</v>
+      </c>
+      <c r="M164" s="2" t="n">
+        <v>1782</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
@@ -6820,6 +6988,27 @@
       <c r="F165" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G165" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" s="2" t="n">
+        <v>112000</v>
+      </c>
+      <c r="K165" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" s="2" t="n">
+        <v>1047</v>
+      </c>
+      <c r="M165" s="2" t="n">
+        <v>1659</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
@@ -6840,6 +7029,27 @@
       <c r="F166" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G166" s="2" t="n">
+        <v>0.87379</v>
+      </c>
+      <c r="H166" s="2" t="n">
+        <v>0.11864</v>
+      </c>
+      <c r="I166" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J166" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="K166" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="L166" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="M166" s="2" t="n">
+        <v>114540</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
@@ -6860,6 +7070,27 @@
       <c r="F167" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G167" s="2" t="n">
+        <v>0.99036</v>
+      </c>
+      <c r="H167" s="2" t="n">
+        <v>0.3283</v>
+      </c>
+      <c r="I167" s="2" t="n">
+        <v>348</v>
+      </c>
+      <c r="J167" s="2" t="n">
+        <v>110600</v>
+      </c>
+      <c r="K167" s="2" t="n">
+        <v>1077</v>
+      </c>
+      <c r="L167" s="2" t="n">
+        <v>712</v>
+      </c>
+      <c r="M167" s="2" t="n">
+        <v>1971</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
@@ -6880,6 +7111,27 @@
       <c r="F168" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G168" s="2" t="n">
+        <v>0.27578</v>
+      </c>
+      <c r="H168" s="2" t="n">
+        <v>0.62245</v>
+      </c>
+      <c r="I168" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="J168" s="2" t="n">
+        <v>1230</v>
+      </c>
+      <c r="K168" s="2" t="n">
+        <v>3230</v>
+      </c>
+      <c r="L168" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="M168" s="2" t="n">
+        <v>110050</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
@@ -6900,6 +7152,27 @@
       <c r="F169" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G169" s="2" t="n">
+        <v>0.43457</v>
+      </c>
+      <c r="H169" s="2" t="n">
+        <v>0.51316</v>
+      </c>
+      <c r="I169" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="J169" s="2" t="n">
+        <v>870</v>
+      </c>
+      <c r="K169" s="2" t="n">
+        <v>1132</v>
+      </c>
+      <c r="L169" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="M169" s="2" t="n">
+        <v>112630</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
@@ -6920,6 +7193,27 @@
       <c r="F170" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G170" s="2" t="n">
+        <v>0.39432</v>
+      </c>
+      <c r="H170" s="2" t="n">
+        <v>0.79468</v>
+      </c>
+      <c r="I170" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="J170" s="2" t="n">
+        <v>42894</v>
+      </c>
+      <c r="K170" s="2" t="n">
+        <v>65886</v>
+      </c>
+      <c r="L170" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="M170" s="2" t="n">
+        <v>4872</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
@@ -6940,6 +7234,27 @@
       <c r="F171" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G171" s="2" t="n">
+        <v>0.39054</v>
+      </c>
+      <c r="H171" s="2" t="n">
+        <v>0.71003</v>
+      </c>
+      <c r="I171" s="2" t="n">
+        <v>524</v>
+      </c>
+      <c r="J171" s="2" t="n">
+        <v>12304</v>
+      </c>
+      <c r="K171" s="2" t="n">
+        <v>19201</v>
+      </c>
+      <c r="L171" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="M171" s="2" t="n">
+        <v>82461</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
@@ -6960,6 +7275,27 @@
       <c r="F172" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G172" s="2" t="n">
+        <v>0.91155</v>
+      </c>
+      <c r="H172" s="2" t="n">
+        <v>0.32202</v>
+      </c>
+      <c r="I172" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="J172" s="2" t="n">
+        <v>103520</v>
+      </c>
+      <c r="K172" s="2" t="n">
+        <v>10044</v>
+      </c>
+      <c r="L172" s="2" t="n">
+        <v>739</v>
+      </c>
+      <c r="M172" s="2" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
@@ -6980,6 +7316,27 @@
       <c r="F173" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G173" s="2" t="n">
+        <v>0.96949</v>
+      </c>
+      <c r="H173" s="2" t="n">
+        <v>0.71429</v>
+      </c>
+      <c r="I173" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J173" s="2" t="n">
+        <v>4926</v>
+      </c>
+      <c r="K173" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="L173" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="M173" s="2" t="n">
+        <v>109480</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
@@ -7000,6 +7357,27 @@
       <c r="F174" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G174" s="2" t="n">
+        <v>0.32022</v>
+      </c>
+      <c r="H174" s="2" t="n">
+        <v>0.81985</v>
+      </c>
+      <c r="I174" s="2" t="n">
+        <v>892</v>
+      </c>
+      <c r="J174" s="2" t="n">
+        <v>36322</v>
+      </c>
+      <c r="K174" s="2" t="n">
+        <v>77107</v>
+      </c>
+      <c r="L174" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="M174" s="2" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
@@ -7020,6 +7398,27 @@
       <c r="F175" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G175" s="2" t="n">
+        <v>0.92473</v>
+      </c>
+      <c r="H175" s="2" t="n">
+        <v>0.65161</v>
+      </c>
+      <c r="I175" s="2" t="n">
+        <v>707</v>
+      </c>
+      <c r="J175" s="2" t="n">
+        <v>104650</v>
+      </c>
+      <c r="K175" s="2" t="n">
+        <v>8519</v>
+      </c>
+      <c r="L175" s="2" t="n">
+        <v>378</v>
+      </c>
+      <c r="M175" s="2" t="n">
+        <v>447</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
@@ -7040,6 +7439,27 @@
       <c r="F176" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G176" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" s="2" t="n">
+        <v>1091</v>
+      </c>
+      <c r="J176" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" s="2" t="n">
+        <v>113090</v>
+      </c>
+      <c r="L176" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" s="2" t="n">
+        <v>526</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
@@ -7060,6 +7480,27 @@
       <c r="F177" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G177" s="2" t="n">
+        <v>0.99908</v>
+      </c>
+      <c r="H177" s="2" t="n">
+        <v>0.00091996</v>
+      </c>
+      <c r="I177" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" s="2" t="n">
+        <v>112470</v>
+      </c>
+      <c r="K177" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="L177" s="2" t="n">
+        <v>1086</v>
+      </c>
+      <c r="M177" s="2" t="n">
+        <v>1040</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
@@ -7080,6 +7521,27 @@
       <c r="F178" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G178" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" s="2" t="n">
+        <v>1091</v>
+      </c>
+      <c r="J178" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" s="2" t="n">
+        <v>113340</v>
+      </c>
+      <c r="L178" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" s="2" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
@@ -7100,6 +7562,27 @@
       <c r="F179" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G179" s="2" t="n">
+        <v>0.99987</v>
+      </c>
+      <c r="H179" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="n">
+        <v>112700</v>
+      </c>
+      <c r="K179" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L179" s="2" t="n">
+        <v>1087</v>
+      </c>
+      <c r="M179" s="2" t="n">
+        <v>907</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
@@ -7120,6 +7603,27 @@
       <c r="F180" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G180" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I180" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="L180" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" s="2" t="n">
+        <v>114650</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
@@ -7140,6 +7644,27 @@
       <c r="F181" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G181" s="2" t="n">
+        <v>0.97746</v>
+      </c>
+      <c r="H181" s="2" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="I181" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="J181" s="2" t="n">
+        <v>43807</v>
+      </c>
+      <c r="K181" s="2" t="n">
+        <v>1010</v>
+      </c>
+      <c r="L181" s="2" t="n">
+        <v>432</v>
+      </c>
+      <c r="M181" s="2" t="n">
+        <v>69146</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
@@ -7160,6 +7685,27 @@
       <c r="F182" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G182" s="2" t="n">
+        <v>0.88178</v>
+      </c>
+      <c r="H182" s="2" t="n">
+        <v>0.56792</v>
+      </c>
+      <c r="I182" s="2" t="n">
+        <v>602</v>
+      </c>
+      <c r="J182" s="2" t="n">
+        <v>99930</v>
+      </c>
+      <c r="K182" s="2" t="n">
+        <v>13398</v>
+      </c>
+      <c r="L182" s="2" t="n">
+        <v>458</v>
+      </c>
+      <c r="M182" s="2" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
@@ -7180,6 +7726,27 @@
       <c r="F183" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G183" s="2" t="n">
+        <v>0.93928</v>
+      </c>
+      <c r="H183" s="2" t="n">
+        <v>0.59961</v>
+      </c>
+      <c r="I183" s="2" t="n">
+        <v>614</v>
+      </c>
+      <c r="J183" s="2" t="n">
+        <v>105170</v>
+      </c>
+      <c r="K183" s="2" t="n">
+        <v>6799</v>
+      </c>
+      <c r="L183" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="M183" s="2" t="n">
+        <v>1708</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
@@ -7200,6 +7767,27 @@
       <c r="F184" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G184" s="2" t="n">
+        <v>0.0003363</v>
+      </c>
+      <c r="H184" s="2" t="n">
+        <v>0.99908</v>
+      </c>
+      <c r="I184" s="2" t="n">
+        <v>1090</v>
+      </c>
+      <c r="J184" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="K184" s="2" t="n">
+        <v>112960</v>
+      </c>
+      <c r="L184" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" s="2" t="n">
+        <v>618</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
@@ -7220,6 +7808,27 @@
       <c r="F185" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G185" s="2" t="n">
+        <v>0.14145</v>
+      </c>
+      <c r="H185" s="2" t="n">
+        <v>0.68816</v>
+      </c>
+      <c r="I185" s="2" t="n">
+        <v>715</v>
+      </c>
+      <c r="J185" s="2" t="n">
+        <v>15871</v>
+      </c>
+      <c r="K185" s="2" t="n">
+        <v>96330</v>
+      </c>
+      <c r="L185" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="M185" s="2" t="n">
+        <v>1464</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
@@ -7240,6 +7849,27 @@
       <c r="F186" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G186" s="2" t="n">
+        <v>0.95605</v>
+      </c>
+      <c r="H186" s="2" t="n">
+        <v>0.63477</v>
+      </c>
+      <c r="I186" s="2" t="n">
+        <v>690</v>
+      </c>
+      <c r="J186" s="2" t="n">
+        <v>108380</v>
+      </c>
+      <c r="K186" s="2" t="n">
+        <v>4982</v>
+      </c>
+      <c r="L186" s="2" t="n">
+        <v>397</v>
+      </c>
+      <c r="M186" s="2" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
@@ -7259,6 +7889,27 @@
       </c>
       <c r="F187" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="G187" s="2" t="n">
+        <v>0.94371</v>
+      </c>
+      <c r="H187" s="2" t="n">
+        <v>0.66269</v>
+      </c>
+      <c r="I187" s="2" t="n">
+        <v>723</v>
+      </c>
+      <c r="J187" s="2" t="n">
+        <v>106990</v>
+      </c>
+      <c r="K187" s="2" t="n">
+        <v>6382</v>
+      </c>
+      <c r="L187" s="2" t="n">
+        <v>368</v>
+      </c>
+      <c r="M187" s="2" t="n">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -7280,7 +7931,7 @@
   <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A126" activeCellId="1" sqref="G126:M156 A126"/>
+      <selection pane="topLeft" activeCell="A126" activeCellId="1" sqref="G157:M187 A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Single Classification" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="32">
   <si>
     <t>Rede</t>
   </si>
@@ -223,8 +223,8 @@
   </sheetPr>
   <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G157" activeCellId="0" sqref="G157:M187"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G157" activeCellId="0" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7930,8 +7930,8 @@
   </sheetPr>
   <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A126" activeCellId="1" sqref="G157:M187 A126"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G126" activeCellId="0" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13095,6 +13095,27 @@
       <c r="F126" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G126" s="2" t="n">
+        <v>0.84295</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>0.88452</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>1394</v>
+      </c>
+      <c r="J126" s="2" t="n">
+        <v>457370</v>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>85213</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
@@ -13115,6 +13136,27 @@
       <c r="F127" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G127" s="2" t="n">
+        <v>0.99997</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>0.53533</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>841</v>
+      </c>
+      <c r="J127" s="2" t="n">
+        <v>542330</v>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>730</v>
+      </c>
+      <c r="M127" s="2" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
@@ -13135,6 +13177,27 @@
       <c r="F128" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G128" s="2" t="n">
+        <v>0.86618</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>0.42286</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>666</v>
+      </c>
+      <c r="J128" s="2" t="n">
+        <v>469880</v>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>72594</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>909</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
@@ -13155,6 +13218,27 @@
       <c r="F129" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G129" s="2" t="n">
+        <v>0.61596</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>0.32441</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>509</v>
+      </c>
+      <c r="J129" s="2" t="n">
+        <v>334210</v>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>208370</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>1060</v>
+      </c>
+      <c r="M129" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
@@ -13175,6 +13259,27 @@
       <c r="F130" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G130" s="2" t="n">
+        <v>0.99992</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>0.4701</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>739</v>
+      </c>
+      <c r="J130" s="2" t="n">
+        <v>542420</v>
+      </c>
+      <c r="K130" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>833</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
@@ -13195,6 +13300,27 @@
       <c r="F131" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G131" s="2" t="n">
+        <v>0.59993</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>0.89975</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>1418</v>
+      </c>
+      <c r="J131" s="2" t="n">
+        <v>325520</v>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>217070</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
@@ -13215,6 +13341,27 @@
       <c r="F132" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G132" s="2" t="n">
+        <v>0.85254</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>0.50127</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>790</v>
+      </c>
+      <c r="J132" s="2" t="n">
+        <v>462580</v>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>80007</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>786</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
@@ -13235,6 +13382,27 @@
       <c r="F133" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G133" s="2" t="n">
+        <v>0.98834</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>0.23921</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>377</v>
+      </c>
+      <c r="J133" s="2" t="n">
+        <v>536260</v>
+      </c>
+      <c r="K133" s="2" t="n">
+        <v>6329</v>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>1199</v>
+      </c>
+      <c r="M133" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
@@ -13255,6 +13423,27 @@
       <c r="F134" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G134" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="n">
+        <v>542580</v>
+      </c>
+      <c r="K134" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>1576</v>
+      </c>
+      <c r="M134" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
@@ -13275,6 +13464,27 @@
       <c r="F135" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G135" s="2" t="n">
+        <v>0.97474</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>0.73741</v>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>893</v>
+      </c>
+      <c r="J135" s="2" t="n">
+        <v>31030</v>
+      </c>
+      <c r="K135" s="2" t="n">
+        <v>804</v>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>318</v>
+      </c>
+      <c r="M135" s="2" t="n">
+        <v>511120</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
@@ -13295,6 +13505,27 @@
       <c r="F136" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G136" s="2" t="n">
+        <v>0.99999</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>0.60025</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>946</v>
+      </c>
+      <c r="J136" s="2" t="n">
+        <v>542580</v>
+      </c>
+      <c r="K136" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>630</v>
+      </c>
+      <c r="M136" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
@@ -13315,6 +13546,27 @@
       <c r="F137" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G137" s="2" t="n">
+        <v>0.99095</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>0.52657</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>664</v>
+      </c>
+      <c r="J137" s="2" t="n">
+        <v>58243</v>
+      </c>
+      <c r="K137" s="2" t="n">
+        <v>532</v>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>597</v>
+      </c>
+      <c r="M137" s="2" t="n">
+        <v>484120</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
@@ -13335,6 +13587,27 @@
       <c r="F138" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G138" s="2" t="n">
+        <v>0.99925</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="n">
+        <v>349830</v>
+      </c>
+      <c r="K138" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="L138" s="2" t="n">
+        <v>1514</v>
+      </c>
+      <c r="M138" s="2" t="n">
+        <v>192550</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
@@ -13355,6 +13628,27 @@
       <c r="F139" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G139" s="2" t="n">
+        <v>0.98887</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>0.75952</v>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>1197</v>
+      </c>
+      <c r="J139" s="2" t="n">
+        <v>536540</v>
+      </c>
+      <c r="K139" s="2" t="n">
+        <v>6040</v>
+      </c>
+      <c r="L139" s="2" t="n">
+        <v>379</v>
+      </c>
+      <c r="M139" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
@@ -13375,6 +13669,27 @@
       <c r="F140" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G140" s="2" t="n">
+        <v>0.79602</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>0.86294</v>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>1360</v>
+      </c>
+      <c r="J140" s="2" t="n">
+        <v>431910</v>
+      </c>
+      <c r="K140" s="2" t="n">
+        <v>110680</v>
+      </c>
+      <c r="L140" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="M140" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
@@ -13395,6 +13710,27 @@
       <c r="F141" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G141" s="2" t="n">
+        <v>0.97752</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>0.76523</v>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>1206</v>
+      </c>
+      <c r="J141" s="2" t="n">
+        <v>530390</v>
+      </c>
+      <c r="K141" s="2" t="n">
+        <v>12195</v>
+      </c>
+      <c r="L141" s="2" t="n">
+        <v>370</v>
+      </c>
+      <c r="M141" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
@@ -13415,6 +13751,27 @@
       <c r="F142" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G142" s="2" t="n">
+        <v>0.99114</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>0.69444</v>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>1075</v>
+      </c>
+      <c r="J142" s="2" t="n">
+        <v>504200</v>
+      </c>
+      <c r="K142" s="2" t="n">
+        <v>4506</v>
+      </c>
+      <c r="L142" s="2" t="n">
+        <v>473</v>
+      </c>
+      <c r="M142" s="2" t="n">
+        <v>33909</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
@@ -13435,6 +13792,27 @@
       <c r="F143" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G143" s="2" t="n">
+        <v>0.9844</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>0.80964</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>1276</v>
+      </c>
+      <c r="J143" s="2" t="n">
+        <v>534120</v>
+      </c>
+      <c r="K143" s="2" t="n">
+        <v>8462</v>
+      </c>
+      <c r="L143" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="M143" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
@@ -13455,6 +13833,27 @@
       <c r="F144" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G144" s="2" t="n">
+        <v>0.96466</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>0.83185</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>1311</v>
+      </c>
+      <c r="J144" s="2" t="n">
+        <v>523410</v>
+      </c>
+      <c r="K144" s="2" t="n">
+        <v>19174</v>
+      </c>
+      <c r="L144" s="2" t="n">
+        <v>265</v>
+      </c>
+      <c r="M144" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
@@ -13475,6 +13874,27 @@
       <c r="F145" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G145" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>1576</v>
+      </c>
+      <c r="J145" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" s="2" t="n">
+        <v>542580</v>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
@@ -13495,6 +13915,27 @@
       <c r="F146" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G146" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="n">
+        <v>542580</v>
+      </c>
+      <c r="K146" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="n">
+        <v>1569</v>
+      </c>
+      <c r="M146" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
@@ -13515,6 +13956,27 @@
       <c r="F147" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>1576</v>
+      </c>
+      <c r="J147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>542580</v>
+      </c>
+      <c r="L147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
@@ -13535,6 +13997,27 @@
       <c r="F148" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G148" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" s="2" t="n">
+        <v>542580</v>
+      </c>
+      <c r="K148" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" s="2" t="n">
+        <v>1576</v>
+      </c>
+      <c r="M148" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
@@ -13555,6 +14038,27 @@
       <c r="F149" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G149" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="K149" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" s="2" t="n">
+        <v>544100</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
@@ -13575,6 +14079,27 @@
       <c r="F150" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G150" s="2" t="n">
+        <v>0.97186</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>0.42576</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>671</v>
+      </c>
+      <c r="J150" s="2" t="n">
+        <v>527320</v>
+      </c>
+      <c r="K150" s="2" t="n">
+        <v>15266</v>
+      </c>
+      <c r="L150" s="2" t="n">
+        <v>905</v>
+      </c>
+      <c r="M150" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
@@ -13595,6 +14120,27 @@
       <c r="F151" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G151" s="2" t="n">
+        <v>0.37159</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>0.93845</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>1479</v>
+      </c>
+      <c r="J151" s="2" t="n">
+        <v>201620</v>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>340960</v>
+      </c>
+      <c r="L151" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="M151" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
@@ -13615,6 +14161,27 @@
       <c r="F152" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G152" s="2" t="n">
+        <v>0.98044</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>0.65673</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>1035</v>
+      </c>
+      <c r="J152" s="2" t="n">
+        <v>531970</v>
+      </c>
+      <c r="K152" s="2" t="n">
+        <v>10613</v>
+      </c>
+      <c r="L152" s="2" t="n">
+        <v>541</v>
+      </c>
+      <c r="M152" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
@@ -13635,6 +14202,27 @@
       <c r="F153" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G153" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>1576</v>
+      </c>
+      <c r="J153" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" s="2" t="n">
+        <v>542580</v>
+      </c>
+      <c r="L153" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
@@ -13655,6 +14243,27 @@
       <c r="F154" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G154" s="2" t="n">
+        <v>0.81814</v>
+      </c>
+      <c r="H154" s="2" t="n">
+        <v>0.23096</v>
+      </c>
+      <c r="I154" s="2" t="n">
+        <v>364</v>
+      </c>
+      <c r="J154" s="2" t="n">
+        <v>443910</v>
+      </c>
+      <c r="K154" s="2" t="n">
+        <v>98674</v>
+      </c>
+      <c r="L154" s="2" t="n">
+        <v>1212</v>
+      </c>
+      <c r="M154" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
@@ -13675,6 +14284,27 @@
       <c r="F155" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G155" s="2" t="n">
+        <v>0.98381</v>
+      </c>
+      <c r="H155" s="2" t="n">
+        <v>0.78617</v>
+      </c>
+      <c r="I155" s="2" t="n">
+        <v>1239</v>
+      </c>
+      <c r="J155" s="2" t="n">
+        <v>533800</v>
+      </c>
+      <c r="K155" s="2" t="n">
+        <v>8783</v>
+      </c>
+      <c r="L155" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="M155" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
@@ -13694,6 +14324,27 @@
       </c>
       <c r="F156" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>0.95888</v>
+      </c>
+      <c r="H156" s="2" t="n">
+        <v>0.81599</v>
+      </c>
+      <c r="I156" s="2" t="n">
+        <v>1286</v>
+      </c>
+      <c r="J156" s="2" t="n">
+        <v>520270</v>
+      </c>
+      <c r="K156" s="2" t="n">
+        <v>22312</v>
+      </c>
+      <c r="L156" s="2" t="n">
+        <v>290</v>
+      </c>
+      <c r="M156" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="32">
   <si>
     <t>Rede</t>
   </si>
@@ -7930,8 +7930,8 @@
   </sheetPr>
   <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G126" activeCellId="0" sqref="G126"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I149" activeCellId="0" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14366,6 +14366,27 @@
       <c r="F157" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G157" s="2" t="n">
+        <v>0.95983</v>
+      </c>
+      <c r="H157" s="2" t="n">
+        <v>0.69462</v>
+      </c>
+      <c r="I157" s="2" t="n">
+        <v>762</v>
+      </c>
+      <c r="J157" s="2" t="n">
+        <v>109030</v>
+      </c>
+      <c r="K157" s="2" t="n">
+        <v>4563</v>
+      </c>
+      <c r="L157" s="2" t="n">
+        <v>335</v>
+      </c>
+      <c r="M157" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
@@ -14386,6 +14407,27 @@
       <c r="F158" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G158" s="2" t="n">
+        <v>0.15639</v>
+      </c>
+      <c r="H158" s="2" t="n">
+        <v>0.79247</v>
+      </c>
+      <c r="I158" s="2" t="n">
+        <v>863</v>
+      </c>
+      <c r="J158" s="2" t="n">
+        <v>17711</v>
+      </c>
+      <c r="K158" s="2" t="n">
+        <v>95536</v>
+      </c>
+      <c r="L158" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="M158" s="2" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
@@ -14406,6 +14448,27 @@
       <c r="F159" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G159" s="2" t="n">
+        <v>0.036407</v>
+      </c>
+      <c r="H159" s="2" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="I159" s="2" t="n">
+        <v>985</v>
+      </c>
+      <c r="J159" s="2" t="n">
+        <v>4123</v>
+      </c>
+      <c r="K159" s="2" t="n">
+        <v>109120</v>
+      </c>
+      <c r="L159" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="M159" s="2" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
@@ -14426,6 +14489,27 @@
       <c r="F160" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G160" s="2" t="n">
+        <v>0.085645</v>
+      </c>
+      <c r="H160" s="2" t="n">
+        <v>0.85141</v>
+      </c>
+      <c r="I160" s="2" t="n">
+        <v>934</v>
+      </c>
+      <c r="J160" s="2" t="n">
+        <v>9729</v>
+      </c>
+      <c r="K160" s="2" t="n">
+        <v>103870</v>
+      </c>
+      <c r="L160" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="M160" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
@@ -14446,6 +14530,27 @@
       <c r="F161" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G161" s="2" t="n">
+        <v>0.99912</v>
+      </c>
+      <c r="H161" s="2" t="n">
+        <v>0.38356</v>
+      </c>
+      <c r="I161" s="2" t="n">
+        <v>420</v>
+      </c>
+      <c r="J161" s="2" t="n">
+        <v>107060</v>
+      </c>
+      <c r="K161" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="L161" s="2" t="n">
+        <v>675</v>
+      </c>
+      <c r="M161" s="2" t="n">
+        <v>6447</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
@@ -14466,6 +14571,27 @@
       <c r="F162" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G162" s="2" t="n">
+        <v>0.92346</v>
+      </c>
+      <c r="H162" s="2" t="n">
+        <v>0.68277</v>
+      </c>
+      <c r="I162" s="2" t="n">
+        <v>749</v>
+      </c>
+      <c r="J162" s="2" t="n">
+        <v>104900</v>
+      </c>
+      <c r="K162" s="2" t="n">
+        <v>8694</v>
+      </c>
+      <c r="L162" s="2" t="n">
+        <v>348</v>
+      </c>
+      <c r="M162" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
@@ -14486,6 +14612,27 @@
       <c r="F163" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G163" s="2" t="n">
+        <v>0.079905</v>
+      </c>
+      <c r="H163" s="2" t="n">
+        <v>0.84686</v>
+      </c>
+      <c r="I163" s="2" t="n">
+        <v>929</v>
+      </c>
+      <c r="J163" s="2" t="n">
+        <v>9049</v>
+      </c>
+      <c r="K163" s="2" t="n">
+        <v>104200</v>
+      </c>
+      <c r="L163" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="M163" s="2" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
@@ -14506,6 +14653,27 @@
       <c r="F164" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G164" s="2" t="n">
+        <v>0.96573</v>
+      </c>
+      <c r="H164" s="2" t="n">
+        <v>0.13218</v>
+      </c>
+      <c r="I164" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="J164" s="2" t="n">
+        <v>109370</v>
+      </c>
+      <c r="K164" s="2" t="n">
+        <v>3881</v>
+      </c>
+      <c r="L164" s="2" t="n">
+        <v>952</v>
+      </c>
+      <c r="M164" s="2" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
@@ -14526,6 +14694,27 @@
       <c r="F165" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G165" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" s="2" t="n">
+        <v>113250</v>
+      </c>
+      <c r="K165" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" s="2" t="n">
+        <v>1097</v>
+      </c>
+      <c r="M165" s="2" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
@@ -14546,6 +14735,27 @@
       <c r="F166" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G166" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" s="2" t="n">
+        <v>993</v>
+      </c>
+      <c r="K166" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="M166" s="2" t="n">
+        <v>113470</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
@@ -14566,6 +14776,27 @@
       <c r="F167" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G167" s="2" t="n">
+        <v>0.99979</v>
+      </c>
+      <c r="H167" s="2" t="n">
+        <v>0.3464</v>
+      </c>
+      <c r="I167" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="J167" s="2" t="n">
+        <v>113570</v>
+      </c>
+      <c r="K167" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="L167" s="2" t="n">
+        <v>717</v>
+      </c>
+      <c r="M167" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
@@ -14586,6 +14817,27 @@
       <c r="F168" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G168" s="2" t="n">
+        <v>0.92892</v>
+      </c>
+      <c r="H168" s="2" t="n">
+        <v>0.22343</v>
+      </c>
+      <c r="I168" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="J168" s="2" t="n">
+        <v>17133</v>
+      </c>
+      <c r="K168" s="2" t="n">
+        <v>1311</v>
+      </c>
+      <c r="L168" s="2" t="n">
+        <v>358</v>
+      </c>
+      <c r="M168" s="2" t="n">
+        <v>95789</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
@@ -14606,6 +14858,27 @@
       <c r="F169" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G169" s="2" t="n">
+        <v>0.99922</v>
+      </c>
+      <c r="H169" s="2" t="n">
+        <v>0.0042644</v>
+      </c>
+      <c r="I169" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J169" s="2" t="n">
+        <v>16675</v>
+      </c>
+      <c r="K169" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="L169" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="M169" s="2" t="n">
+        <v>97537</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
@@ -14626,6 +14899,27 @@
       <c r="F170" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G170" s="2" t="n">
+        <v>0.35221</v>
+      </c>
+      <c r="H170" s="2" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I170" s="2" t="n">
+        <v>916</v>
+      </c>
+      <c r="J170" s="2" t="n">
+        <v>39887</v>
+      </c>
+      <c r="K170" s="2" t="n">
+        <v>73360</v>
+      </c>
+      <c r="L170" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="M170" s="2" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
@@ -14646,6 +14940,27 @@
       <c r="F171" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G171" s="2" t="n">
+        <v>0.8409</v>
+      </c>
+      <c r="H171" s="2" t="n">
+        <v>0.67087</v>
+      </c>
+      <c r="I171" s="2" t="n">
+        <v>638</v>
+      </c>
+      <c r="J171" s="2" t="n">
+        <v>62644</v>
+      </c>
+      <c r="K171" s="2" t="n">
+        <v>11852</v>
+      </c>
+      <c r="L171" s="2" t="n">
+        <v>313</v>
+      </c>
+      <c r="M171" s="2" t="n">
+        <v>39247</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
@@ -14666,6 +14981,27 @@
       <c r="F172" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G172" s="2" t="n">
+        <v>0.95679</v>
+      </c>
+      <c r="H172" s="2" t="n">
+        <v>0.30902</v>
+      </c>
+      <c r="I172" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="J172" s="2" t="n">
+        <v>108690</v>
+      </c>
+      <c r="K172" s="2" t="n">
+        <v>4909</v>
+      </c>
+      <c r="L172" s="2" t="n">
+        <v>758</v>
+      </c>
+      <c r="M172" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
@@ -14686,6 +15022,27 @@
       <c r="F173" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G173" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="n">
+        <v>0.086072</v>
+      </c>
+      <c r="I173" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="J173" s="2" t="n">
+        <v>32385</v>
+      </c>
+      <c r="K173" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="n">
+        <v>584</v>
+      </c>
+      <c r="M173" s="2" t="n">
+        <v>81670</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
@@ -14706,6 +15063,27 @@
       <c r="F174" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G174" s="2" t="n">
+        <v>0.26839</v>
+      </c>
+      <c r="H174" s="2" t="n">
+        <v>0.85597</v>
+      </c>
+      <c r="I174" s="2" t="n">
+        <v>939</v>
+      </c>
+      <c r="J174" s="2" t="n">
+        <v>30488</v>
+      </c>
+      <c r="K174" s="2" t="n">
+        <v>83109</v>
+      </c>
+      <c r="L174" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="M174" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
@@ -14726,6 +15104,27 @@
       <c r="F175" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G175" s="2" t="n">
+        <v>0.96022</v>
+      </c>
+      <c r="H175" s="2" t="n">
+        <v>0.66454</v>
+      </c>
+      <c r="I175" s="2" t="n">
+        <v>729</v>
+      </c>
+      <c r="J175" s="2" t="n">
+        <v>109080</v>
+      </c>
+      <c r="K175" s="2" t="n">
+        <v>4519</v>
+      </c>
+      <c r="L175" s="2" t="n">
+        <v>368</v>
+      </c>
+      <c r="M175" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
@@ -14746,6 +15145,27 @@
       <c r="F176" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G176" s="2" t="n">
+        <v>0.00030897</v>
+      </c>
+      <c r="H176" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" s="2" t="n">
+        <v>1097</v>
+      </c>
+      <c r="J176" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="K176" s="2" t="n">
+        <v>113250</v>
+      </c>
+      <c r="L176" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" s="2" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
@@ -14766,6 +15186,27 @@
       <c r="F177" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G177" s="2" t="n">
+        <v>0.99991</v>
+      </c>
+      <c r="H177" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="n">
+        <v>113240</v>
+      </c>
+      <c r="K177" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L177" s="2" t="n">
+        <v>1097</v>
+      </c>
+      <c r="M177" s="2" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
@@ -14786,6 +15227,27 @@
       <c r="F178" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G178" s="2" t="n">
+        <v>0.00055462</v>
+      </c>
+      <c r="H178" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" s="2" t="n">
+        <v>1097</v>
+      </c>
+      <c r="J178" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="K178" s="2" t="n">
+        <v>113530</v>
+      </c>
+      <c r="L178" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" s="2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
@@ -14806,6 +15268,27 @@
       <c r="F179" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G179" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="n">
+        <v>113250</v>
+      </c>
+      <c r="K179" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="n">
+        <v>1097</v>
+      </c>
+      <c r="M179" s="2" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
@@ -14826,6 +15309,27 @@
       <c r="F180" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G180" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I180" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="n">
+        <v>534</v>
+      </c>
+      <c r="K180" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" s="2" t="n">
+        <v>114160</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
@@ -14846,6 +15350,27 @@
       <c r="F181" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G181" s="2" t="n">
+        <v>0.99977</v>
+      </c>
+      <c r="H181" s="2" t="n">
+        <v>0.36012</v>
+      </c>
+      <c r="I181" s="2" t="n">
+        <v>354</v>
+      </c>
+      <c r="J181" s="2" t="n">
+        <v>85806</v>
+      </c>
+      <c r="K181" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="L181" s="2" t="n">
+        <v>629</v>
+      </c>
+      <c r="M181" s="2" t="n">
+        <v>27885</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
@@ -14866,6 +15391,27 @@
       <c r="F182" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G182" s="2" t="n">
+        <v>0.90952</v>
+      </c>
+      <c r="H182" s="2" t="n">
+        <v>0.57612</v>
+      </c>
+      <c r="I182" s="2" t="n">
+        <v>632</v>
+      </c>
+      <c r="J182" s="2" t="n">
+        <v>103320</v>
+      </c>
+      <c r="K182" s="2" t="n">
+        <v>10278</v>
+      </c>
+      <c r="L182" s="2" t="n">
+        <v>465</v>
+      </c>
+      <c r="M182" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
@@ -14886,6 +15432,27 @@
       <c r="F183" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G183" s="2" t="n">
+        <v>0.98509</v>
+      </c>
+      <c r="H183" s="2" t="n">
+        <v>0.58371</v>
+      </c>
+      <c r="I183" s="2" t="n">
+        <v>638</v>
+      </c>
+      <c r="J183" s="2" t="n">
+        <v>111900</v>
+      </c>
+      <c r="K183" s="2" t="n">
+        <v>1694</v>
+      </c>
+      <c r="L183" s="2" t="n">
+        <v>455</v>
+      </c>
+      <c r="M183" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
@@ -14906,6 +15473,27 @@
       <c r="F184" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G184" s="2" t="n">
+        <v>0.00029137</v>
+      </c>
+      <c r="H184" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" s="2" t="n">
+        <v>1097</v>
+      </c>
+      <c r="J184" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="K184" s="2" t="n">
+        <v>113230</v>
+      </c>
+      <c r="L184" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" s="2" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
@@ -14926,6 +15514,27 @@
       <c r="F185" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G185" s="2" t="n">
+        <v>0.093929</v>
+      </c>
+      <c r="H185" s="2" t="n">
+        <v>0.72288</v>
+      </c>
+      <c r="I185" s="2" t="n">
+        <v>793</v>
+      </c>
+      <c r="J185" s="2" t="n">
+        <v>10670</v>
+      </c>
+      <c r="K185" s="2" t="n">
+        <v>102930</v>
+      </c>
+      <c r="L185" s="2" t="n">
+        <v>304</v>
+      </c>
+      <c r="M185" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
@@ -14946,6 +15555,27 @@
       <c r="F186" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="G186" s="2" t="n">
+        <v>0.99467</v>
+      </c>
+      <c r="H186" s="2" t="n">
+        <v>0.66363</v>
+      </c>
+      <c r="I186" s="2" t="n">
+        <v>728</v>
+      </c>
+      <c r="J186" s="2" t="n">
+        <v>112990</v>
+      </c>
+      <c r="K186" s="2" t="n">
+        <v>606</v>
+      </c>
+      <c r="L186" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="M186" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
@@ -14965,6 +15595,27 @@
       </c>
       <c r="F187" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="G187" s="2" t="n">
+        <v>0.98894</v>
+      </c>
+      <c r="H187" s="2" t="n">
+        <v>0.67001</v>
+      </c>
+      <c r="I187" s="2" t="n">
+        <v>735</v>
+      </c>
+      <c r="J187" s="2" t="n">
+        <v>112340</v>
+      </c>
+      <c r="K187" s="2" t="n">
+        <v>1256</v>
+      </c>
+      <c r="L187" s="2" t="n">
+        <v>362</v>
+      </c>
+      <c r="M187" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -5,18 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Single Classification" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Group Classification" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Single Classification2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Group Classification2" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="33">
   <si>
     <t>Network</t>
   </si>
@@ -8485,7 +8487,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="0" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8500,8 +8502,8 @@
   </sheetPr>
   <dimension ref="A1:N187"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16753,7 +16755,173 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="0" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A179" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.0867346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4744897959184"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1275510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.5510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.1020408163265"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0765306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Single Classification" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="34">
   <si>
     <t>Network</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>0.60077</t>
+  </si>
+  <si>
+    <t>Number Neurons Network</t>
   </si>
 </sst>
 </file>
@@ -8502,8 +8505,8 @@
   </sheetPr>
   <dimension ref="A1:N187"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16768,27 +16771,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A179" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.0867346938776"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4744897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.8163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0867346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.4744897959184"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16796,43 +16800,469 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0.95183</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0.82256</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>1692</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>545520</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>27605</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>365</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0.94967</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0.82547</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>1698</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>544280</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>28844</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>359</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0.95597</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0.82304</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>1693</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>547890</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>25236</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>364</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0.95202</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0.83684</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>1313</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>516570</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>26033</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0.94976</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0.83939</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>1317</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>515340</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>27260</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0.95577</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0.83748</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>1314</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>518600</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>23997</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>255</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0.98379</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0.85098</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>868</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>248110</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>4087</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0.98095</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0.85294</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>870</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>247390</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>4804</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0.98323</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0.85882</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>876</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>247960</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>4230</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16853,7 +17283,7 @@
   </sheetPr>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="34">
   <si>
     <t>Network</t>
   </si>
@@ -8506,7 +8506,7 @@
   <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16771,28 +16771,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5357142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.8163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0867346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.4744897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6530612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.5357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="21.8163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.0867346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.4744897959184"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.6530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="2" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17263,6 +17263,834 @@
       </c>
       <c r="O10" s="2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Single Classification" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="34">
   <si>
     <t>Network</t>
   </si>
@@ -237,7 +237,7 @@
   <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="1" sqref="I11:O46 E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8506,7 +8506,7 @@
   <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="I11:O46 D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16773,8 +16773,8 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="1" sqref="I11:O46 O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17275,6 +17275,9 @@
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17298,6 +17301,9 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17321,6 +17327,9 @@
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E13" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17344,6 +17353,9 @@
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E14" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17367,6 +17379,9 @@
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17390,6 +17405,9 @@
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E16" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17413,6 +17431,9 @@
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17436,6 +17457,9 @@
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E18" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17459,6 +17483,9 @@
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E19" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17482,6 +17509,9 @@
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E20" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17505,6 +17535,9 @@
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E21" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17528,6 +17561,9 @@
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E22" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17551,6 +17587,9 @@
       <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E23" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17574,6 +17613,9 @@
       <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E24" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17597,6 +17639,9 @@
       <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E25" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17620,6 +17665,9 @@
       <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E26" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17643,6 +17691,9 @@
       <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E27" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17666,6 +17717,9 @@
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E28" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17689,6 +17743,9 @@
       <c r="C29" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E29" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17712,6 +17769,9 @@
       <c r="C30" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E30" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17735,6 +17795,9 @@
       <c r="C31" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E31" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17758,6 +17821,9 @@
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E32" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17781,6 +17847,9 @@
       <c r="C33" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E33" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17804,6 +17873,9 @@
       <c r="C34" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E34" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17827,6 +17899,9 @@
       <c r="C35" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E35" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17850,6 +17925,9 @@
       <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E36" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17873,6 +17951,9 @@
       <c r="C37" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E37" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17896,6 +17977,9 @@
       <c r="C38" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E38" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17919,6 +18003,9 @@
       <c r="C39" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E39" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17942,6 +18029,9 @@
       <c r="C40" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E40" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17965,6 +18055,9 @@
       <c r="C41" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E41" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -17988,6 +18081,9 @@
       <c r="C42" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E42" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -18011,6 +18107,9 @@
       <c r="C43" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E43" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -18034,6 +18133,9 @@
       <c r="C44" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E44" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -18057,6 +18159,9 @@
       <c r="C45" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E45" s="3" t="n">
         <v>1E-006</v>
       </c>
@@ -18079,6 +18184,9 @@
       </c>
       <c r="C46" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E46" s="3" t="n">
         <v>1E-006</v>
@@ -18109,27 +18217,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11:O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8673469387755"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4744897959184"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1275510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5816326530612"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.5510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9234693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.1020408163265"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6530612244898"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0765306122449"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.1632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18137,43 +18247,1972 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0.83028</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0.66975</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>1377</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>475370</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>97173</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0.62253</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0.76706</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>1574</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>354490</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>214950</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>478</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0.8515</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0.70662</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>1409</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>474530</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>82755</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>585</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>15898</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0.74258</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0.61921</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>1257</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>419760</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>145520</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>773</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0.79749</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0.52734</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>1032</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>449320</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>114100</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>925</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0.80607</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>0.69298</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>1422</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>461490</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>111030</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>630</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>0.83186</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>0.68431</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>1073</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>450920</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>91143</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>495</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0.6242</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0.77955</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>1220</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>336500</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>202600</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0.85265</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0.72164</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>1094</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>449780</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>77730</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>422</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>15147</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>0.74404</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0.62944</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>975</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>398180</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>136980</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>574</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0.79837</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>0.53449</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>798</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>425740</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>107520</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>695</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>9412</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0.80786</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>0.7016</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>1098</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>437900</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>104150</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>0.8187</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>0.6902</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>704</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>206230</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>45669</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>316</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0.57995</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>0.78193</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>796</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>145260</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>105210</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>0.8428</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>0.72177</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>205620</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>38352</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>276</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>8252</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>0.70045</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>0.63284</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>636</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>173860</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>74352</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>0.75219</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>0.54912</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>531</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>185850</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>61228</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>436</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0.78803</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>0.70854</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>722</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>198510</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>53397</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>297</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>0.12819</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>0.79159</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>1280</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>21003</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>142840</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>0.14132</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>0.91579</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>1479</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>23267</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>141380</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>0.20739</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>0.88329</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>1385</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>33277</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>127180</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>0.14023</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>0.80334</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>1299</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>23051</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>141330</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>318</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>0.12598</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>0.78049</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>1248</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>20610</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>142990</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>0.10999</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>0.84706</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>1368</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>18117</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>146590</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>0.14121</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>0.82936</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>904</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>15922</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>96829</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>0.15424</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>0.92018</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>1003</v>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>17495</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>95931</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>0.22869</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>0.89577</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>954</v>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>25213</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>85039</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>0.15437</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>0.84051</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>917</v>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>17478</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>95742</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>0.13918</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>0.81961</v>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>886</v>
+      </c>
+      <c r="L39" s="2" t="n">
+        <v>15666</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>96897</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>0.12116</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>0.87787</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>956</v>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v>13749</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>99727</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>0.14686</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>0.86335</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>676</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>6423</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>37313</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>0.12839</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>0.92219</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>723</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>5633</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>38242</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>0.20329</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>0.90944</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>703</v>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v>8695</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>34077</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>0.15664</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>0.87484</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>685</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>6868</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>36978</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>0.14755</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>0.86761</v>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>675</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>6436</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>37183</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>0.12423</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>0.90421</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>708</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>5454</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>38448</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -16774,7 +16774,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="1" sqref="I11:O46 O1"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11:O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17290,6 +17290,27 @@
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I11" s="2" t="n">
+        <v>0.83028</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0.66975</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>1377</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>475370</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>97173</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>579</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -17316,6 +17337,27 @@
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I12" s="2" t="n">
+        <v>0.62253</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0.76706</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>1574</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>354490</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>214950</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>478</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>3686</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -17342,6 +17384,27 @@
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I13" s="2" t="n">
+        <v>0.8515</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0.70662</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>1409</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>474530</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>82755</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>585</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>15898</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -17368,6 +17431,27 @@
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I14" s="2" t="n">
+        <v>0.74258</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0.61921</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>1257</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>419760</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>145520</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>773</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>7872</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -17394,6 +17478,27 @@
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I15" s="2" t="n">
+        <v>0.79749</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0.52734</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>1032</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>449320</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>114100</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>925</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>9800</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -17420,6 +17525,27 @@
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I16" s="2" t="n">
+        <v>0.80607</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>0.69298</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>1422</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>461490</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>111030</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>630</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>601</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -17446,6 +17572,27 @@
       <c r="H17" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I17" s="2" t="n">
+        <v>0.83186</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>0.68431</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>1073</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>450920</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>91143</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>495</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>542</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -17472,6 +17619,27 @@
       <c r="H18" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I18" s="2" t="n">
+        <v>0.6242</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0.77955</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>1220</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>336500</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>202600</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>3505</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -17498,6 +17666,27 @@
       <c r="H19" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I19" s="2" t="n">
+        <v>0.85265</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0.72164</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>1094</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>449780</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>77730</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>422</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>15147</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -17524,6 +17713,27 @@
       <c r="H20" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I20" s="2" t="n">
+        <v>0.74404</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0.62944</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>975</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>398180</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>136980</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>574</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>7460</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -17550,6 +17760,27 @@
       <c r="H21" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I21" s="2" t="n">
+        <v>0.79837</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>0.53449</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>798</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>425740</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>107520</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>695</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>9412</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -17576,6 +17807,27 @@
       <c r="H22" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I22" s="2" t="n">
+        <v>0.80786</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>0.7016</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>1098</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>437900</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>104150</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>564</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -17602,6 +17854,27 @@
       <c r="H23" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I23" s="2" t="n">
+        <v>0.8187</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>0.6902</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>704</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>206230</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>45669</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>316</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -17628,6 +17901,27 @@
       <c r="H24" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I24" s="2" t="n">
+        <v>0.57995</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>0.78193</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>796</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>145260</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>105210</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>1733</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
@@ -17654,6 +17948,27 @@
       <c r="H25" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I25" s="2" t="n">
+        <v>0.8428</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>0.72177</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>205620</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>38352</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>276</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>8252</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
@@ -17680,6 +17995,27 @@
       <c r="H26" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I26" s="2" t="n">
+        <v>0.70045</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>0.63284</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>636</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>173860</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>74352</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>3992</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
@@ -17706,6 +18042,27 @@
       <c r="H27" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I27" s="2" t="n">
+        <v>0.75219</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>0.54912</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>531</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>185850</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>61228</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>436</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>5170</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
@@ -17732,6 +18089,27 @@
       <c r="H28" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I28" s="2" t="n">
+        <v>0.78803</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>0.70854</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>722</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>198510</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>53397</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>297</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>283</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
@@ -17758,6 +18136,27 @@
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I29" s="2" t="n">
+        <v>0.12819</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>0.79159</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>1280</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>21003</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>142840</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>1047</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -17784,6 +18183,27 @@
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I30" s="2" t="n">
+        <v>0.14132</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>0.91579</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>1479</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>23267</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>141380</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -17810,6 +18230,27 @@
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I31" s="2" t="n">
+        <v>0.20739</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>0.88329</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>1385</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>33277</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>127180</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>4480</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -17836,6 +18277,27 @@
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I32" s="2" t="n">
+        <v>0.14023</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>0.80334</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>1299</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>23051</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>141330</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>318</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>507</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
@@ -17862,6 +18324,27 @@
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I33" s="2" t="n">
+        <v>0.12598</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>0.78049</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>1248</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>20610</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>142990</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>1309</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
@@ -17888,6 +18371,27 @@
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I34" s="2" t="n">
+        <v>0.10999</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>0.84706</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>1368</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>18117</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>146590</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
@@ -17914,6 +18418,27 @@
       <c r="H35" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I35" s="2" t="n">
+        <v>0.14121</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>0.82936</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>904</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>15922</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>96829</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>863</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
@@ -17940,6 +18465,27 @@
       <c r="H36" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I36" s="2" t="n">
+        <v>0.15424</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>0.92018</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>1003</v>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>17495</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>95931</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
@@ -17966,6 +18512,27 @@
       <c r="H37" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I37" s="2" t="n">
+        <v>0.22869</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>0.89577</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>954</v>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>25213</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>85039</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v>3387</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
@@ -17992,6 +18559,27 @@
       <c r="H38" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I38" s="2" t="n">
+        <v>0.15437</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>0.84051</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>917</v>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>17478</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>95742</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>393</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
@@ -18018,6 +18606,27 @@
       <c r="H39" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I39" s="2" t="n">
+        <v>0.13918</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>0.81961</v>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>886</v>
+      </c>
+      <c r="L39" s="2" t="n">
+        <v>15666</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>96897</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v>1060</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
@@ -18044,6 +18653,27 @@
       <c r="H40" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I40" s="2" t="n">
+        <v>0.12116</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>0.87787</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>956</v>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v>13749</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>99727</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
@@ -18070,6 +18700,27 @@
       <c r="H41" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I41" s="2" t="n">
+        <v>0.14686</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>0.86335</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>676</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>6423</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>37313</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
@@ -18096,6 +18747,27 @@
       <c r="H42" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I42" s="2" t="n">
+        <v>0.12839</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>0.92219</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>723</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>5633</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>38242</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
@@ -18122,6 +18794,27 @@
       <c r="H43" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I43" s="2" t="n">
+        <v>0.20329</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>0.90944</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>703</v>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v>8695</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>34077</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>1198</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
@@ -18148,6 +18841,27 @@
       <c r="H44" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I44" s="2" t="n">
+        <v>0.15664</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>0.87484</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>685</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>6868</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>36978</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
@@ -18174,6 +18888,27 @@
       <c r="H45" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I45" s="2" t="n">
+        <v>0.14755</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>0.86761</v>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>675</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>6436</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>37183</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v>346</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
@@ -18199,6 +18934,27 @@
       </c>
       <c r="H46" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>0.12423</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>0.90421</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>708</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>5454</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>38448</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -18219,7 +18975,7 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11:O46"/>
     </sheetView>
   </sheetViews>
@@ -18548,26 +19304,26 @@
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I11" s="2" t="n">
-        <v>0.83028</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0.66975</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>1377</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>475370</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>97173</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>679</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>579</v>
+      <c r="I11" s="0" t="n">
+        <v>0.92193</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.6881</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1423</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>528360</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>44740</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>645</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18595,26 +19351,26 @@
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I12" s="2" t="n">
-        <v>0.62253</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>0.76706</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>1574</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>354490</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>214950</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>478</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>3686</v>
+      <c r="I12" s="0" t="n">
+        <v>0.63429</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.81867</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1693</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>363510</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>209590</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>375</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18642,26 +19398,26 @@
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I13" s="2" t="n">
-        <v>0.8515</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0.70662</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>1409</v>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>474530</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>82755</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>585</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>15898</v>
+      <c r="I13" s="0" t="n">
+        <v>0.94228</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.72244</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1494</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>540020</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>33082</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>574</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18689,26 +19445,26 @@
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I14" s="2" t="n">
-        <v>0.74258</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0.61921</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>1257</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>419760</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>145520</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>773</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>7872</v>
+      <c r="I14" s="0" t="n">
+        <v>0.81934</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.63636</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1316</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>469560</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>103540</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>752</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18736,26 +19492,26 @@
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I15" s="2" t="n">
-        <v>0.79749</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0.52734</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>1032</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>449320</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>114100</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>925</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>9800</v>
+      <c r="I15" s="0" t="n">
+        <v>0.87911</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.54642</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1130</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>503820</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>69282</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>938</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18783,26 +19539,26 @@
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I16" s="2" t="n">
-        <v>0.80607</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>0.69298</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>1422</v>
-      </c>
-      <c r="L16" s="2" t="n">
-        <v>461490</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>111030</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>630</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>601</v>
+      <c r="I16" s="0" t="n">
+        <v>0.90347</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.72534</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>517780</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>55322</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>568</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18830,26 +19586,26 @@
       <c r="H17" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I17" s="2" t="n">
-        <v>0.83186</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0.68431</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>1073</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>450920</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>91143</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>495</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>542</v>
+      <c r="I17" s="0" t="n">
+        <v>0.92339</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.70241</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1107</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>501020</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>41569</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>469</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18877,26 +19633,26 @@
       <c r="H18" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I18" s="2" t="n">
-        <v>0.6242</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0.77955</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>1220</v>
-      </c>
-      <c r="L18" s="2" t="n">
-        <v>336500</v>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>202600</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>345</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>3505</v>
+      <c r="I18" s="0" t="n">
+        <v>0.63675</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.84074</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>1325</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>345490</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>197090</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18924,26 +19680,26 @@
       <c r="H19" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I19" s="2" t="n">
-        <v>0.85265</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>0.72164</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>1094</v>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>449780</v>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>77730</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>422</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>15147</v>
+      <c r="I19" s="0" t="n">
+        <v>0.94348</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.73477</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1158</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>511920</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>30666</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>418</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18971,26 +19727,26 @@
       <c r="H20" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I20" s="2" t="n">
-        <v>0.74404</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>0.62944</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>975</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>398180</v>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>136980</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>574</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>7460</v>
+      <c r="I20" s="0" t="n">
+        <v>0.82097</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.63325</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>998</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>445440</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>97141</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>578</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19018,26 +19774,26 @@
       <c r="H21" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I21" s="2" t="n">
-        <v>0.79837</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>0.53449</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>798</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>425740</v>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>107520</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>695</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>9412</v>
+      <c r="I21" s="0" t="n">
+        <v>0.88036</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.55838</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>880</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>477670</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>64914</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>696</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19065,26 +19821,26 @@
       <c r="H22" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I22" s="2" t="n">
-        <v>0.80786</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>0.7016</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>1098</v>
-      </c>
-      <c r="L22" s="2" t="n">
-        <v>437900</v>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>104150</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>467</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>564</v>
+      <c r="I22" s="0" t="n">
+        <v>0.90572</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.7316</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>1153</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>491430</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>51154</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>423</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19112,26 +19868,26 @@
       <c r="H23" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I23" s="2" t="n">
-        <v>0.8187</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>0.6902</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>704</v>
-      </c>
-      <c r="L23" s="2" t="n">
-        <v>206230</v>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>45669</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>316</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>291</v>
+      <c r="I23" s="0" t="n">
+        <v>0.92123</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.7087</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>725</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>232320</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>19864</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19159,26 +19915,26 @@
       <c r="H24" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I24" s="2" t="n">
-        <v>0.57995</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>0.78193</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>796</v>
-      </c>
-      <c r="L24" s="2" t="n">
-        <v>145260</v>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>105210</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>222</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>1733</v>
+      <c r="I24" s="0" t="n">
+        <v>0.55891</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.84066</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>860</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>140950</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>111230</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19206,26 +19962,26 @@
       <c r="H25" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I25" s="2" t="n">
-        <v>0.8428</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>0.72177</v>
-      </c>
-      <c r="K25" s="2" t="n">
-        <v>716</v>
-      </c>
-      <c r="L25" s="2" t="n">
-        <v>205620</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>38352</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>276</v>
-      </c>
-      <c r="O25" s="2" t="n">
-        <v>8252</v>
+      <c r="I25" s="0" t="n">
+        <v>0.94477</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.72727</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>744</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>238250</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>13928</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>279</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19253,26 +20009,26 @@
       <c r="H26" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I26" s="2" t="n">
-        <v>0.70045</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>0.63284</v>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>636</v>
-      </c>
-      <c r="L26" s="2" t="n">
-        <v>173860</v>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>74352</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>369</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>3992</v>
+      <c r="I26" s="0" t="n">
+        <v>0.76965</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.61975</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>634</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>194090</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>58090</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>389</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19300,26 +20056,26 @@
       <c r="H27" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I27" s="2" t="n">
-        <v>0.75219</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>0.54912</v>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>531</v>
-      </c>
-      <c r="L27" s="2" t="n">
-        <v>185850</v>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>61228</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>436</v>
-      </c>
-      <c r="O27" s="2" t="n">
-        <v>5170</v>
+      <c r="I27" s="0" t="n">
+        <v>0.83853</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.57185</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>211460</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>40719</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>438</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19347,26 +20103,26 @@
       <c r="H28" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I28" s="2" t="n">
-        <v>0.78803</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0.70854</v>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>722</v>
-      </c>
-      <c r="L28" s="2" t="n">
-        <v>198510</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>53397</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>297</v>
-      </c>
-      <c r="O28" s="2" t="n">
-        <v>283</v>
+      <c r="I28" s="0" t="n">
+        <v>0.89489</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.73607</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>753</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>225670</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>26507</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19394,26 +20150,26 @@
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I29" s="2" t="n">
-        <v>0.12819</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>0.79159</v>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>1280</v>
-      </c>
-      <c r="L29" s="2" t="n">
-        <v>21003</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>142840</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>337</v>
-      </c>
-      <c r="O29" s="2" t="n">
-        <v>1047</v>
+      <c r="I29" s="0" t="n">
+        <v>0.078673</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.88206</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>1436</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>12943</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>151570</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19441,26 +20197,26 @@
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I30" s="2" t="n">
-        <v>0.14132</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>0.91579</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>1479</v>
-      </c>
-      <c r="L30" s="2" t="n">
-        <v>23267</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>141380</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="O30" s="2" t="n">
-        <v>248</v>
+      <c r="I30" s="0" t="n">
+        <v>0.065441</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.95946</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>1562</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>10789</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>154080</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19488,26 +20244,26 @@
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I31" s="2" t="n">
-        <v>0.20739</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>0.88329</v>
-      </c>
-      <c r="K31" s="2" t="n">
-        <v>1385</v>
-      </c>
-      <c r="L31" s="2" t="n">
-        <v>33277</v>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>127180</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>183</v>
-      </c>
-      <c r="O31" s="2" t="n">
-        <v>4480</v>
+      <c r="I31" s="0" t="n">
+        <v>0.17425</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0.92506</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>1506</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>28728</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>136140</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19535,26 +20291,26 @@
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I32" s="2" t="n">
-        <v>0.14023</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>0.80334</v>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>1299</v>
-      </c>
-      <c r="L32" s="2" t="n">
-        <v>23051</v>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>141330</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>318</v>
-      </c>
-      <c r="O32" s="2" t="n">
-        <v>507</v>
+      <c r="I32" s="0" t="n">
+        <v>0.088775</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0.88636</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>1443</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>14636</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>150230</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19582,26 +20338,26 @@
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I33" s="2" t="n">
-        <v>0.12598</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>0.78049</v>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>1248</v>
-      </c>
-      <c r="L33" s="2" t="n">
-        <v>20610</v>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>142990</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>351</v>
-      </c>
-      <c r="O33" s="2" t="n">
-        <v>1309</v>
+      <c r="I33" s="0" t="n">
+        <v>0.078448</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0.85074</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>1385</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>12906</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>151610</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19629,26 +20385,26 @@
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I34" s="2" t="n">
-        <v>0.10999</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>0.84706</v>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>1368</v>
-      </c>
-      <c r="L34" s="2" t="n">
-        <v>18117</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>146590</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>247</v>
-      </c>
-      <c r="O34" s="2" t="n">
-        <v>180</v>
+      <c r="I34" s="0" t="n">
+        <v>0.048748</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.91892</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>1496</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>8037</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>156830</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19676,26 +20432,26 @@
       <c r="H35" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I35" s="2" t="n">
-        <v>0.14121</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>0.82936</v>
-      </c>
-      <c r="K35" s="2" t="n">
-        <v>904</v>
-      </c>
-      <c r="L35" s="2" t="n">
-        <v>15922</v>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>96829</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>186</v>
-      </c>
-      <c r="O35" s="2" t="n">
-        <v>863</v>
+      <c r="I35" s="0" t="n">
+        <v>0.086863</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.92616</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>1016</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>9837</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>103410</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19723,26 +20479,26 @@
       <c r="H36" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I36" s="2" t="n">
-        <v>0.15424</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>0.92018</v>
-      </c>
-      <c r="K36" s="2" t="n">
-        <v>1003</v>
-      </c>
-      <c r="L36" s="2" t="n">
-        <v>17495</v>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>95931</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="O36" s="2" t="n">
-        <v>188</v>
+      <c r="I36" s="0" t="n">
+        <v>0.073233</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0.95169</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>1044</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>8319</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>105280</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19770,26 +20526,26 @@
       <c r="H37" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I37" s="2" t="n">
-        <v>0.22869</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.89577</v>
-      </c>
-      <c r="K37" s="2" t="n">
-        <v>954</v>
-      </c>
-      <c r="L37" s="2" t="n">
-        <v>25213</v>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>85039</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="O37" s="2" t="n">
-        <v>3387</v>
+      <c r="I37" s="0" t="n">
+        <v>0.19769</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0.92069</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>1010</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>22457</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>91140</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19817,26 +20573,26 @@
       <c r="H38" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I38" s="2" t="n">
-        <v>0.15437</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>0.84051</v>
-      </c>
-      <c r="K38" s="2" t="n">
-        <v>917</v>
-      </c>
-      <c r="L38" s="2" t="n">
-        <v>17478</v>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>95742</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>174</v>
-      </c>
-      <c r="O38" s="2" t="n">
-        <v>393</v>
+      <c r="I38" s="0" t="n">
+        <v>0.098506</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.92981</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>11190</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>102410</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19864,26 +20620,26 @@
       <c r="H39" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I39" s="2" t="n">
-        <v>0.13918</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>0.81961</v>
-      </c>
-      <c r="K39" s="2" t="n">
-        <v>886</v>
-      </c>
-      <c r="L39" s="2" t="n">
-        <v>15666</v>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>96897</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>195</v>
-      </c>
-      <c r="O39" s="2" t="n">
-        <v>1060</v>
+      <c r="I39" s="0" t="n">
+        <v>0.087093</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0.89973</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>987</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>9863</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>103380</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19911,26 +20667,26 @@
       <c r="H40" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I40" s="2" t="n">
-        <v>0.12116</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>0.87787</v>
-      </c>
-      <c r="K40" s="2" t="n">
-        <v>956</v>
-      </c>
-      <c r="L40" s="2" t="n">
-        <v>13749</v>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>99727</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="O40" s="2" t="n">
-        <v>139</v>
+      <c r="I40" s="0" t="n">
+        <v>0.054482</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0.95351</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>1046</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>6189</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>107410</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19958,26 +20714,26 @@
       <c r="H41" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I41" s="2" t="n">
-        <v>0.14686</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>0.86335</v>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>676</v>
-      </c>
-      <c r="L41" s="2" t="n">
-        <v>6423</v>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>37313</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="O41" s="2" t="n">
-        <v>224</v>
+      <c r="I41" s="0" t="n">
+        <v>0.094978</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0.95674</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>752</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>4174</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>39773</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20005,26 +20761,26 @@
       <c r="H42" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I42" s="2" t="n">
-        <v>0.12839</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>0.92219</v>
-      </c>
-      <c r="K42" s="2" t="n">
-        <v>723</v>
-      </c>
-      <c r="L42" s="2" t="n">
-        <v>5633</v>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>38242</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="O42" s="2" t="n">
-        <v>84</v>
+      <c r="I42" s="0" t="n">
+        <v>0.040276</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0.9402</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>739</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>1770</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>42177</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20052,26 +20808,26 @@
       <c r="H43" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I43" s="2" t="n">
-        <v>0.20329</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>0.90944</v>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>703</v>
-      </c>
-      <c r="L43" s="2" t="n">
-        <v>8695</v>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>34077</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="O43" s="2" t="n">
-        <v>1198</v>
+      <c r="I43" s="0" t="n">
+        <v>0.16588</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0.93384</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>734</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>7290</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>36657</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20099,26 +20855,26 @@
       <c r="H44" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I44" s="2" t="n">
-        <v>0.15664</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>0.87484</v>
-      </c>
-      <c r="K44" s="2" t="n">
-        <v>685</v>
-      </c>
-      <c r="L44" s="2" t="n">
-        <v>6868</v>
-      </c>
-      <c r="M44" s="2" t="n">
-        <v>36978</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="O44" s="2" t="n">
-        <v>114</v>
+      <c r="I44" s="0" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0.96438</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>758</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>4465</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>39482</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20146,26 +20902,26 @@
       <c r="H45" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I45" s="2" t="n">
-        <v>0.14755</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>0.86761</v>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>675</v>
-      </c>
-      <c r="L45" s="2" t="n">
-        <v>6436</v>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>37183</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="O45" s="2" t="n">
-        <v>346</v>
+      <c r="I45" s="0" t="n">
+        <v>0.098277</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>0.96438</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>758</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>4319</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>39628</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20193,26 +20949,26 @@
       <c r="H46" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I46" s="2" t="n">
-        <v>0.12423</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>0.90421</v>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>708</v>
-      </c>
-      <c r="L46" s="2" t="n">
-        <v>5454</v>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>38448</v>
-      </c>
-      <c r="N46" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="O46" s="2" t="n">
-        <v>58</v>
+      <c r="I46" s="0" t="n">
+        <v>0.055977</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0.97201</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>764</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>2460</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>41487</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="34">
   <si>
     <t>Network</t>
   </si>
@@ -237,7 +237,7 @@
   <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="1" sqref="I11:O46 E16"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8506,7 +8506,7 @@
   <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="I11:O46 D13"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16771,10 +16771,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11:O46"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17267,425 +17267,257 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>27</v>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.83028</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0.66975</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>1377</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>475370</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>97173</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>679</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>579</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0.62253</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>0.76706</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>1574</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>354490</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>214950</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>478</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>3686</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0.8515</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0.70662</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>1409</v>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>474530</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>82755</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>585</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>15898</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0.74258</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0.61921</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>1257</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>419760</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>145520</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>773</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>7872</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0.79749</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0.52734</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>1032</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>449320</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>114100</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>925</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>9800</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>26</v>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0.80607</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>0.69298</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>1422</v>
-      </c>
-      <c r="L16" s="2" t="n">
-        <v>461490</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>111030</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>630</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>601</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>27</v>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.83186</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0.68431</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>1073</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>450920</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>91143</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>495</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>542</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0.6242</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0.77955</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>1220</v>
-      </c>
-      <c r="L18" s="2" t="n">
-        <v>336500</v>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>202600</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>345</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>3505</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.85265</v>
+        <v>0.83028</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.72164</v>
+        <v>0.66975</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1094</v>
+        <v>1377</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>449780</v>
+        <v>475370</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>77730</v>
+        <v>97173</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>422</v>
+        <v>679</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>15147</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17693,7 +17525,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
@@ -17711,28 +17543,28 @@
         <v>16</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.74404</v>
+        <v>0.62253</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.62944</v>
+        <v>0.76706</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>975</v>
+        <v>1574</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>398180</v>
+        <v>354490</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>136980</v>
+        <v>214950</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>574</v>
+        <v>478</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>7460</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17740,7 +17572,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
@@ -17758,28 +17590,28 @@
         <v>16</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.79837</v>
+        <v>0.8515</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.53449</v>
+        <v>0.70662</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>798</v>
+        <v>1409</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>425740</v>
+        <v>474530</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>107520</v>
+        <v>82755</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>695</v>
+        <v>585</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>9412</v>
+        <v>15898</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17787,7 +17619,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>21</v>
@@ -17805,28 +17637,28 @@
         <v>16</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.80786</v>
+        <v>0.74258</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.7016</v>
+        <v>0.61921</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1098</v>
+        <v>1257</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>437900</v>
+        <v>419760</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>104150</v>
+        <v>145520</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>467</v>
+        <v>773</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>564</v>
+        <v>7872</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17834,7 +17666,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
@@ -17852,28 +17684,28 @@
         <v>16</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.8187</v>
+        <v>0.79749</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.6902</v>
+        <v>0.52734</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>704</v>
+        <v>1032</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>206230</v>
+        <v>449320</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>45669</v>
+        <v>114100</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>316</v>
+        <v>925</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>291</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17881,7 +17713,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>21</v>
@@ -17899,28 +17731,28 @@
         <v>16</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.57995</v>
+        <v>0.80607</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.78193</v>
+        <v>0.69298</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>796</v>
+        <v>1422</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>145260</v>
+        <v>461490</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>105210</v>
+        <v>111030</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>222</v>
+        <v>630</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1733</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17928,7 +17760,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>21</v>
@@ -17946,28 +17778,28 @@
         <v>16</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.8428</v>
+        <v>0.83186</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.72177</v>
+        <v>0.68431</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>716</v>
+        <v>1073</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>205620</v>
+        <v>450920</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>38352</v>
+        <v>91143</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>276</v>
+        <v>495</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>8252</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17975,7 +17807,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>21</v>
@@ -17993,28 +17825,28 @@
         <v>16</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.70045</v>
+        <v>0.6242</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.63284</v>
+        <v>0.77955</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>636</v>
+        <v>1220</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>173860</v>
+        <v>336500</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>74352</v>
+        <v>202600</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>3992</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18022,7 +17854,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>21</v>
@@ -18040,28 +17872,28 @@
         <v>16</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.75219</v>
+        <v>0.85265</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.54912</v>
+        <v>0.72164</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>531</v>
+        <v>1094</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>185850</v>
+        <v>449780</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>61228</v>
+        <v>77730</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>5170</v>
+        <v>15147</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18069,7 +17901,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>21</v>
@@ -18087,28 +17919,28 @@
         <v>16</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.78803</v>
+        <v>0.74404</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.70854</v>
+        <v>0.62944</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>722</v>
+        <v>975</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>198510</v>
+        <v>398180</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>53397</v>
+        <v>136980</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>297</v>
+        <v>574</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>283</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18116,7 +17948,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>21</v>
@@ -18131,31 +17963,31 @@
         <v>27</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.12819</v>
+        <v>0.79837</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.79159</v>
+        <v>0.53449</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1280</v>
+        <v>798</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>21003</v>
+        <v>425740</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>142840</v>
+        <v>107520</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>337</v>
+        <v>695</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1047</v>
+        <v>9412</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18163,7 +17995,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>21</v>
@@ -18178,31 +18010,31 @@
         <v>26</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.14132</v>
+        <v>0.80786</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.91579</v>
+        <v>0.7016</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1479</v>
+        <v>1098</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>23267</v>
+        <v>437900</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>141380</v>
+        <v>104150</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>136</v>
+        <v>467</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>248</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18210,7 +18042,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>21</v>
@@ -18225,31 +18057,31 @@
         <v>27</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.20739</v>
+        <v>0.8187</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.88329</v>
+        <v>0.6902</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1385</v>
+        <v>704</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>33277</v>
+        <v>206230</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>127180</v>
+        <v>45669</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>4480</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18257,7 +18089,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>21</v>
@@ -18272,31 +18104,31 @@
         <v>26</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.14023</v>
+        <v>0.57995</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.80334</v>
+        <v>0.78193</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1299</v>
+        <v>796</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>23051</v>
+        <v>145260</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>141330</v>
+        <v>105210</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>318</v>
+        <v>222</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>507</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18304,7 +18136,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>21</v>
@@ -18319,31 +18151,31 @@
         <v>27</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.12598</v>
+        <v>0.8428</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.78049</v>
+        <v>0.72177</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1248</v>
+        <v>716</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>20610</v>
+        <v>205620</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>142990</v>
+        <v>38352</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>1309</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18351,7 +18183,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>21</v>
@@ -18366,31 +18198,31 @@
         <v>26</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.10999</v>
+        <v>0.70045</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.84706</v>
+        <v>0.63284</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1368</v>
+        <v>636</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>18117</v>
+        <v>173860</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>146590</v>
+        <v>74352</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>247</v>
+        <v>369</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>180</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18398,7 +18230,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>21</v>
@@ -18413,31 +18245,31 @@
         <v>27</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.14121</v>
+        <v>0.75219</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.82936</v>
+        <v>0.54912</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>904</v>
+        <v>531</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>15922</v>
+        <v>185850</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>96829</v>
+        <v>61228</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>186</v>
+        <v>436</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>863</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18445,7 +18277,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>21</v>
@@ -18460,31 +18292,31 @@
         <v>26</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.15424</v>
+        <v>0.78803</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.92018</v>
+        <v>0.70854</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1003</v>
+        <v>722</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>17495</v>
+        <v>198510</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>95931</v>
+        <v>53397</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>87</v>
+        <v>297</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>188</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18492,7 +18324,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>21</v>
@@ -18510,28 +18342,28 @@
         <v>30</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.22869</v>
+        <v>0.12819</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.89577</v>
+        <v>0.79159</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>954</v>
+        <v>1280</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>25213</v>
+        <v>21003</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>85039</v>
+        <v>142840</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>3387</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18539,7 +18371,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>21</v>
@@ -18557,28 +18389,28 @@
         <v>30</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.15437</v>
+        <v>0.14132</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.84051</v>
+        <v>0.91579</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>917</v>
+        <v>1479</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>17478</v>
+        <v>23267</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>95742</v>
+        <v>141380</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>393</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18586,7 +18418,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>21</v>
@@ -18604,28 +18436,28 @@
         <v>30</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.13918</v>
+        <v>0.20739</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.81961</v>
+        <v>0.88329</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>886</v>
+        <v>1385</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>15666</v>
+        <v>33277</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>96897</v>
+        <v>127180</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>1060</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18633,7 +18465,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>21</v>
@@ -18651,28 +18483,28 @@
         <v>30</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.12116</v>
+        <v>0.14023</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.87787</v>
+        <v>0.80334</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>956</v>
+        <v>1299</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>13749</v>
+        <v>23051</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>99727</v>
+        <v>141330</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>139</v>
+        <v>507</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18680,7 +18512,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>21</v>
@@ -18698,28 +18530,28 @@
         <v>30</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.14686</v>
+        <v>0.12598</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.86335</v>
+        <v>0.78049</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>676</v>
+        <v>1248</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>6423</v>
+        <v>20610</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>37313</v>
+        <v>142990</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>107</v>
+        <v>351</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>224</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18727,7 +18559,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>21</v>
@@ -18745,28 +18577,28 @@
         <v>30</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.12839</v>
+        <v>0.10999</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.92219</v>
+        <v>0.84706</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>723</v>
+        <v>1368</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>5633</v>
+        <v>18117</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>38242</v>
+        <v>146590</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>84</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18774,7 +18606,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>21</v>
@@ -18792,28 +18624,28 @@
         <v>30</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.20329</v>
+        <v>0.14121</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.90944</v>
+        <v>0.82936</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>703</v>
+        <v>904</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>8695</v>
+        <v>15922</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>34077</v>
+        <v>96829</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>1198</v>
+        <v>863</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18821,7 +18653,7 @@
         <v>23</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>21</v>
@@ -18839,28 +18671,28 @@
         <v>30</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0.15664</v>
+        <v>0.15424</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>0.87484</v>
+        <v>0.92018</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>685</v>
+        <v>1003</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>6868</v>
+        <v>17495</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>36978</v>
+        <v>95931</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>114</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18868,7 +18700,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>21</v>
@@ -18886,28 +18718,28 @@
         <v>30</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0.14755</v>
+        <v>0.22869</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>0.86761</v>
+        <v>0.89577</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>675</v>
+        <v>954</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>6436</v>
+        <v>25213</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>37183</v>
+        <v>85039</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>346</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18915,7 +18747,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>21</v>
@@ -18933,27 +18765,403 @@
         <v>30</v>
       </c>
       <c r="H46" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>0.15437</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>0.84051</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>917</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>17478</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>95742</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>0.13918</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>0.81961</v>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>886</v>
+      </c>
+      <c r="L47" s="2" t="n">
+        <v>15666</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>96897</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>0.12116</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>0.87787</v>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>956</v>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v>13749</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>99727</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I49" s="2" t="n">
+        <v>0.14686</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>0.86335</v>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>676</v>
+      </c>
+      <c r="L49" s="2" t="n">
+        <v>6423</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>37313</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>0.12839</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>0.92219</v>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>723</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>5633</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>38242</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>0.20329</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>0.90944</v>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>703</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>8695</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>34077</v>
+      </c>
+      <c r="N51" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>0.15664</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>0.87484</v>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>685</v>
+      </c>
+      <c r="L52" s="2" t="n">
+        <v>6868</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>36978</v>
+      </c>
+      <c r="N52" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="O52" s="2" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>0.14755</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>0.86761</v>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>675</v>
+      </c>
+      <c r="L53" s="2" t="n">
+        <v>6436</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>37183</v>
+      </c>
+      <c r="N53" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="O53" s="2" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I54" s="2" t="n">
         <v>0.12423</v>
       </c>
-      <c r="J46" s="2" t="n">
+      <c r="J54" s="2" t="n">
         <v>0.90421</v>
       </c>
-      <c r="K46" s="2" t="n">
+      <c r="K54" s="2" t="n">
         <v>708</v>
       </c>
-      <c r="L46" s="2" t="n">
+      <c r="L54" s="2" t="n">
         <v>5454</v>
       </c>
-      <c r="M46" s="2" t="n">
+      <c r="M54" s="2" t="n">
         <v>38448</v>
       </c>
-      <c r="N46" s="2" t="n">
+      <c r="N54" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="O46" s="2" t="n">
+      <c r="O54" s="2" t="n">
         <v>58</v>
       </c>
     </row>
@@ -18973,29 +19181,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11:O46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1275510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.5510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9234693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.1020408163265"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.1632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.6428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="19.3571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.4744897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="17.1275510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.5816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="22.5510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.9234693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="13.1020408163265"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.6530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.0765306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="14.1632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="2" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19070,6 +19278,27 @@
       <c r="H2" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I2" s="2" t="n">
+        <v>0.97772</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0.82882</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>560330</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>12766</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>354</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -19096,6 +19325,27 @@
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I3" s="2" t="n">
+        <v>0.97719</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0.83607</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>1729</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>560030</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>13070</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -19122,6 +19372,27 @@
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I4" s="2" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0.82544</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>1707</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>562480</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>10624</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -19148,6 +19419,27 @@
       <c r="H5" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I5" s="2" t="n">
+        <v>0.97685</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0.84581</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>1333</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>530030</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>12559</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -19174,6 +19466,27 @@
       <c r="H6" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I6" s="2" t="n">
+        <v>0.97629</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0.85406</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>1346</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>529720</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>12863</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -19200,6 +19513,27 @@
       <c r="H7" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I7" s="2" t="n">
+        <v>0.98072</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0.84137</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>1326</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>532120</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>10463</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -19226,6 +19560,27 @@
       <c r="H8" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I8" s="2" t="n">
+        <v>0.99792</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0.85533</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>875</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>251660</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>524</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -19252,6 +19607,27 @@
       <c r="H9" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I9" s="2" t="n">
+        <v>0.99665</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0.8563</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>876</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>251330</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>846</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -19278,427 +19654,448 @@
       <c r="H10" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I10" s="2" t="n">
+        <v>0.9967</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0.85826</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>878</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>251350</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>833</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>27</v>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>0.92193</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0.6881</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>1423</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>528360</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>44740</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>645</v>
-      </c>
-      <c r="O11" s="0" t="n">
+      <c r="I11" s="2" t="n">
+        <v>0.97309</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0.67445</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>1098</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>160430</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>4436</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>530</v>
+      </c>
+      <c r="O11" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>0.63429</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0.81867</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>1693</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>363510</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>209590</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>375</v>
-      </c>
-      <c r="O12" s="0" t="n">
+      <c r="I12" s="2" t="n">
+        <v>0.97605</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0.65418</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>1065</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>160920</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>3949</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>563</v>
+      </c>
+      <c r="O12" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>0.94228</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0.72244</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>1494</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>540020</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>33082</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>574</v>
-      </c>
-      <c r="O13" s="0" t="n">
+      <c r="I13" s="2" t="n">
+        <v>0.97949</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0.65295</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>1063</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>161490</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>3382</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>565</v>
+      </c>
+      <c r="O13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0.81934</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0.63636</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>1316</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>469560</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>103540</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>752</v>
-      </c>
-      <c r="O14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0.96904</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0.65816</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>722</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>110080</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>3517</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>375</v>
+      </c>
+      <c r="O14" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0.87911</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0.54642</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>1130</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>503820</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>69282</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>938</v>
-      </c>
-      <c r="O15" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0.97292</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0.65269</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>110520</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>3076</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="O15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>26</v>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0.90347</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0.72534</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>517780</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>55322</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>568</v>
-      </c>
-      <c r="O16" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0.97702</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>0.64813</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>711</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>110990</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>2611</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="O16" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>27</v>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0.92339</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0.70241</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>1107</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>501020</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>41569</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>469</v>
-      </c>
-      <c r="O17" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>0.95865</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>0.54326</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>427</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>42130</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>1817</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>359</v>
+      </c>
+      <c r="O17" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0.63675</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0.84074</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>1325</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>345490</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>197090</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>251</v>
-      </c>
-      <c r="O18" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0.96421</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0.54071</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>425</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>42374</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>1573</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="O18" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0.94348</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0.73477</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>1158</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>511920</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>30666</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>418</v>
-      </c>
-      <c r="O19" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0.97181</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0.54198</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>426</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>42708</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>1239</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="O19" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19707,7 +20104,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
@@ -19719,33 +20116,33 @@
         <v>1E-006</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>0.82097</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>0.63325</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>998</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>445440</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>97141</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>578</v>
-      </c>
-      <c r="O20" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>0.92193</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0.6881</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>1423</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>528360</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>645</v>
+      </c>
+      <c r="O20" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19754,7 +20151,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
@@ -19766,33 +20163,33 @@
         <v>1E-006</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>0.88036</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>0.55838</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>880</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>477670</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>64914</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>696</v>
-      </c>
-      <c r="O21" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0.63429</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>0.81867</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>1693</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>363510</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>209590</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>375</v>
+      </c>
+      <c r="O21" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19801,7 +20198,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>21</v>
@@ -19813,33 +20210,33 @@
         <v>1E-006</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0.90572</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>0.7316</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>1153</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>491430</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>51154</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>423</v>
-      </c>
-      <c r="O22" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0.94228</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>0.72244</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>1494</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>540020</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>33082</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>574</v>
+      </c>
+      <c r="O22" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19848,7 +20245,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
@@ -19860,33 +20257,33 @@
         <v>1E-006</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>0.92123</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>0.7087</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>725</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>232320</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>19864</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>298</v>
-      </c>
-      <c r="O23" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>0.81934</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>0.63636</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>1316</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>469560</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>103540</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>752</v>
+      </c>
+      <c r="O23" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19895,7 +20292,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>21</v>
@@ -19907,33 +20304,33 @@
         <v>1E-006</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>0.55891</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>0.84066</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>860</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>140950</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>111230</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>163</v>
-      </c>
-      <c r="O24" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0.87911</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>0.54642</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>1130</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>503820</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>69282</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>938</v>
+      </c>
+      <c r="O24" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19942,7 +20339,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>21</v>
@@ -19954,33 +20351,33 @@
         <v>1E-006</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>0.94477</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>0.72727</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>744</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>238250</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>13928</v>
-      </c>
-      <c r="N25" s="0" t="n">
-        <v>279</v>
-      </c>
-      <c r="O25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>0.90347</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>0.72534</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>517780</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>55322</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>568</v>
+      </c>
+      <c r="O25" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19989,7 +20386,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>21</v>
@@ -20001,33 +20398,33 @@
         <v>1E-006</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>0.76965</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>0.61975</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>634</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>194090</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>58090</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>389</v>
-      </c>
-      <c r="O26" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>0.92339</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>0.70241</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>1107</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>501020</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>41569</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="O26" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20036,7 +20433,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>21</v>
@@ -20048,33 +20445,33 @@
         <v>1E-006</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>0.83853</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>0.57185</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>585</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>211460</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>40719</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>438</v>
-      </c>
-      <c r="O27" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>0.63675</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>0.84074</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>1325</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>345490</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>197090</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="O27" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20083,7 +20480,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>21</v>
@@ -20095,33 +20492,33 @@
         <v>1E-006</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>0.89489</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>0.73607</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>753</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>225670</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>26507</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="O28" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0.94348</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>0.73477</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>1158</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>511920</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>30666</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>418</v>
+      </c>
+      <c r="O28" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20130,7 +20527,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>21</v>
@@ -20142,34 +20539,34 @@
         <v>1E-006</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0.078673</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>0.88206</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>1436</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>12943</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>151570</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>192</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>350</v>
+        <v>50</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>0.82097</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>0.63325</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>998</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>445440</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>97141</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>578</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20177,7 +20574,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>21</v>
@@ -20189,33 +20586,33 @@
         <v>1E-006</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>0.065441</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>0.95946</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <v>1562</v>
-      </c>
-      <c r="L30" s="0" t="n">
-        <v>10789</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>154080</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="O30" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>0.88036</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>0.55838</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>880</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>477670</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>64914</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>696</v>
+      </c>
+      <c r="O30" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20224,7 +20621,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>21</v>
@@ -20236,33 +20633,33 @@
         <v>1E-006</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0.17425</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>0.92506</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>1506</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>28728</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>136140</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>122</v>
-      </c>
-      <c r="O31" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>0.90572</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>0.7316</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>1153</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>491430</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>51154</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>423</v>
+      </c>
+      <c r="O31" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20271,7 +20668,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>21</v>
@@ -20283,33 +20680,33 @@
         <v>1E-006</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>0.088775</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>0.88636</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>1443</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>14636</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>150230</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>185</v>
-      </c>
-      <c r="O32" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>0.92123</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>0.7087</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>725</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>232320</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>19864</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>298</v>
+      </c>
+      <c r="O32" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20318,7 +20715,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>21</v>
@@ -20330,34 +20727,34 @@
         <v>1E-006</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>0.078448</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>0.85074</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>1385</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>12906</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>151610</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>243</v>
-      </c>
-      <c r="O33" s="0" t="n">
-        <v>350</v>
+        <v>70</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>0.55891</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>0.84066</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>860</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>140950</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>111230</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20365,7 +20762,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>21</v>
@@ -20377,33 +20774,33 @@
         <v>1E-006</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>0.048748</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>0.91892</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>1496</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>8037</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>156830</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>132</v>
-      </c>
-      <c r="O34" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>0.94477</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>0.72727</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>744</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>238250</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>13928</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>279</v>
+      </c>
+      <c r="O34" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20412,7 +20809,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>21</v>
@@ -20424,34 +20821,34 @@
         <v>1E-006</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>0.086863</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>0.92616</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>1016</v>
-      </c>
-      <c r="L35" s="0" t="n">
-        <v>9837</v>
-      </c>
-      <c r="M35" s="0" t="n">
-        <v>103410</v>
-      </c>
-      <c r="N35" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="O35" s="0" t="n">
-        <v>350</v>
+        <v>70</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>0.76965</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>0.61975</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>634</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>194090</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>58090</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20459,7 +20856,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>21</v>
@@ -20471,33 +20868,33 @@
         <v>1E-006</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0.073233</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>0.95169</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>1044</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>8319</v>
-      </c>
-      <c r="M36" s="0" t="n">
-        <v>105280</v>
-      </c>
-      <c r="N36" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="O36" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>0.83853</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>0.57185</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>585</v>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>211460</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>40719</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>438</v>
+      </c>
+      <c r="O36" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20506,7 +20903,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>21</v>
@@ -20518,33 +20915,33 @@
         <v>1E-006</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0.19769</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>0.92069</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>1010</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>22457</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>91140</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="O37" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>0.89489</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>0.73607</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>753</v>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>225670</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>26507</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>270</v>
+      </c>
+      <c r="O37" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20553,7 +20950,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>21</v>
@@ -20565,34 +20962,34 @@
         <v>1E-006</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>0.098506</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>0.92981</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>11190</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>102410</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="O38" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>0.078673</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>0.88206</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>1436</v>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>12943</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>151570</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20600,7 +20997,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>21</v>
@@ -20612,34 +21009,34 @@
         <v>1E-006</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>0.087093</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>0.89973</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>987</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <v>9863</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <v>103380</v>
-      </c>
-      <c r="N39" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="O39" s="0" t="n">
-        <v>350</v>
+        <v>30</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>0.065441</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>0.95946</v>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>1562</v>
+      </c>
+      <c r="L39" s="2" t="n">
+        <v>10789</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>154080</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20647,7 +21044,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>21</v>
@@ -20659,33 +21056,33 @@
         <v>1E-006</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>0.054482</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>0.95351</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="L40" s="0" t="n">
-        <v>6189</v>
-      </c>
-      <c r="M40" s="0" t="n">
-        <v>107410</v>
-      </c>
-      <c r="N40" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="O40" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>0.17425</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>0.92506</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>1506</v>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v>28728</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>136140</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="O40" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20694,7 +21091,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>21</v>
@@ -20706,33 +21103,33 @@
         <v>1E-006</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>0.094978</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>0.95674</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>752</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>4174</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>39773</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="O41" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>0.088775</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>0.88636</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>1443</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>14636</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>150230</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="O41" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20741,7 +21138,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>21</v>
@@ -20753,34 +21150,34 @@
         <v>1E-006</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>0.040276</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <v>0.9402</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <v>739</v>
-      </c>
-      <c r="L42" s="0" t="n">
-        <v>1770</v>
-      </c>
-      <c r="M42" s="0" t="n">
-        <v>42177</v>
-      </c>
-      <c r="N42" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="O42" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>0.078448</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>0.85074</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>1385</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>12906</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>151610</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20788,7 +21185,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>21</v>
@@ -20800,33 +21197,33 @@
         <v>1E-006</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>0.16588</v>
-      </c>
-      <c r="J43" s="0" t="n">
-        <v>0.93384</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <v>734</v>
-      </c>
-      <c r="L43" s="0" t="n">
-        <v>7290</v>
-      </c>
-      <c r="M43" s="0" t="n">
-        <v>36657</v>
-      </c>
-      <c r="N43" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="O43" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>0.048748</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>0.91892</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>1496</v>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v>8037</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>156830</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="O43" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20835,7 +21232,7 @@
         <v>23</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>21</v>
@@ -20847,34 +21244,34 @@
         <v>1E-006</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>0.96438</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <v>758</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>4465</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>39482</v>
-      </c>
-      <c r="N44" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>0.086863</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>0.92616</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>1016</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>9837</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>103410</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20882,7 +21279,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>21</v>
@@ -20894,33 +21291,33 @@
         <v>1E-006</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>0.098277</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>0.96438</v>
-      </c>
-      <c r="K45" s="0" t="n">
-        <v>758</v>
-      </c>
-      <c r="L45" s="0" t="n">
-        <v>4319</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>39628</v>
-      </c>
-      <c r="N45" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="O45" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>0.073233</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>0.95169</v>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>1044</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>8319</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>105280</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="O45" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20929,7 +21326,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>21</v>
@@ -20941,33 +21338,456 @@
         <v>1E-006</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>0.19769</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>0.92069</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>1010</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>22457</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>91140</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" s="2" t="n">
+      <c r="G47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>0.098506</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>0.92981</v>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L47" s="2" t="n">
+        <v>11190</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>102410</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>0.087093</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>0.89973</v>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>987</v>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v>9863</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>103380</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>0.054482</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>0.95351</v>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>1046</v>
+      </c>
+      <c r="L49" s="2" t="n">
+        <v>6189</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>107410</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I50" s="2" t="n">
+        <v>0.094978</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>0.95674</v>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>752</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>4174</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>39773</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>0.040276</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>0.9402</v>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>739</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>1770</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>42177</v>
+      </c>
+      <c r="N51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>0.16588</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>0.93384</v>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>734</v>
+      </c>
+      <c r="L52" s="2" t="n">
+        <v>7290</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>36657</v>
+      </c>
+      <c r="N52" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="O52" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>0.96438</v>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>758</v>
+      </c>
+      <c r="L53" s="2" t="n">
+        <v>4465</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>39482</v>
+      </c>
+      <c r="N53" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="O53" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>0.098277</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>0.96438</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>758</v>
+      </c>
+      <c r="L54" s="2" t="n">
+        <v>4319</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>39628</v>
+      </c>
+      <c r="N54" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="O54" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I55" s="2" t="n">
         <v>0.055977</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J55" s="2" t="n">
         <v>0.97201</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K55" s="2" t="n">
         <v>764</v>
       </c>
-      <c r="L46" s="0" t="n">
+      <c r="L55" s="2" t="n">
         <v>2460</v>
       </c>
-      <c r="M46" s="0" t="n">
+      <c r="M55" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="N46" s="0" t="n">
+      <c r="N55" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="O46" s="0" t="n">
+      <c r="O55" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Single Classification" sheetId="1" state="visible" r:id="rId2"/>
@@ -237,7 +237,7 @@
   <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="1" sqref="I11:O19 E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8506,7 +8506,7 @@
   <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="I11:O19 D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16773,8 +16773,8 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17290,6 +17290,27 @@
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I11" s="2" t="n">
+        <v>0.93848</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0.67326</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>1090</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>154740</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>10143</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>529</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -17316,6 +17337,27 @@
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I12" s="2" t="n">
+        <v>0.94503</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0.65164</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>1055</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>155820</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>9063</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>564</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -17342,6 +17384,27 @@
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
+      <c r="I13" s="2" t="n">
+        <v>0.94964</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0.64978</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>1052</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>156580</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>8304</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>567</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -17368,6 +17431,27 @@
       <c r="H14" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I14" s="2" t="n">
+        <v>0.9284</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0.65751</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>718</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>105480</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>8135</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -17394,6 +17478,27 @@
       <c r="H15" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I15" s="2" t="n">
+        <v>0.93647</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0.64652</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>706</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>106390</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>7218</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -17420,6 +17525,27 @@
       <c r="H16" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="I16" s="2" t="n">
+        <v>0.94192</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>0.64652</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>706</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>107010</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>6599</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -17446,6 +17572,27 @@
       <c r="H17" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I17" s="2" t="n">
+        <v>0.90548</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>0.54464</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>427</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>39804</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>4155</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -17472,6 +17619,27 @@
       <c r="H18" s="2" t="n">
         <v>70</v>
       </c>
+      <c r="I18" s="2" t="n">
+        <v>0.9156</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0.53571</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>420</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>40249</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>3710</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>364</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -17499,25 +17667,25 @@
         <v>70</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.83028</v>
+        <v>0.92488</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.66975</v>
+        <v>0.54082</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1377</v>
+        <v>424</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>475370</v>
+        <v>40657</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>97173</v>
+        <v>3302</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>679</v>
+        <v>360</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19183,8 +19351,8 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="I11:O19 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Single Classification" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="34">
   <si>
     <t>Network</t>
   </si>
@@ -237,7 +237,7 @@
   <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="1" sqref="I11:O19 E16"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="1" sqref="I20:O55 E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8506,7 +8506,7 @@
   <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="I11:O19 D13"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="I20:O55 D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16771,10 +16771,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11:O19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E45" activeCellId="1" sqref="I20:O55 E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17714,25 +17714,25 @@
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.62253</v>
+        <v>0.83028</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.76706</v>
+        <v>0.66975</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1574</v>
+        <v>1377</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>354490</v>
+        <v>475370</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>214950</v>
+        <v>97173</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>478</v>
+        <v>679</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>3686</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17740,7 +17740,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
@@ -17761,25 +17761,25 @@
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.8515</v>
+        <v>0.62253</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.70662</v>
+        <v>0.76706</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1409</v>
+        <v>1574</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>474530</v>
+        <v>354490</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>82755</v>
+        <v>214950</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>585</v>
+        <v>478</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>15898</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17808,25 +17808,25 @@
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.74258</v>
+        <v>0.8515</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.61921</v>
+        <v>0.70662</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1257</v>
+        <v>1409</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>419760</v>
+        <v>474530</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>145520</v>
+        <v>82755</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>773</v>
+        <v>585</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>7872</v>
+        <v>15898</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17834,7 +17834,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
@@ -17855,25 +17855,25 @@
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.79749</v>
+        <v>0.74258</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.52734</v>
+        <v>0.61921</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1032</v>
+        <v>1257</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>449320</v>
+        <v>419760</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>114100</v>
+        <v>145520</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>925</v>
+        <v>773</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>9800</v>
+        <v>7872</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17902,25 +17902,25 @@
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.80607</v>
+        <v>0.79749</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.69298</v>
+        <v>0.52734</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1422</v>
+        <v>1032</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>461490</v>
+        <v>449320</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>111030</v>
+        <v>114100</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>630</v>
+        <v>925</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>601</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17928,7 +17928,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>21</v>
@@ -17946,28 +17946,28 @@
         <v>16</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.83186</v>
+        <v>0.80607</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.68431</v>
+        <v>0.69298</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1073</v>
+        <v>1422</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>450920</v>
+        <v>461490</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>91143</v>
+        <v>111030</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>495</v>
+        <v>630</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>542</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17996,25 +17996,25 @@
         <v>50</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.6242</v>
+        <v>0.83186</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.77955</v>
+        <v>0.68431</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1220</v>
+        <v>1073</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>336500</v>
+        <v>450920</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>202600</v>
+        <v>91143</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>345</v>
+        <v>495</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>3505</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18022,7 +18022,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>21</v>
@@ -18043,25 +18043,25 @@
         <v>50</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.85265</v>
+        <v>0.6242</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.72164</v>
+        <v>0.77955</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1094</v>
+        <v>1220</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>449780</v>
+        <v>336500</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>77730</v>
+        <v>202600</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>422</v>
+        <v>345</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>15147</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18069,7 +18069,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>21</v>
@@ -18090,25 +18090,25 @@
         <v>50</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.74404</v>
+        <v>0.85265</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.62944</v>
+        <v>0.72164</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>975</v>
+        <v>1094</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>398180</v>
+        <v>449780</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>136980</v>
+        <v>77730</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>574</v>
+        <v>422</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>7460</v>
+        <v>15147</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18116,7 +18116,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>21</v>
@@ -18137,25 +18137,25 @@
         <v>50</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.79837</v>
+        <v>0.74404</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.53449</v>
+        <v>0.62944</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>798</v>
+        <v>975</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>425740</v>
+        <v>398180</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>107520</v>
+        <v>136980</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>695</v>
+        <v>574</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>9412</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18184,25 +18184,25 @@
         <v>50</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.80786</v>
+        <v>0.79837</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.7016</v>
+        <v>0.53449</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1098</v>
+        <v>798</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>437900</v>
+        <v>425740</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>104150</v>
+        <v>107520</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>467</v>
+        <v>695</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>564</v>
+        <v>9412</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18210,7 +18210,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>21</v>
@@ -18228,28 +18228,28 @@
         <v>16</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.8187</v>
+        <v>0.80786</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.6902</v>
+        <v>0.7016</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>704</v>
+        <v>1098</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>206230</v>
+        <v>437900</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>45669</v>
+        <v>104150</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>316</v>
+        <v>467</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>291</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18278,25 +18278,25 @@
         <v>70</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.57995</v>
+        <v>0.8187</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.78193</v>
+        <v>0.6902</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>796</v>
+        <v>704</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>145260</v>
+        <v>206230</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>105210</v>
+        <v>45669</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>1733</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18304,7 +18304,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>21</v>
@@ -18325,25 +18325,25 @@
         <v>70</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.8428</v>
+        <v>0.57995</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.72177</v>
+        <v>0.78193</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>716</v>
+        <v>796</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>205620</v>
+        <v>145260</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>38352</v>
+        <v>105210</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>8252</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18351,7 +18351,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>21</v>
@@ -18372,25 +18372,25 @@
         <v>70</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.70045</v>
+        <v>0.8428</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.63284</v>
+        <v>0.72177</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>636</v>
+        <v>716</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>173860</v>
+        <v>205620</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>74352</v>
+        <v>38352</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>369</v>
+        <v>276</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>3992</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18398,7 +18398,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>21</v>
@@ -18419,25 +18419,25 @@
         <v>70</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.75219</v>
+        <v>0.70045</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.54912</v>
+        <v>0.63284</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>531</v>
+        <v>636</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>185850</v>
+        <v>173860</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>61228</v>
+        <v>74352</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>5170</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18466,25 +18466,25 @@
         <v>70</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.78803</v>
+        <v>0.75219</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.70854</v>
+        <v>0.54912</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>722</v>
+        <v>531</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>198510</v>
+        <v>185850</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>53397</v>
+        <v>61228</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>297</v>
+        <v>436</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>283</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18492,7 +18492,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>21</v>
@@ -18510,28 +18510,28 @@
         <v>30</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.12819</v>
+        <v>0.78803</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.79159</v>
+        <v>0.70854</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1280</v>
+        <v>722</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>21003</v>
+        <v>198510</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>142840</v>
+        <v>53397</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>1047</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18560,25 +18560,25 @@
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.14132</v>
+        <v>0.12819</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.91579</v>
+        <v>0.79159</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1479</v>
+        <v>1280</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>23267</v>
+        <v>21003</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>141380</v>
+        <v>142840</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>136</v>
+        <v>337</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>248</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18586,7 +18586,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>21</v>
@@ -18607,25 +18607,25 @@
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.20739</v>
+        <v>0.14132</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.88329</v>
+        <v>0.91579</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1385</v>
+        <v>1479</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>33277</v>
+        <v>23267</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>127180</v>
+        <v>141380</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>4480</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18654,25 +18654,25 @@
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.14023</v>
+        <v>0.20739</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.80334</v>
+        <v>0.88329</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1299</v>
+        <v>1385</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>23051</v>
+        <v>33277</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>141330</v>
+        <v>127180</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>318</v>
+        <v>183</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>507</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18680,7 +18680,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>21</v>
@@ -18701,25 +18701,25 @@
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.12598</v>
+        <v>0.14023</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.78049</v>
+        <v>0.80334</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1248</v>
+        <v>1299</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>20610</v>
+        <v>23051</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>142990</v>
+        <v>141330</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>1309</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18748,25 +18748,25 @@
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.10999</v>
+        <v>0.12598</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.84706</v>
+        <v>0.78049</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1368</v>
+        <v>1248</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>18117</v>
+        <v>20610</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>146590</v>
+        <v>142990</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>247</v>
+        <v>351</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>180</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18774,7 +18774,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>21</v>
@@ -18792,28 +18792,28 @@
         <v>30</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.14121</v>
+        <v>0.10999</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.82936</v>
+        <v>0.84706</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>904</v>
+        <v>1368</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>15922</v>
+        <v>18117</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>96829</v>
+        <v>146590</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>863</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18842,25 +18842,25 @@
         <v>50</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0.15424</v>
+        <v>0.14121</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>0.92018</v>
+        <v>0.82936</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>1003</v>
+        <v>904</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>17495</v>
+        <v>15922</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>95931</v>
+        <v>96829</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>188</v>
+        <v>863</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18868,7 +18868,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>21</v>
@@ -18889,25 +18889,25 @@
         <v>50</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0.22869</v>
+        <v>0.15424</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>0.89577</v>
+        <v>0.92018</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>954</v>
+        <v>1003</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>25213</v>
+        <v>17495</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>85039</v>
+        <v>95931</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>3387</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18915,7 +18915,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>21</v>
@@ -18936,25 +18936,25 @@
         <v>50</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0.15437</v>
+        <v>0.22869</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>0.84051</v>
+        <v>0.89577</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>917</v>
+        <v>954</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>17478</v>
+        <v>25213</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>95742</v>
+        <v>85039</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>393</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18962,7 +18962,7 @@
         <v>23</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>21</v>
@@ -18983,25 +18983,25 @@
         <v>50</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0.13918</v>
+        <v>0.15437</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>0.81961</v>
+        <v>0.84051</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>886</v>
+        <v>917</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>15666</v>
+        <v>17478</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>96897</v>
+        <v>95742</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>1060</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19030,25 +19030,25 @@
         <v>50</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0.12116</v>
+        <v>0.13918</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>0.87787</v>
+        <v>0.81961</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>956</v>
+        <v>886</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>13749</v>
+        <v>15666</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>99727</v>
+        <v>96897</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>139</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19056,7 +19056,7 @@
         <v>23</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>21</v>
@@ -19074,28 +19074,28 @@
         <v>30</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0.14686</v>
+        <v>0.12116</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>0.86335</v>
+        <v>0.87787</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>676</v>
+        <v>956</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>6423</v>
+        <v>13749</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>37313</v>
+        <v>99727</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>224</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19124,25 +19124,25 @@
         <v>70</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0.12839</v>
+        <v>0.14686</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>0.92219</v>
+        <v>0.86335</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>723</v>
+        <v>676</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>5633</v>
+        <v>6423</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>38242</v>
+        <v>37313</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>84</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19150,7 +19150,7 @@
         <v>23</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>21</v>
@@ -19171,25 +19171,25 @@
         <v>70</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0.20329</v>
+        <v>0.12839</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>0.90944</v>
+        <v>0.92219</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>703</v>
+        <v>723</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>8695</v>
+        <v>5633</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>34077</v>
+        <v>38242</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>1198</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19197,7 +19197,7 @@
         <v>23</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>21</v>
@@ -19218,25 +19218,25 @@
         <v>70</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>0.15664</v>
+        <v>0.20329</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>0.87484</v>
+        <v>0.90944</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>6868</v>
+        <v>8695</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>36978</v>
+        <v>34077</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>114</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19244,7 +19244,7 @@
         <v>23</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>21</v>
@@ -19265,25 +19265,25 @@
         <v>70</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0.14755</v>
+        <v>0.15664</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>0.86761</v>
+        <v>0.87484</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>6436</v>
+        <v>6868</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>37183</v>
+        <v>36978</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>346</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19312,25 +19312,1764 @@
         <v>70</v>
       </c>
       <c r="I54" s="2" t="n">
+        <v>0.14755</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>0.86761</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>675</v>
+      </c>
+      <c r="L54" s="2" t="n">
+        <v>6436</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>37183</v>
+      </c>
+      <c r="N54" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="O54" s="2" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I55" s="2" t="n">
         <v>0.12423</v>
       </c>
-      <c r="J54" s="2" t="n">
+      <c r="J55" s="2" t="n">
         <v>0.90421</v>
       </c>
-      <c r="K54" s="2" t="n">
+      <c r="K55" s="2" t="n">
         <v>708</v>
       </c>
-      <c r="L54" s="2" t="n">
+      <c r="L55" s="2" t="n">
         <v>5454</v>
       </c>
-      <c r="M54" s="2" t="n">
+      <c r="M55" s="2" t="n">
         <v>38448</v>
       </c>
-      <c r="N54" s="2" t="n">
+      <c r="N55" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="O54" s="2" t="n">
+      <c r="O55" s="2" t="n">
         <v>58</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>0.90807</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>0.63539</v>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>1307</v>
+      </c>
+      <c r="L56" s="2" t="n">
+        <v>518940</v>
+      </c>
+      <c r="M56" s="2" t="n">
+        <v>52537</v>
+      </c>
+      <c r="N56" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="O56" s="2" t="n">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>0.89869</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>0.64251</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>1321</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>514800</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>58034</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>735</v>
+      </c>
+      <c r="O57" s="2" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>0.85686</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>0.64411</v>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>1323</v>
+      </c>
+      <c r="L58" s="2" t="n">
+        <v>489790</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>81817</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>731</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>0.8765</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>0.68109</v>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>1401</v>
+      </c>
+      <c r="L59" s="2" t="n">
+        <v>502270</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>70773</v>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v>656</v>
+      </c>
+      <c r="O59" s="2" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>0.89701</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>0.63477</v>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L60" s="2" t="n">
+        <v>513040</v>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>58904</v>
+      </c>
+      <c r="N60" s="2" t="n">
+        <v>748</v>
+      </c>
+      <c r="O60" s="2" t="n">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>0.92823</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>0.62945</v>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>1291</v>
+      </c>
+      <c r="L61" s="2" t="n">
+        <v>526280</v>
+      </c>
+      <c r="M61" s="2" t="n">
+        <v>40690</v>
+      </c>
+      <c r="N61" s="2" t="n">
+        <v>760</v>
+      </c>
+      <c r="O61" s="2" t="n">
+        <v>6153</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>0.90962</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>0.64563</v>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>1013</v>
+      </c>
+      <c r="L62" s="2" t="n">
+        <v>492140</v>
+      </c>
+      <c r="M62" s="2" t="n">
+        <v>48899</v>
+      </c>
+      <c r="N62" s="2" t="n">
+        <v>556</v>
+      </c>
+      <c r="O62" s="2" t="n">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>0.89979</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>0.65115</v>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>1021</v>
+      </c>
+      <c r="L63" s="2" t="n">
+        <v>487990</v>
+      </c>
+      <c r="M63" s="2" t="n">
+        <v>54345</v>
+      </c>
+      <c r="N63" s="2" t="n">
+        <v>547</v>
+      </c>
+      <c r="O63" s="2" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>0.85877</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>0.65517</v>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>1026</v>
+      </c>
+      <c r="L64" s="2" t="n">
+        <v>464740</v>
+      </c>
+      <c r="M64" s="2" t="n">
+        <v>76432</v>
+      </c>
+      <c r="N64" s="2" t="n">
+        <v>540</v>
+      </c>
+      <c r="O64" s="2" t="n">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>0.87816</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>0.69216</v>
+      </c>
+      <c r="K65" s="2" t="n">
+        <v>1086</v>
+      </c>
+      <c r="L65" s="2" t="n">
+        <v>476420</v>
+      </c>
+      <c r="M65" s="2" t="n">
+        <v>66103</v>
+      </c>
+      <c r="N65" s="2" t="n">
+        <v>483</v>
+      </c>
+      <c r="O65" s="2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>0.89848</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>0.64597</v>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>1009</v>
+      </c>
+      <c r="L66" s="2" t="n">
+        <v>486500</v>
+      </c>
+      <c r="M66" s="2" t="n">
+        <v>54973</v>
+      </c>
+      <c r="N66" s="2" t="n">
+        <v>553</v>
+      </c>
+      <c r="O66" s="2" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>0.92976</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <v>0.64258</v>
+      </c>
+      <c r="K67" s="2" t="n">
+        <v>1005</v>
+      </c>
+      <c r="L67" s="2" t="n">
+        <v>499090</v>
+      </c>
+      <c r="M67" s="2" t="n">
+        <v>37707</v>
+      </c>
+      <c r="N67" s="2" t="n">
+        <v>559</v>
+      </c>
+      <c r="O67" s="2" t="n">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>0.90206</v>
+      </c>
+      <c r="J68" s="2" t="n">
+        <v>0.65098</v>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>664</v>
+      </c>
+      <c r="L68" s="2" t="n">
+        <v>226650</v>
+      </c>
+      <c r="M68" s="2" t="n">
+        <v>24609</v>
+      </c>
+      <c r="N68" s="2" t="n">
+        <v>356</v>
+      </c>
+      <c r="O68" s="2" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>0.90506</v>
+      </c>
+      <c r="J69" s="2" t="n">
+        <v>0.67353</v>
+      </c>
+      <c r="K69" s="2" t="n">
+        <v>687</v>
+      </c>
+      <c r="L69" s="2" t="n">
+        <v>228130</v>
+      </c>
+      <c r="M69" s="2" t="n">
+        <v>23931</v>
+      </c>
+      <c r="N69" s="2" t="n">
+        <v>333</v>
+      </c>
+      <c r="O69" s="2" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>0.84828</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <v>0.66994</v>
+      </c>
+      <c r="K70" s="2" t="n">
+        <v>682</v>
+      </c>
+      <c r="L70" s="2" t="n">
+        <v>213280</v>
+      </c>
+      <c r="M70" s="2" t="n">
+        <v>38146</v>
+      </c>
+      <c r="N70" s="2" t="n">
+        <v>336</v>
+      </c>
+      <c r="O70" s="2" t="n">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>0.87153</v>
+      </c>
+      <c r="J71" s="2" t="n">
+        <v>0.70294</v>
+      </c>
+      <c r="K71" s="2" t="n">
+        <v>717</v>
+      </c>
+      <c r="L71" s="2" t="n">
+        <v>219760</v>
+      </c>
+      <c r="M71" s="2" t="n">
+        <v>32394</v>
+      </c>
+      <c r="N71" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="O71" s="2" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>0.89134</v>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>0.65585</v>
+      </c>
+      <c r="K72" s="2" t="n">
+        <v>667</v>
+      </c>
+      <c r="L72" s="2" t="n">
+        <v>224230</v>
+      </c>
+      <c r="M72" s="2" t="n">
+        <v>27334</v>
+      </c>
+      <c r="N72" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="O72" s="2" t="n">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>0.93104</v>
+      </c>
+      <c r="J73" s="2" t="n">
+        <v>0.65782</v>
+      </c>
+      <c r="K73" s="2" t="n">
+        <v>669</v>
+      </c>
+      <c r="L73" s="2" t="n">
+        <v>231770</v>
+      </c>
+      <c r="M73" s="2" t="n">
+        <v>17168</v>
+      </c>
+      <c r="N73" s="2" t="n">
+        <v>348</v>
+      </c>
+      <c r="O73" s="2" t="n">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>0.1637</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <v>0.84653</v>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>1368</v>
+      </c>
+      <c r="L74" s="2" t="n">
+        <v>26950</v>
+      </c>
+      <c r="M74" s="2" t="n">
+        <v>137680</v>
+      </c>
+      <c r="N74" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="O74" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I75" s="2" t="n">
+        <v>0.1407</v>
+      </c>
+      <c r="J75" s="2" t="n">
+        <v>0.73144</v>
+      </c>
+      <c r="K75" s="2" t="n">
+        <v>1182</v>
+      </c>
+      <c r="L75" s="2" t="n">
+        <v>23074</v>
+      </c>
+      <c r="M75" s="2" t="n">
+        <v>140920</v>
+      </c>
+      <c r="N75" s="2" t="n">
+        <v>434</v>
+      </c>
+      <c r="O75" s="2" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>0.14975</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <v>0.78973</v>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>1277</v>
+      </c>
+      <c r="L76" s="2" t="n">
+        <v>24673</v>
+      </c>
+      <c r="M76" s="2" t="n">
+        <v>140080</v>
+      </c>
+      <c r="N76" s="2" t="n">
+        <v>340</v>
+      </c>
+      <c r="O76" s="2" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>0.14238</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>0.83385</v>
+      </c>
+      <c r="K77" s="2" t="n">
+        <v>1350</v>
+      </c>
+      <c r="L77" s="2" t="n">
+        <v>23473</v>
+      </c>
+      <c r="M77" s="2" t="n">
+        <v>141390</v>
+      </c>
+      <c r="N77" s="2" t="n">
+        <v>269</v>
+      </c>
+      <c r="O77" s="2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>0.15882</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>0.82015</v>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>1327</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>26163</v>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>138580</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>291</v>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>0.17948</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>0.83106</v>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>1338</v>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>29324</v>
+      </c>
+      <c r="M79" s="2" t="n">
+        <v>134060</v>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="O79" s="2" t="n">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>0.18125</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>0.87076</v>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>950</v>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>20558</v>
+      </c>
+      <c r="M80" s="2" t="n">
+        <v>92866</v>
+      </c>
+      <c r="N80" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="O80" s="2" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>0.15552</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>0.77135</v>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>840</v>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>17553</v>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>95311</v>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>0.16528</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>0.82676</v>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>902</v>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>18761</v>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>94746</v>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>0.15842</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>0.85714</v>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>936</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>17996</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>95600</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>0.17604</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>0.84785</v>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>925</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>19980</v>
+      </c>
+      <c r="M84" s="2" t="n">
+        <v>93520</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>0.19879</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>0.85635</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>930</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>22359</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>90119</v>
+      </c>
+      <c r="N85" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>0.17488</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>0.89527</v>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>701</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>7679</v>
+      </c>
+      <c r="M86" s="2" t="n">
+        <v>36231</v>
+      </c>
+      <c r="N86" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>0.16003</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>0.80563</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>630</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>7007</v>
+      </c>
+      <c r="M87" s="2" t="n">
+        <v>36778</v>
+      </c>
+      <c r="N87" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>0.16455</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>0.85842</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>673</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>7228</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>36698</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>0.15127</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>0.88265</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>692</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>6649</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>37305</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>0.17228</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>0.87995</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>689</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>7569</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>36365</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>0.18704</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>0.87821</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>685</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>8153</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <v>35436</v>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -19349,10 +21088,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="I11:O19 C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20:O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -20284,7 +22023,7 @@
         <v>1E-006</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>16</v>
@@ -20331,7 +22070,7 @@
         <v>1E-006</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>16</v>
@@ -20378,7 +22117,7 @@
         <v>1E-006</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>16</v>
@@ -20425,7 +22164,7 @@
         <v>1E-006</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>16</v>
@@ -20472,7 +22211,7 @@
         <v>1E-006</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>16</v>
@@ -20519,7 +22258,7 @@
         <v>1E-006</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>16</v>
@@ -20566,7 +22305,7 @@
         <v>1E-006</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>16</v>
@@ -20613,7 +22352,7 @@
         <v>1E-006</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>16</v>
@@ -20648,7 +22387,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>21</v>
@@ -20660,7 +22399,7 @@
         <v>1E-006</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>16</v>
@@ -20695,7 +22434,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>21</v>
@@ -20707,7 +22446,7 @@
         <v>1E-006</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>16</v>
@@ -20754,7 +22493,7 @@
         <v>1E-006</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>16</v>
@@ -20801,7 +22540,7 @@
         <v>1E-006</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>16</v>
@@ -20848,7 +22587,7 @@
         <v>1E-006</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>16</v>
@@ -20895,7 +22634,7 @@
         <v>1E-006</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>16</v>
@@ -20930,7 +22669,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>21</v>
@@ -20942,7 +22681,7 @@
         <v>1E-006</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>16</v>
@@ -20977,7 +22716,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>21</v>
@@ -20989,7 +22728,7 @@
         <v>1E-006</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>16</v>
@@ -21036,7 +22775,7 @@
         <v>1E-006</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>16</v>
@@ -21083,10 +22822,10 @@
         <v>1E-006</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>70</v>
@@ -21130,7 +22869,7 @@
         <v>1E-006</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>30</v>
@@ -21177,7 +22916,7 @@
         <v>1E-006</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>30</v>
@@ -21224,7 +22963,7 @@
         <v>1E-006</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>30</v>
@@ -21271,7 +23010,7 @@
         <v>1E-006</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>30</v>
@@ -21318,7 +23057,7 @@
         <v>1E-006</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>30</v>
@@ -21365,7 +23104,7 @@
         <v>1E-006</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>30</v>
@@ -21412,7 +23151,7 @@
         <v>1E-006</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>30</v>
@@ -21459,7 +23198,7 @@
         <v>1E-006</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>30</v>
@@ -21494,7 +23233,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>21</v>
@@ -21506,7 +23245,7 @@
         <v>1E-006</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>30</v>
@@ -21541,7 +23280,7 @@
         <v>23</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>21</v>
@@ -21553,7 +23292,7 @@
         <v>1E-006</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>30</v>
@@ -21600,7 +23339,7 @@
         <v>1E-006</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>30</v>
@@ -21647,7 +23386,7 @@
         <v>1E-006</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>30</v>
@@ -21694,7 +23433,7 @@
         <v>1E-006</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>30</v>
@@ -21741,7 +23480,7 @@
         <v>1E-006</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>30</v>
@@ -21776,7 +23515,7 @@
         <v>23</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>21</v>
@@ -21788,7 +23527,7 @@
         <v>1E-006</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>30</v>
@@ -21823,7 +23562,7 @@
         <v>23</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>21</v>
@@ -21835,7 +23574,7 @@
         <v>1E-006</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>30</v>
@@ -21882,7 +23621,7 @@
         <v>1E-006</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>30</v>
@@ -21929,7 +23668,7 @@
         <v>1E-006</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>30</v>
@@ -21956,6 +23695,1698 @@
         <v>22</v>
       </c>
       <c r="O55" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>0.9733</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>0.66441</v>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>1374</v>
+      </c>
+      <c r="L56" s="2" t="n">
+        <v>557800</v>
+      </c>
+      <c r="M56" s="2" t="n">
+        <v>15303</v>
+      </c>
+      <c r="N56" s="2" t="n">
+        <v>694</v>
+      </c>
+      <c r="O56" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>0.97031</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>0.66441</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>1374</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>556080</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>17016</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>694</v>
+      </c>
+      <c r="O57" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>0.94381</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>0.65039</v>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>1345</v>
+      </c>
+      <c r="L58" s="2" t="n">
+        <v>540900</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>32200</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>723</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>0.95847</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>0.71422</v>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>1477</v>
+      </c>
+      <c r="L59" s="2" t="n">
+        <v>549300</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>23800</v>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v>591</v>
+      </c>
+      <c r="O59" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>0.96908</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>0.65812</v>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>1361</v>
+      </c>
+      <c r="L60" s="2" t="n">
+        <v>555380</v>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>17719</v>
+      </c>
+      <c r="N60" s="2" t="n">
+        <v>707</v>
+      </c>
+      <c r="O60" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>0.97994</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>0.63685</v>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>1317</v>
+      </c>
+      <c r="L61" s="2" t="n">
+        <v>561600</v>
+      </c>
+      <c r="M61" s="2" t="n">
+        <v>11498</v>
+      </c>
+      <c r="N61" s="2" t="n">
+        <v>751</v>
+      </c>
+      <c r="O61" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>0.97501</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>0.66815</v>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>1053</v>
+      </c>
+      <c r="L62" s="2" t="n">
+        <v>529020</v>
+      </c>
+      <c r="M62" s="2" t="n">
+        <v>13559</v>
+      </c>
+      <c r="N62" s="2" t="n">
+        <v>523</v>
+      </c>
+      <c r="O62" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>0.97054</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>0.66878</v>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>1054</v>
+      </c>
+      <c r="L63" s="2" t="n">
+        <v>526600</v>
+      </c>
+      <c r="M63" s="2" t="n">
+        <v>15983</v>
+      </c>
+      <c r="N63" s="2" t="n">
+        <v>522</v>
+      </c>
+      <c r="O63" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>0.94566</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>0.66117</v>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>1042</v>
+      </c>
+      <c r="L64" s="2" t="n">
+        <v>513100</v>
+      </c>
+      <c r="M64" s="2" t="n">
+        <v>29482</v>
+      </c>
+      <c r="N64" s="2" t="n">
+        <v>534</v>
+      </c>
+      <c r="O64" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>0.96003</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>0.72779</v>
+      </c>
+      <c r="K65" s="2" t="n">
+        <v>1147</v>
+      </c>
+      <c r="L65" s="2" t="n">
+        <v>520900</v>
+      </c>
+      <c r="M65" s="2" t="n">
+        <v>21687</v>
+      </c>
+      <c r="N65" s="2" t="n">
+        <v>429</v>
+      </c>
+      <c r="O65" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>0.97071</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>0.66751</v>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>1052</v>
+      </c>
+      <c r="L66" s="2" t="n">
+        <v>526690</v>
+      </c>
+      <c r="M66" s="2" t="n">
+        <v>15891</v>
+      </c>
+      <c r="N66" s="2" t="n">
+        <v>524</v>
+      </c>
+      <c r="O66" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>0.9813</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <v>0.6453</v>
+      </c>
+      <c r="K67" s="2" t="n">
+        <v>1017</v>
+      </c>
+      <c r="L67" s="2" t="n">
+        <v>532440</v>
+      </c>
+      <c r="M67" s="2" t="n">
+        <v>10145</v>
+      </c>
+      <c r="N67" s="2" t="n">
+        <v>559</v>
+      </c>
+      <c r="O67" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>0.97457</v>
+      </c>
+      <c r="J68" s="2" t="n">
+        <v>0.66373</v>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="L68" s="2" t="n">
+        <v>245770</v>
+      </c>
+      <c r="M68" s="2" t="n">
+        <v>6413</v>
+      </c>
+      <c r="N68" s="2" t="n">
+        <v>344</v>
+      </c>
+      <c r="O68" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>0.98239</v>
+      </c>
+      <c r="J69" s="2" t="n">
+        <v>0.7175</v>
+      </c>
+      <c r="K69" s="2" t="n">
+        <v>734</v>
+      </c>
+      <c r="L69" s="2" t="n">
+        <v>247740</v>
+      </c>
+      <c r="M69" s="2" t="n">
+        <v>4442</v>
+      </c>
+      <c r="N69" s="2" t="n">
+        <v>289</v>
+      </c>
+      <c r="O69" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>0.94661</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <v>0.67546</v>
+      </c>
+      <c r="K70" s="2" t="n">
+        <v>691</v>
+      </c>
+      <c r="L70" s="2" t="n">
+        <v>238720</v>
+      </c>
+      <c r="M70" s="2" t="n">
+        <v>13463</v>
+      </c>
+      <c r="N70" s="2" t="n">
+        <v>332</v>
+      </c>
+      <c r="O70" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>0.96353</v>
+      </c>
+      <c r="J71" s="2" t="n">
+        <v>0.73607</v>
+      </c>
+      <c r="K71" s="2" t="n">
+        <v>753</v>
+      </c>
+      <c r="L71" s="2" t="n">
+        <v>242980</v>
+      </c>
+      <c r="M71" s="2" t="n">
+        <v>9198</v>
+      </c>
+      <c r="N71" s="2" t="n">
+        <v>270</v>
+      </c>
+      <c r="O71" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>0.97226</v>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>0.67058</v>
+      </c>
+      <c r="K72" s="2" t="n">
+        <v>686</v>
+      </c>
+      <c r="L72" s="2" t="n">
+        <v>245180</v>
+      </c>
+      <c r="M72" s="2" t="n">
+        <v>6996</v>
+      </c>
+      <c r="N72" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="O72" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>0.98469</v>
+      </c>
+      <c r="J73" s="2" t="n">
+        <v>0.66569</v>
+      </c>
+      <c r="K73" s="2" t="n">
+        <v>681</v>
+      </c>
+      <c r="L73" s="2" t="n">
+        <v>248320</v>
+      </c>
+      <c r="M73" s="2" t="n">
+        <v>3860</v>
+      </c>
+      <c r="N73" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="O73" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>0.10836</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <v>0.92629</v>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>1508</v>
+      </c>
+      <c r="L74" s="2" t="n">
+        <v>17865</v>
+      </c>
+      <c r="M74" s="2" t="n">
+        <v>147000</v>
+      </c>
+      <c r="N74" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="O74" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I75" s="2" t="n">
+        <v>0.087455</v>
+      </c>
+      <c r="J75" s="2" t="n">
+        <v>0.82125</v>
+      </c>
+      <c r="K75" s="2" t="n">
+        <v>1337</v>
+      </c>
+      <c r="L75" s="2" t="n">
+        <v>14388</v>
+      </c>
+      <c r="M75" s="2" t="n">
+        <v>150130</v>
+      </c>
+      <c r="N75" s="2" t="n">
+        <v>291</v>
+      </c>
+      <c r="O75" s="2" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>0.094403</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <v>0.87654</v>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>1427</v>
+      </c>
+      <c r="L76" s="2" t="n">
+        <v>15564</v>
+      </c>
+      <c r="M76" s="2" t="n">
+        <v>149300</v>
+      </c>
+      <c r="N76" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="O76" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>0.079525</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>0.93366</v>
+      </c>
+      <c r="K77" s="2" t="n">
+        <v>1520</v>
+      </c>
+      <c r="L77" s="2" t="n">
+        <v>13111</v>
+      </c>
+      <c r="M77" s="2" t="n">
+        <v>151760</v>
+      </c>
+      <c r="N77" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="O77" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>0.10301</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>0.90418</v>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>1472</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>16983</v>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>147880</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>0.13012</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>1488</v>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>21452</v>
+      </c>
+      <c r="M79" s="2" t="n">
+        <v>143420</v>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="O79" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>0.12184</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>0.94439</v>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>1036</v>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>13841</v>
+      </c>
+      <c r="M80" s="2" t="n">
+        <v>99756</v>
+      </c>
+      <c r="N80" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="O80" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>0.097264</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>0.88149</v>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>967</v>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>11015</v>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>102230</v>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>0.10506</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>0.9134</v>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>1002</v>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>11934</v>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>101660</v>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>0.0898</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>0.9526</v>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>1045</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>10201</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>103400</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>0.11592</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>0.93619</v>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>1027</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>13168</v>
+      </c>
+      <c r="M84" s="2" t="n">
+        <v>100430</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>0.14774</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>0.93254</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>1023</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>16783</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>96814</v>
+      </c>
+      <c r="N85" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>0.11589</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>0.95547</v>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>751</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>5093</v>
+      </c>
+      <c r="M86" s="2" t="n">
+        <v>38854</v>
+      </c>
+      <c r="N86" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>0.10394</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>0.91476</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>719</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>4568</v>
+      </c>
+      <c r="M87" s="2" t="n">
+        <v>39379</v>
+      </c>
+      <c r="N87" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>0.10665</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>0.94784</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>745</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>4687</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>39260</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>0.082076</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>0.95929</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>754</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>3607</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>40340</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>0.11352</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>0.95674</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>752</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>4989</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>38958</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>0.13239</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>0.9402</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>739</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>5818</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <v>38129</v>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="O91" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="35">
   <si>
     <t>Network</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>0.60077</t>
+  </si>
+  <si>
+    <t>92202.mat</t>
   </si>
   <si>
     <t>Number Neurons Network</t>
@@ -234,10 +237,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:N218"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="1" sqref="I20:O55 E16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H188" activeCellId="0" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8487,6 +8490,1349 @@
         <v>237</v>
       </c>
     </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G188" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G189" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H189" s="2" t="n">
+        <v>0.99388</v>
+      </c>
+      <c r="I189" s="2" t="n">
+        <v>0.12844</v>
+      </c>
+      <c r="J189" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="K189" s="2" t="n">
+        <v>123050</v>
+      </c>
+      <c r="L189" s="2" t="n">
+        <v>758</v>
+      </c>
+      <c r="M189" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="N189" s="2" t="n">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G190" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H190" s="2" t="n">
+        <v>0.95849</v>
+      </c>
+      <c r="I190" s="2" t="n">
+        <v>0.42373</v>
+      </c>
+      <c r="J190" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K190" s="2" t="n">
+        <v>118770</v>
+      </c>
+      <c r="L190" s="2" t="n">
+        <v>5144</v>
+      </c>
+      <c r="M190" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="N190" s="2" t="n">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G191" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H191" s="2" t="n">
+        <v>0.9557</v>
+      </c>
+      <c r="I191" s="2" t="n">
+        <v>0.39474</v>
+      </c>
+      <c r="J191" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="K191" s="2" t="n">
+        <v>117980</v>
+      </c>
+      <c r="L191" s="2" t="n">
+        <v>5468</v>
+      </c>
+      <c r="M191" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="N191" s="2" t="n">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G192" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H192" s="2" t="n">
+        <v>0.99902</v>
+      </c>
+      <c r="I192" s="2" t="n">
+        <v>0.11504</v>
+      </c>
+      <c r="J192" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="K192" s="2" t="n">
+        <v>124080</v>
+      </c>
+      <c r="L192" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="M192" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N192" s="2" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G193" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H193" s="2" t="n">
+        <v>0.92882</v>
+      </c>
+      <c r="I193" s="2" t="n">
+        <v>0.47788</v>
+      </c>
+      <c r="J193" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="K193" s="2" t="n">
+        <v>111170</v>
+      </c>
+      <c r="L193" s="2" t="n">
+        <v>8520</v>
+      </c>
+      <c r="M193" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="N193" s="2" t="n">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G194" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H194" s="2" t="n">
+        <v>0.97243</v>
+      </c>
+      <c r="I194" s="2" t="n">
+        <v>0.40517</v>
+      </c>
+      <c r="J194" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K194" s="2" t="n">
+        <v>120350</v>
+      </c>
+      <c r="L194" s="2" t="n">
+        <v>3412</v>
+      </c>
+      <c r="M194" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="N194" s="2" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G195" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H195" s="2" t="n">
+        <v>0.99395</v>
+      </c>
+      <c r="I195" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" s="2" t="n">
+        <v>123600</v>
+      </c>
+      <c r="L195" s="2" t="n">
+        <v>752</v>
+      </c>
+      <c r="M195" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="N195" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G196" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H196" s="2" t="n">
+        <v>0.99998</v>
+      </c>
+      <c r="I196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" s="2" t="n">
+        <v>124380</v>
+      </c>
+      <c r="L196" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M196" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="N196" s="2" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G197" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H197" s="2" t="n">
+        <v>0.22881</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="L197" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="M197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" s="2" t="n">
+        <v>124410</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G198" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H198" s="2" t="n">
+        <v>0.99888</v>
+      </c>
+      <c r="I198" s="2" t="n">
+        <v>0.17094</v>
+      </c>
+      <c r="J198" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K198" s="2" t="n">
+        <v>124100</v>
+      </c>
+      <c r="L198" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="M198" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="N198" s="2" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G199" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H199" s="2" t="n">
+        <v>0.63033</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" s="2" t="n">
+        <v>266</v>
+      </c>
+      <c r="L199" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="M199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" s="2" t="n">
+        <v>124100</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G200" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H200" s="2" t="n">
+        <v>0.99395</v>
+      </c>
+      <c r="I200" s="2" t="n">
+        <v>0.044944</v>
+      </c>
+      <c r="J200" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K200" s="2" t="n">
+        <v>121800</v>
+      </c>
+      <c r="L200" s="2" t="n">
+        <v>741</v>
+      </c>
+      <c r="M200" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="N200" s="2" t="n">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G201" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H201" s="2" t="n">
+        <v>0.9097</v>
+      </c>
+      <c r="I201" s="2" t="n">
+        <v>0.23684</v>
+      </c>
+      <c r="J201" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="K201" s="2" t="n">
+        <v>112430</v>
+      </c>
+      <c r="L201" s="2" t="n">
+        <v>11160</v>
+      </c>
+      <c r="M201" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="N201" s="2" t="n">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D202" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G202" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H202" s="2" t="n">
+        <v>0.86337</v>
+      </c>
+      <c r="I202" s="2" t="n">
+        <v>0.52137</v>
+      </c>
+      <c r="J202" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="K202" s="2" t="n">
+        <v>106620</v>
+      </c>
+      <c r="L202" s="2" t="n">
+        <v>16872</v>
+      </c>
+      <c r="M202" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="N202" s="2" t="n">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D203" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G203" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H203" s="2" t="n">
+        <v>0.54792</v>
+      </c>
+      <c r="I203" s="2" t="n">
+        <v>0.61864</v>
+      </c>
+      <c r="J203" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="K203" s="2" t="n">
+        <v>68163</v>
+      </c>
+      <c r="L203" s="2" t="n">
+        <v>56241</v>
+      </c>
+      <c r="M203" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N203" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G204" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H204" s="2" t="n">
+        <v>0.99437</v>
+      </c>
+      <c r="I204" s="2" t="n">
+        <v>0.035398</v>
+      </c>
+      <c r="J204" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K204" s="2" t="n">
+        <v>122140</v>
+      </c>
+      <c r="L204" s="2" t="n">
+        <v>691</v>
+      </c>
+      <c r="M204" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="N204" s="2" t="n">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G205" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H205" s="2" t="n">
+        <v>0.96302</v>
+      </c>
+      <c r="I205" s="2" t="n">
+        <v>0.36441</v>
+      </c>
+      <c r="J205" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="K205" s="2" t="n">
+        <v>119790</v>
+      </c>
+      <c r="L205" s="2" t="n">
+        <v>4600</v>
+      </c>
+      <c r="M205" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="N205" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G206" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H206" s="2" t="n">
+        <v>0.97116</v>
+      </c>
+      <c r="I206" s="2" t="n">
+        <v>0.35652</v>
+      </c>
+      <c r="J206" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="K206" s="2" t="n">
+        <v>120340</v>
+      </c>
+      <c r="L206" s="2" t="n">
+        <v>3573</v>
+      </c>
+      <c r="M206" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="N206" s="2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D207" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G207" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H207" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="K207" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="n">
+        <v>124400</v>
+      </c>
+      <c r="M207" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G208" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H208" s="2" t="n">
+        <v>0.99994</v>
+      </c>
+      <c r="I208" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" s="2" t="n">
+        <v>124390</v>
+      </c>
+      <c r="L208" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M208" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="N208" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G209" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H209" s="2" t="n">
+        <v>8.0386E-006</v>
+      </c>
+      <c r="I209" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="K209" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" s="2" t="n">
+        <v>124400</v>
+      </c>
+      <c r="M209" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G210" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H210" s="2" t="n">
+        <v>0.99998</v>
+      </c>
+      <c r="I210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" s="2" t="n">
+        <v>124390</v>
+      </c>
+      <c r="L210" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M210" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="N210" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G211" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J211" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" s="2" t="n">
+        <v>124520</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D212" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G212" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H212" s="2" t="n">
+        <v>0.96101</v>
+      </c>
+      <c r="I212" s="2" t="n">
+        <v>0.15929</v>
+      </c>
+      <c r="J212" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="K212" s="2" t="n">
+        <v>118860</v>
+      </c>
+      <c r="L212" s="2" t="n">
+        <v>4823</v>
+      </c>
+      <c r="M212" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="N212" s="2" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D213" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G213" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H213" s="2" t="n">
+        <v>0.88444</v>
+      </c>
+      <c r="I213" s="2" t="n">
+        <v>0.43103</v>
+      </c>
+      <c r="J213" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K213" s="2" t="n">
+        <v>108940</v>
+      </c>
+      <c r="L213" s="2" t="n">
+        <v>14234</v>
+      </c>
+      <c r="M213" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="N213" s="2" t="n">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D214" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G214" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H214" s="2" t="n">
+        <v>0.80212</v>
+      </c>
+      <c r="I214" s="2" t="n">
+        <v>0.38596</v>
+      </c>
+      <c r="J214" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="K214" s="2" t="n">
+        <v>95443</v>
+      </c>
+      <c r="L214" s="2" t="n">
+        <v>23546</v>
+      </c>
+      <c r="M214" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="N214" s="2" t="n">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D215" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G215" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H215" s="2" t="n">
+        <v>8.0386E-006</v>
+      </c>
+      <c r="I215" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="K215" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" s="2" t="n">
+        <v>124400</v>
+      </c>
+      <c r="M215" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D216" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G216" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H216" s="2" t="n">
+        <v>0.98527</v>
+      </c>
+      <c r="I216" s="2" t="n">
+        <v>0.15455</v>
+      </c>
+      <c r="J216" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="K216" s="2" t="n">
+        <v>122040</v>
+      </c>
+      <c r="L216" s="2" t="n">
+        <v>1825</v>
+      </c>
+      <c r="M216" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="N216" s="2" t="n">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D217" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G217" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H217" s="2" t="n">
+        <v>0.9508</v>
+      </c>
+      <c r="I217" s="2" t="n">
+        <v>0.44444</v>
+      </c>
+      <c r="J217" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="K217" s="2" t="n">
+        <v>117940</v>
+      </c>
+      <c r="L217" s="2" t="n">
+        <v>6103</v>
+      </c>
+      <c r="M217" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="N217" s="2" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D218" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G218" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H218" s="2" t="n">
+        <v>0.96045</v>
+      </c>
+      <c r="I218" s="2" t="n">
+        <v>0.44915</v>
+      </c>
+      <c r="J218" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="K218" s="2" t="n">
+        <v>119400</v>
+      </c>
+      <c r="L218" s="2" t="n">
+        <v>4917</v>
+      </c>
+      <c r="M218" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="N218" s="2" t="n">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8503,10 +9849,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:N218"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="I20:O55 D13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H188" activeCellId="0" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16755,6 +18101,1349 @@
         <v>0</v>
       </c>
     </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G188" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G189" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H189" s="2" t="n">
+        <v>0.99919</v>
+      </c>
+      <c r="I189" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" s="2" t="n">
+        <v>124220</v>
+      </c>
+      <c r="L189" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="M189" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N189" s="2" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G190" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H190" s="2" t="n">
+        <v>0.99249</v>
+      </c>
+      <c r="I190" s="2" t="n">
+        <v>0.38211</v>
+      </c>
+      <c r="J190" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K190" s="2" t="n">
+        <v>123440</v>
+      </c>
+      <c r="L190" s="2" t="n">
+        <v>934</v>
+      </c>
+      <c r="M190" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="N190" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G191" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H191" s="2" t="n">
+        <v>0.99329</v>
+      </c>
+      <c r="I191" s="2" t="n">
+        <v>0.23577</v>
+      </c>
+      <c r="J191" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="K191" s="2" t="n">
+        <v>123420</v>
+      </c>
+      <c r="L191" s="2" t="n">
+        <v>834</v>
+      </c>
+      <c r="M191" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="N191" s="2" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G192" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H192" s="2" t="n">
+        <v>0.99967</v>
+      </c>
+      <c r="I192" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" s="2" t="n">
+        <v>124350</v>
+      </c>
+      <c r="L192" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="M192" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N192" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G193" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H193" s="2" t="n">
+        <v>0.98592</v>
+      </c>
+      <c r="I193" s="2" t="n">
+        <v>0.5122</v>
+      </c>
+      <c r="J193" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="K193" s="2" t="n">
+        <v>122640</v>
+      </c>
+      <c r="L193" s="2" t="n">
+        <v>1752</v>
+      </c>
+      <c r="M193" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="N193" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G194" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H194" s="2" t="n">
+        <v>0.9968</v>
+      </c>
+      <c r="I194" s="2" t="n">
+        <v>0.39024</v>
+      </c>
+      <c r="J194" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="K194" s="2" t="n">
+        <v>123990</v>
+      </c>
+      <c r="L194" s="2" t="n">
+        <v>398</v>
+      </c>
+      <c r="M194" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="N194" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G195" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H195" s="2" t="n">
+        <v>0.99402</v>
+      </c>
+      <c r="I195" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" s="2" t="n">
+        <v>123650</v>
+      </c>
+      <c r="L195" s="2" t="n">
+        <v>744</v>
+      </c>
+      <c r="M195" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N195" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G196" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H196" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" s="2" t="n">
+        <v>124390</v>
+      </c>
+      <c r="L196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N196" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G197" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H197" s="2" t="n">
+        <v>0.86145</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" s="2" t="n">
+        <v>429</v>
+      </c>
+      <c r="L197" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="M197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" s="2" t="n">
+        <v>124020</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G198" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H198" s="2" t="n">
+        <v>0.99966</v>
+      </c>
+      <c r="I198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" s="2" t="n">
+        <v>124350</v>
+      </c>
+      <c r="L198" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="M198" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N198" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G199" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H199" s="2" t="n">
+        <v>0.93607</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" s="2" t="n">
+        <v>1713</v>
+      </c>
+      <c r="L199" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="M199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" s="2" t="n">
+        <v>122680</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G200" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H200" s="2" t="n">
+        <v>0.99961</v>
+      </c>
+      <c r="I200" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" s="2" t="n">
+        <v>124340</v>
+      </c>
+      <c r="L200" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="M200" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N200" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G201" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H201" s="2" t="n">
+        <v>0.95647</v>
+      </c>
+      <c r="I201" s="2" t="n">
+        <v>0.056911</v>
+      </c>
+      <c r="J201" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K201" s="2" t="n">
+        <v>118980</v>
+      </c>
+      <c r="L201" s="2" t="n">
+        <v>5415</v>
+      </c>
+      <c r="M201" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="N201" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D202" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G202" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H202" s="2" t="n">
+        <v>0.95391</v>
+      </c>
+      <c r="I202" s="2" t="n">
+        <v>0.60976</v>
+      </c>
+      <c r="J202" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="K202" s="2" t="n">
+        <v>118660</v>
+      </c>
+      <c r="L202" s="2" t="n">
+        <v>5733</v>
+      </c>
+      <c r="M202" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="N202" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D203" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G203" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H203" s="2" t="n">
+        <v>0.49905</v>
+      </c>
+      <c r="I203" s="2" t="n">
+        <v>0.82927</v>
+      </c>
+      <c r="J203" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="K203" s="2" t="n">
+        <v>62078</v>
+      </c>
+      <c r="L203" s="2" t="n">
+        <v>62314</v>
+      </c>
+      <c r="M203" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="N203" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G204" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H204" s="2" t="n">
+        <v>0.99947</v>
+      </c>
+      <c r="I204" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" s="2" t="n">
+        <v>123730</v>
+      </c>
+      <c r="L204" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="M204" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N204" s="2" t="n">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G205" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H205" s="2" t="n">
+        <v>0.99388</v>
+      </c>
+      <c r="I205" s="2" t="n">
+        <v>0.2439</v>
+      </c>
+      <c r="J205" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K205" s="2" t="n">
+        <v>123630</v>
+      </c>
+      <c r="L205" s="2" t="n">
+        <v>761</v>
+      </c>
+      <c r="M205" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="N205" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G206" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H206" s="2" t="n">
+        <v>0.99515</v>
+      </c>
+      <c r="I206" s="2" t="n">
+        <v>0.18699</v>
+      </c>
+      <c r="J206" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="K206" s="2" t="n">
+        <v>123790</v>
+      </c>
+      <c r="L206" s="2" t="n">
+        <v>603</v>
+      </c>
+      <c r="M206" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N206" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D207" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G207" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H207" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="K207" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="n">
+        <v>124390</v>
+      </c>
+      <c r="M207" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G208" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H208" s="2" t="n">
+        <v>0.99994</v>
+      </c>
+      <c r="I208" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" s="2" t="n">
+        <v>124380</v>
+      </c>
+      <c r="L208" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M208" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N208" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G209" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H209" s="2" t="n">
+        <v>4.8235E-005</v>
+      </c>
+      <c r="I209" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="K209" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L209" s="2" t="n">
+        <v>124390</v>
+      </c>
+      <c r="M209" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G210" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H210" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" s="2" t="n">
+        <v>124390</v>
+      </c>
+      <c r="L210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N210" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G211" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J211" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" s="2" t="n">
+        <v>124520</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D212" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G212" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H212" s="2" t="n">
+        <v>0.9965</v>
+      </c>
+      <c r="I212" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" s="2" t="n">
+        <v>123960</v>
+      </c>
+      <c r="L212" s="2" t="n">
+        <v>435</v>
+      </c>
+      <c r="M212" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N212" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D213" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G213" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H213" s="2" t="n">
+        <v>0.94245</v>
+      </c>
+      <c r="I213" s="2" t="n">
+        <v>0.49593</v>
+      </c>
+      <c r="J213" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="K213" s="2" t="n">
+        <v>117230</v>
+      </c>
+      <c r="L213" s="2" t="n">
+        <v>7159</v>
+      </c>
+      <c r="M213" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="N213" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D214" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G214" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H214" s="2" t="n">
+        <v>0.87987</v>
+      </c>
+      <c r="I214" s="2" t="n">
+        <v>0.30894</v>
+      </c>
+      <c r="J214" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="K214" s="2" t="n">
+        <v>107620</v>
+      </c>
+      <c r="L214" s="2" t="n">
+        <v>14694</v>
+      </c>
+      <c r="M214" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="N214" s="2" t="n">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D215" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G215" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H215" s="2" t="n">
+        <v>4.8235E-005</v>
+      </c>
+      <c r="I215" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="K215" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L215" s="2" t="n">
+        <v>124390</v>
+      </c>
+      <c r="M215" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D216" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G216" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H216" s="2" t="n">
+        <v>0.99895</v>
+      </c>
+      <c r="I216" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" s="2" t="n">
+        <v>124260</v>
+      </c>
+      <c r="L216" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="M216" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="N216" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D217" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G217" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H217" s="2" t="n">
+        <v>0.99327</v>
+      </c>
+      <c r="I217" s="2" t="n">
+        <v>0.45528</v>
+      </c>
+      <c r="J217" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="K217" s="2" t="n">
+        <v>123560</v>
+      </c>
+      <c r="L217" s="2" t="n">
+        <v>837</v>
+      </c>
+      <c r="M217" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="N217" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D218" s="3" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G218" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H218" s="2" t="n">
+        <v>0.99502</v>
+      </c>
+      <c r="I218" s="2" t="n">
+        <v>0.4878</v>
+      </c>
+      <c r="J218" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="K218" s="2" t="n">
+        <v>123770</v>
+      </c>
+      <c r="L218" s="2" t="n">
+        <v>620</v>
+      </c>
+      <c r="M218" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="N218" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -16773,8 +19462,8 @@
   </sheetPr>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E45" activeCellId="1" sqref="I20:O55 E45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16800,7 +19489,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -21090,24 +23779,23 @@
   </sheetPr>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20:O55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.6428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="19.3571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="17.1275510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.5816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="22.5510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.9234693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="13.1020408163265"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.6530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="22.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="19.3571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.1326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.1275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.5510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.90816326530612"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="2" width="13.0561224489796"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="14.6326530612245"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="14.1632653061225"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="2" width="11.5204081632653"/>
@@ -21118,7 +23806,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Single Classification" sheetId="1" state="visible" r:id="rId2"/>
@@ -239,8 +239,8 @@
   </sheetPr>
   <dimension ref="A1:N218"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H188" activeCellId="0" sqref="H188"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H188" activeCellId="0" sqref="H188:N188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8512,6 +8512,27 @@
       <c r="G188" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="H188" s="2" t="n">
+        <v>0.66287</v>
+      </c>
+      <c r="I188" s="2" t="n">
+        <v>0.70339</v>
+      </c>
+      <c r="J188" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="K188" s="2" t="n">
+        <v>82466</v>
+      </c>
+      <c r="L188" s="2" t="n">
+        <v>41941</v>
+      </c>
+      <c r="M188" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="N188" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
@@ -9851,8 +9872,8 @@
   </sheetPr>
   <dimension ref="A1:N218"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H188" activeCellId="0" sqref="H188"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H188" activeCellId="0" sqref="H188:N188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -18123,6 +18144,27 @@
       <c r="G188" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="H188" s="2" t="n">
+        <v>0.74893</v>
+      </c>
+      <c r="I188" s="2" t="n">
+        <v>0.86992</v>
+      </c>
+      <c r="J188" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="K188" s="2" t="n">
+        <v>93161</v>
+      </c>
+      <c r="L188" s="2" t="n">
+        <v>31231</v>
+      </c>
+      <c r="M188" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="N188" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
@@ -19463,7 +19505,7 @@
   <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
+      <selection pane="topLeft" activeCell="E45" activeCellId="1" sqref="H188:N188 E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -23779,8 +23821,8 @@
   </sheetPr>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="1" sqref="H188:N188 K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="215" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Single Classification" sheetId="1" state="visible" r:id="rId2"/>
@@ -239,8 +239,8 @@
   </sheetPr>
   <dimension ref="A1:N218"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H188" activeCellId="0" sqref="H188:N188"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H188" activeCellId="0" sqref="H188:H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9857,7 +9857,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="0" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -9872,8 +9872,8 @@
   </sheetPr>
   <dimension ref="A1:N218"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H188" activeCellId="0" sqref="H188:N188"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -19489,7 +19489,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="0" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -19504,8 +19504,8 @@
   </sheetPr>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E45" activeCellId="1" sqref="H188:N188 E45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -23806,7 +23806,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="0" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -23821,8 +23821,8 @@
   </sheetPr>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="1" sqref="H188:N188 K5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -28123,7 +28123,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="0" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -223,27 +223,27 @@
   </sheetPr>
   <dimension ref="A1:O559"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A373" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C394" activeCellId="1" sqref="I374:O466 C394"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="1" sqref="O:O H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2908163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.9183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.6683673469388"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7040816326531"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.0051020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6377551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.5714285714286"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.1275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.5510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8520408163265"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1020408163265"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0765306122449"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.1581632653061"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
@@ -26538,27 +26538,27 @@
   </sheetPr>
   <dimension ref="A1:O559"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A367" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I374" activeCellId="0" sqref="I374:O466"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O:O"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3265306122449"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3571428571429"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.6683673469388"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7040816326531"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.0051020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6377551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.5714285714286"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.2857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.1275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.5510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8520408163265"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.90816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1020408163265"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0765306122449"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.1581632653061"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="224" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="224" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Single Classification" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Group Classification" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Reduced Dimension Single" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Reduced Dimension Group" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -223,8 +225,8 @@
   </sheetPr>
   <dimension ref="A1:O559"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="1" sqref="O:O H20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J94" activeCellId="0" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -26523,7 +26525,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="0" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -26538,8 +26540,8 @@
   </sheetPr>
   <dimension ref="A1:O559"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O:O"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -52838,6 +52840,58 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="0" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -233,7 +233,7 @@
   <dimension ref="A1:O559"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="J2:P109 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -26548,7 +26548,7 @@
   <dimension ref="A1:O559"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="1" sqref="J2:P109 B43"/>
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -52862,8 +52862,8 @@
   </sheetPr>
   <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B128" activeCellId="1" sqref="J2:P109 B128"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -52886,13 +52886,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -63758,7 +63758,7 @@
   <dimension ref="A1:P217"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:P109"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -63782,13 +63782,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -233,7 +233,7 @@
   <dimension ref="A1:O559"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -26532,7 +26532,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="0" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -52847,7 +52847,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="0" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -63742,7 +63742,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="0" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -74634,7 +74634,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="0" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/TP3/Results.xlsx
+++ b/TP3/Results.xlsx
@@ -233,7 +233,7 @@
   <dimension ref="A1:O559"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -26532,7 +26532,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="0" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -52847,7 +52847,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="0" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -63742,7 +63742,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="0" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -74634,7 +74634,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="0" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
